--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5FEA28-58E5-47B3-96CA-5107B946F98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FC8F9-CFCB-4489-A40D-51EB22F6DCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -93,6 +93,7 @@
     <definedName name="i_n_fvps_vi1">Stock!$J$349:$M$350</definedName>
     <definedName name="i_n_pos">Stock!$I$63</definedName>
     <definedName name="i_n_prior_fvps_vi1">Stock!$J$351:$M$352</definedName>
+    <definedName name="i_n_r1type">Stock!$L$213</definedName>
     <definedName name="i_n0_len">Stock!$J$322</definedName>
     <definedName name="i_n1_len">Stock!$L$322</definedName>
     <definedName name="i_n1_matrix_len">Stock!$L$326</definedName>
@@ -100,9 +101,6 @@
     <definedName name="i_n3_len">Stock!$P$322</definedName>
     <definedName name="i_n3_matrix_len">Stock!$P$326</definedName>
     <definedName name="i_numbers_min_b1">Stock!$L$163:$V$163</definedName>
-    <definedName name="i_nut_idx_dams">OFFSET(Stock!$I$328,0,0,Stock!$L$326,1)</definedName>
-    <definedName name="i_nut_idx_offs">OFFSET(Stock!$I$328,0,0,Stock!$P$326,1)</definedName>
-    <definedName name="i_nut_idx_sire">OFFSET(Stock!$I$328,0,0,Stock!$J$326,1)</definedName>
     <definedName name="i_nut_spread_n0">Stock!$J$328</definedName>
     <definedName name="i_nut_spread_n1">OFFSET(Stock!$L$328,0,0,Stock!$L$322,1)</definedName>
     <definedName name="i_nut_spread_n3">OFFSET(Stock!$P$328,0,0,Stock!$P$322,1)</definedName>
@@ -133,7 +131,6 @@
     <definedName name="ia_sire_dsegroup_b1">Stock!$L$152</definedName>
     <definedName name="ia_yatf_dsegroup_b1">Stock!$L$154:$V$154</definedName>
     <definedName name="labour_period_len" localSheetId="0">General!$I$65</definedName>
-    <definedName name="n_v1type">Stock!$L$213</definedName>
     <definedName name="pastures" localSheetId="0">General!$I$55:$K$55</definedName>
     <definedName name="pastures_exist" localSheetId="0">General!$I$56:$K$56</definedName>
     <definedName name="phase_len" localSheetId="0">General!$I$63</definedName>
@@ -456,7 +453,6 @@
   <authors>
     <author>Michael Young (21512438)</author>
     <author>John</author>
-    <author>Michael Young</author>
   </authors>
   <commentList>
     <comment ref="H74" authorId="0" shapeId="0" xr:uid="{5D7AE85C-65D3-4C46-A803-6E307AE905A9}">
@@ -831,31 +827,6 @@
 &gt;3 it is the absolute feedsupply (for confinement or feedlotting)
 &gt;0 it is the value fitted by moving along the linear relationship between the standard (0) and maximum (1)
 &lt;0 it is the value fitted by moving along the linear relationship between the standard (0) and minimum (-1)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I328" authorId="2" shapeId="0" xr:uid="{06ECC049-97FB-497B-BC7E-31557CD2D72C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Young:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Named ranges exist but are formulas so don’t show up.
-used to build pyomo set. Update named ranges if adding n levels</t>
         </r>
       </text>
     </comment>
@@ -2532,7 +2503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -3103,51 +3074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
@@ -3313,7 +3239,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -3666,15 +3592,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="49" xfId="3" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="50" xfId="3" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="51" xfId="3" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -3703,13 +3620,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="11" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="11" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="11" quotePrefix="1" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="11" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="11" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="11" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="11" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="11" borderId="23" xfId="34" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3729,6 +3646,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3799,8 +3719,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4354,25 +4274,25 @@
       <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="158" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="158" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" style="158" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" style="158" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" style="158" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" style="158" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" style="158" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="158" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" style="158" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" style="158" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" style="158" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="158"/>
-    <col min="28" max="28" width="46.1796875" style="158" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="158"/>
+    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="155"/>
+    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4402,7 +4322,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4435,7 +4355,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4468,7 +4388,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4503,7 +4423,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4574,7 +4494,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4612,7 +4532,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4651,7 +4571,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4684,7 +4604,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4717,7 +4637,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4750,7 +4670,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4783,7 +4703,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4820,7 +4740,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4855,7 +4775,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4888,7 +4808,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4921,7 +4841,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4958,7 +4878,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4993,7 +4913,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -5010,19 +4930,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="173"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="171"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -5032,7 +4952,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -5065,7 +4985,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -5098,7 +5018,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -5115,19 +5035,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5137,7 +5057,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -5170,7 +5090,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5203,7 +5123,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5238,7 +5158,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5273,7 +5193,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5320,7 +5240,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5357,7 +5277,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5394,7 +5314,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5431,7 +5351,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5468,7 +5388,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5503,7 +5423,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5536,7 +5456,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5571,7 +5491,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5604,7 +5524,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5637,7 +5557,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5670,7 +5590,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5703,7 +5623,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5738,7 +5658,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5771,7 +5691,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5808,7 +5728,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5847,7 +5767,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5880,7 +5800,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5913,7 +5833,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5946,7 +5866,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5979,7 +5899,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -6012,7 +5932,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -6047,7 +5967,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -6080,7 +6000,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -6095,7 +6015,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="159"/>
+      <c r="H49" s="156"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6117,7 +6037,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -6152,7 +6072,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76"/>
@@ -6172,7 +6092,7 @@
       <c r="K51" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="L51" s="160"/>
+      <c r="L51" s="157"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6190,7 +6110,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -6199,10 +6119,10 @@
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-      <c r="L52" s="160"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="157"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6220,7 +6140,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -6237,8 +6157,8 @@
       <c r="J53" s="108" t="s">
         <v>215</v>
       </c>
-      <c r="K53" s="160"/>
-      <c r="L53" s="160"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6256,7 +6176,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -6265,10 +6185,10 @@
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="160"/>
-      <c r="L54" s="160"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6286,7 +6206,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -6306,7 +6226,7 @@
       <c r="K55" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="L55" s="160"/>
+      <c r="L55" s="157"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6324,7 +6244,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -6344,7 +6264,7 @@
       <c r="K56" s="108" t="b">
         <v>0</v>
       </c>
-      <c r="L56" s="160"/>
+      <c r="L56" s="157"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6362,7 +6282,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -6379,8 +6299,8 @@
       <c r="J57" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="K57" s="160"/>
-      <c r="L57" s="160"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -6398,7 +6318,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -6438,7 +6358,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -6458,7 +6378,7 @@
       <c r="K59" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="L59" s="160"/>
+      <c r="L59" s="157"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -6476,7 +6396,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -6485,10 +6405,10 @@
       <c r="F60" s="5"/>
       <c r="G60" s="4"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="160"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="160"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="157"/>
+      <c r="K60" s="157"/>
+      <c r="L60" s="157"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -6506,7 +6426,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -6546,7 +6466,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -6576,7 +6496,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -6610,7 +6530,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -6640,7 +6560,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76"/>
@@ -6674,7 +6594,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76"/>
@@ -6704,7 +6624,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6718,7 +6638,7 @@
       <c r="H67" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I67" s="156">
+      <c r="I67" s="153">
         <v>43466</v>
       </c>
       <c r="J67" s="2"/>
@@ -6760,7 +6680,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76"/>
@@ -6771,22 +6691,22 @@
       <c r="H68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I68" s="156" t="s">
+      <c r="I68" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="J68" s="156" t="s">
+      <c r="J68" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="K68" s="156" t="s">
+      <c r="K68" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="L68" s="156" t="s">
+      <c r="L68" s="153" t="s">
         <v>206</v>
       </c>
-      <c r="M68" s="156" t="s">
+      <c r="M68" s="153" t="s">
         <v>207</v>
       </c>
-      <c r="N68" s="156" t="s">
+      <c r="N68" s="153" t="s">
         <v>208</v>
       </c>
       <c r="O68" s="2"/>
@@ -6821,7 +6741,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76"/>
@@ -6868,7 +6788,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76"/>
@@ -6915,7 +6835,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6950,7 +6870,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6983,7 +6903,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -7018,7 +6938,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -7051,7 +6971,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -7084,7 +7004,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -7117,7 +7037,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -7147,7 +7067,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -7177,7 +7097,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7207,7 +7127,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7237,7 +7157,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7267,7 +7187,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7297,7 +7217,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7321,27 +7241,27 @@
   </sheetPr>
   <dimension ref="A1:AE388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="J373" sqref="J373"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="I328" sqref="I328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7371,7 +7291,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7404,7 +7324,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7437,7 +7357,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7472,7 +7392,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7543,7 +7463,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7581,7 +7501,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7620,7 +7540,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7653,7 +7573,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7686,7 +7606,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7719,7 +7639,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7752,7 +7672,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7789,7 +7709,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7824,7 +7744,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7857,7 +7777,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7890,7 +7810,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7927,7 +7847,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7962,7 +7882,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7979,19 +7899,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="173"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="171"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -8001,7 +7921,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -8034,7 +7954,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -8067,7 +7987,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -8084,19 +8004,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -8106,7 +8026,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -8139,7 +8059,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -8172,7 +8092,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8207,7 +8127,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8242,7 +8162,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8289,7 +8209,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8326,7 +8246,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8363,7 +8283,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8400,7 +8320,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8437,7 +8357,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8472,7 +8392,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8505,7 +8425,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8540,7 +8460,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8573,7 +8493,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8606,7 +8526,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8639,7 +8559,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8672,7 +8592,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8707,7 +8627,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8740,7 +8660,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8777,7 +8697,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8816,7 +8736,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8849,7 +8769,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8882,7 +8802,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8915,7 +8835,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8948,7 +8868,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8991,7 +8911,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -9026,7 +8946,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -9059,7 +8979,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -9096,7 +9016,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -9131,7 +9051,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -9166,7 +9086,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9200,7 +9120,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9234,7 +9154,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9268,7 +9188,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9302,7 +9222,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9336,7 +9256,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9370,7 +9290,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9404,7 +9324,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9438,7 +9358,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9472,7 +9392,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9506,7 +9426,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9540,7 +9460,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9574,7 +9494,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9608,7 +9528,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9647,7 +9567,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9684,7 +9604,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9721,7 +9641,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9758,7 +9678,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="148" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9791,7 +9711,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9828,7 +9748,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9869,7 +9789,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="157" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9908,7 +9828,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9938,7 +9858,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9974,7 +9894,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -10004,7 +9924,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -10039,7 +9959,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -10080,7 +10000,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -10121,7 +10041,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -10154,7 +10074,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10191,7 +10111,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10224,7 +10144,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10259,7 +10179,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10292,7 +10212,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10327,7 +10247,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10360,7 +10280,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10393,7 +10313,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10426,7 +10346,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10459,7 +10379,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10494,7 +10414,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10527,7 +10447,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10564,7 +10484,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10603,7 +10523,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10636,7 +10556,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10669,7 +10589,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10702,7 +10622,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10741,7 +10661,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10790,7 +10710,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10825,7 +10745,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10858,7 +10778,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10895,7 +10815,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10930,7 +10850,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10983,7 +10903,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -11034,7 +10954,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -11085,7 +11005,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -11118,7 +11038,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -11169,7 +11089,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11218,7 +11138,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11267,7 +11187,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11316,7 +11236,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11349,7 +11269,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11400,7 +11320,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11449,7 +11369,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11496,7 +11416,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11545,7 +11465,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11578,7 +11498,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11629,7 +11549,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11678,7 +11598,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11727,7 +11647,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11776,7 +11696,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11809,7 +11729,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11844,7 +11764,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11885,7 +11805,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11933,7 +11853,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11979,7 +11899,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -12022,7 +11942,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -12055,7 +11975,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -12102,7 +12022,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -12147,7 +12067,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12190,7 +12110,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="154" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12223,7 +12143,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12258,7 +12178,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12291,7 +12211,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12326,7 +12246,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12359,7 +12279,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12392,7 +12312,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12425,7 +12345,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12458,7 +12378,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12493,7 +12413,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12526,7 +12446,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12563,7 +12483,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12602,7 +12522,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12635,7 +12555,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12668,7 +12588,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12703,7 +12623,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12738,7 +12658,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12752,38 +12672,38 @@
       <c r="H146" s="29"/>
       <c r="I146" s="29"/>
       <c r="J146" s="29"/>
-      <c r="K146" s="161"/>
-      <c r="L146" s="162" t="s">
+      <c r="K146" s="158"/>
+      <c r="L146" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="M146" s="163" t="s">
+      <c r="M146" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="N146" s="163">
+      <c r="N146" s="160">
         <v>11</v>
       </c>
-      <c r="O146" s="163">
+      <c r="O146" s="160">
         <v>22</v>
       </c>
-      <c r="P146" s="163">
+      <c r="P146" s="160">
         <v>33</v>
       </c>
-      <c r="Q146" s="163">
+      <c r="Q146" s="160">
         <v>21</v>
       </c>
-      <c r="R146" s="163">
+      <c r="R146" s="160">
         <v>32</v>
       </c>
-      <c r="S146" s="163">
+      <c r="S146" s="160">
         <v>31</v>
       </c>
-      <c r="T146" s="163">
+      <c r="T146" s="160">
         <v>10</v>
       </c>
-      <c r="U146" s="163">
+      <c r="U146" s="160">
         <v>20</v>
       </c>
-      <c r="V146" s="164">
+      <c r="V146" s="161">
         <v>30</v>
       </c>
       <c r="W146" s="81"/>
@@ -12793,7 +12713,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12828,7 +12748,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12883,7 +12803,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12920,7 +12840,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12955,7 +12875,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12990,7 +12910,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -13029,7 +12949,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -13088,7 +13008,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -13145,7 +13065,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13182,7 +13102,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13239,7 +13159,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="153" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13298,7 +13218,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13355,7 +13275,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13412,7 +13332,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13469,7 +13389,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13526,7 +13446,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13586,7 +13506,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="149" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13643,7 +13563,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13679,7 +13599,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13742,7 +13662,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13780,7 +13700,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13834,7 +13754,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13897,7 +13817,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13958,7 +13878,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -14017,7 +13937,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -14076,7 +13996,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -14135,7 +14055,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14196,7 +14116,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14257,7 +14177,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14316,7 +14236,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14375,7 +14295,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14434,7 +14354,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14495,7 +14415,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14556,7 +14476,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14615,7 +14535,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14672,7 +14592,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14731,7 +14651,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14792,7 +14712,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14853,7 +14773,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14912,7 +14832,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14971,7 +14891,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -15030,7 +14950,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -15093,7 +15013,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -15152,7 +15072,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15209,7 +15129,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15266,7 +15186,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15323,7 +15243,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15382,7 +15302,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15439,7 +15359,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15496,7 +15416,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15553,7 +15473,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15610,7 +15530,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15669,7 +15589,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15726,7 +15646,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15783,7 +15703,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15840,7 +15760,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15897,7 +15817,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15956,7 +15876,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -16013,7 +15933,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -16070,7 +15990,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -16127,7 +16047,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16184,7 +16104,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16219,7 +16139,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16279,7 +16199,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16290,7 +16210,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="4"/>
-      <c r="H210" s="151" t="s">
+      <c r="H210" s="148" t="s">
         <v>174</v>
       </c>
       <c r="I210" s="63"/>
@@ -16298,11 +16218,11 @@
       <c r="K210" s="49">
         <v>1</v>
       </c>
-      <c r="L210" s="150" t="str">
+      <c r="L210" s="147" t="str">
         <f t="shared" ref="L210:V211" si="5">L$209&amp;"-"&amp;$K210</f>
         <v>NM-1</v>
       </c>
-      <c r="M210" s="150" t="str">
+      <c r="M210" s="147" t="str">
         <f t="shared" si="5"/>
         <v>00-1</v>
       </c>
@@ -16349,7 +16269,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16360,7 +16280,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="151" t="s">
+      <c r="H211" s="148" t="s">
         <v>175</v>
       </c>
       <c r="I211" s="63"/>
@@ -16368,11 +16288,11 @@
       <c r="K211" s="49">
         <v>2</v>
       </c>
-      <c r="L211" s="150" t="str">
+      <c r="L211" s="147" t="str">
         <f t="shared" si="5"/>
         <v>NM-2</v>
       </c>
-      <c r="M211" s="150" t="str">
+      <c r="M211" s="147" t="str">
         <f t="shared" si="5"/>
         <v>00-2</v>
       </c>
@@ -16419,7 +16339,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16454,7 +16374,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16505,7 +16425,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16568,7 +16488,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16631,7 +16551,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16688,7 +16608,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16747,7 +16667,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16806,7 +16726,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16867,7 +16787,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16928,7 +16848,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16985,7 +16905,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -17042,7 +16962,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -17099,7 +17019,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -17158,7 +17078,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17217,7 +17137,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17274,7 +17194,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17331,7 +17251,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17388,7 +17308,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17447,7 +17367,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17506,7 +17426,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17563,7 +17483,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17620,7 +17540,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17677,7 +17597,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17747,7 +17667,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17814,7 +17734,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17877,7 +17797,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17940,7 +17860,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -18007,7 +17927,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -18076,7 +17996,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -18143,7 +18063,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18210,7 +18130,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18277,7 +18197,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18344,7 +18264,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18413,7 +18333,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18480,7 +18400,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18547,7 +18467,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18614,7 +18534,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18681,7 +18601,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18750,7 +18670,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18817,7 +18737,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18884,7 +18804,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18951,7 +18871,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -19018,7 +18938,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -19079,7 +18999,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -19136,7 +19056,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19193,7 +19113,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19250,7 +19170,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19307,7 +19227,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19376,7 +19296,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19443,7 +19363,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19510,7 +19430,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19577,7 +19497,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19644,7 +19564,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19703,7 +19623,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19765,7 +19685,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19826,7 +19746,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19886,7 +19806,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19953,7 +19873,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -20018,7 +19938,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -20080,7 +20000,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -20140,7 +20060,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20197,7 +20117,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20264,7 +20184,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20297,7 +20217,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20353,7 +20273,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20406,7 +20326,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20459,7 +20379,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20494,7 +20414,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20544,7 +20464,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20602,7 +20522,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20660,7 +20580,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20713,7 +20633,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20765,7 +20685,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20820,7 +20740,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20874,7 +20794,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20928,7 +20848,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20978,7 +20898,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -21028,7 +20948,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -21081,7 +21001,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -21135,7 +21055,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21189,7 +21109,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21239,7 +21159,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21289,7 +21209,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21342,7 +21262,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21394,7 +21314,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21446,7 +21366,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21495,7 +21415,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21542,7 +21462,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21595,7 +21515,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21628,7 +21548,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21661,7 +21581,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21696,7 +21616,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21729,7 +21649,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21762,7 +21682,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21795,7 +21715,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21828,7 +21748,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21863,7 +21783,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21896,7 +21816,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21933,7 +21853,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21972,7 +21892,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -22005,7 +21925,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -22038,7 +21958,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -22071,7 +21991,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -22104,7 +22024,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -22147,7 +22067,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22182,7 +22102,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22215,7 +22135,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22252,7 +22172,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22287,7 +22207,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22334,7 +22254,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22373,7 +22293,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22414,7 +22334,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22442,21 +22362,21 @@
         <v>4</v>
       </c>
       <c r="Q323" s="126"/>
-      <c r="R323" s="185" t="s">
+      <c r="R323" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="S323" s="186"/>
-      <c r="T323" s="186"/>
-      <c r="U323" s="186"/>
-      <c r="V323" s="186"/>
-      <c r="W323" s="187"/>
+      <c r="S323" s="184"/>
+      <c r="T323" s="184"/>
+      <c r="U323" s="184"/>
+      <c r="V323" s="184"/>
+      <c r="W323" s="185"/>
       <c r="X323" s="4"/>
       <c r="Y323" s="16"/>
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22487,19 +22407,19 @@
         <v>1</v>
       </c>
       <c r="Q324" s="2"/>
-      <c r="R324" s="188"/>
-      <c r="S324" s="189"/>
-      <c r="T324" s="189"/>
-      <c r="U324" s="189"/>
-      <c r="V324" s="189"/>
-      <c r="W324" s="190"/>
+      <c r="R324" s="186"/>
+      <c r="S324" s="187"/>
+      <c r="T324" s="187"/>
+      <c r="U324" s="187"/>
+      <c r="V324" s="187"/>
+      <c r="W324" s="188"/>
       <c r="X324" s="4"/>
       <c r="Y324" s="16"/>
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22530,19 +22450,19 @@
         <v>1</v>
       </c>
       <c r="Q325" s="2"/>
-      <c r="R325" s="188"/>
-      <c r="S325" s="189"/>
-      <c r="T325" s="189"/>
-      <c r="U325" s="189"/>
-      <c r="V325" s="189"/>
-      <c r="W325" s="190"/>
+      <c r="R325" s="186"/>
+      <c r="S325" s="187"/>
+      <c r="T325" s="187"/>
+      <c r="U325" s="187"/>
+      <c r="V325" s="187"/>
+      <c r="W325" s="188"/>
       <c r="X325" s="4"/>
       <c r="Y325" s="16"/>
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22571,19 +22491,19 @@
         <v>1</v>
       </c>
       <c r="Q326" s="2"/>
-      <c r="R326" s="166"/>
-      <c r="S326" s="167"/>
-      <c r="T326" s="167"/>
-      <c r="U326" s="167"/>
-      <c r="V326" s="167"/>
-      <c r="W326" s="168"/>
+      <c r="R326" s="163"/>
+      <c r="S326" s="164"/>
+      <c r="T326" s="164"/>
+      <c r="U326" s="164"/>
+      <c r="V326" s="164"/>
+      <c r="W326" s="165"/>
       <c r="X326" s="4"/>
       <c r="Y326" s="16"/>
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22625,7 +22545,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22641,10 +22561,10 @@
       <c r="H328" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="I328" s="145" t="s">
+      <c r="I328" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="J328" s="152">
+      <c r="J328" s="149">
         <v>0</v>
       </c>
       <c r="K328" s="31">
@@ -22676,7 +22596,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22690,10 +22610,10 @@
       <c r="F329" s="5"/>
       <c r="G329" s="4"/>
       <c r="H329" s="54"/>
-      <c r="I329" s="146" t="s">
+      <c r="I329" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="J329" s="152"/>
+      <c r="J329" s="149"/>
       <c r="K329" s="31"/>
       <c r="L329" s="31">
         <v>1</v>
@@ -22721,7 +22641,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22735,10 +22655,10 @@
       <c r="F330" s="5"/>
       <c r="G330" s="4"/>
       <c r="H330" s="54"/>
-      <c r="I330" s="146" t="s">
+      <c r="I330" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="J330" s="152"/>
+      <c r="J330" s="149"/>
       <c r="K330" s="31"/>
       <c r="L330" s="31">
         <v>-1</v>
@@ -22766,7 +22686,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22780,10 +22700,10 @@
       <c r="F331" s="5"/>
       <c r="G331" s="4"/>
       <c r="H331" s="54"/>
-      <c r="I331" s="146" t="s">
+      <c r="I331" s="191" t="s">
         <v>121</v>
       </c>
-      <c r="J331" s="152"/>
+      <c r="J331" s="149"/>
       <c r="K331" s="31"/>
       <c r="L331" s="31">
         <v>1</v>
@@ -22811,7 +22731,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22825,10 +22745,10 @@
       <c r="F332" s="5"/>
       <c r="G332" s="4"/>
       <c r="H332" s="54"/>
-      <c r="I332" s="146" t="s">
+      <c r="I332" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="J332" s="152"/>
+      <c r="J332" s="149"/>
       <c r="K332" s="31"/>
       <c r="L332" s="31">
         <v>-1</v>
@@ -22856,7 +22776,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22870,10 +22790,10 @@
       <c r="F333" s="5"/>
       <c r="G333" s="4"/>
       <c r="H333" s="54"/>
-      <c r="I333" s="146" t="s">
+      <c r="I333" s="191" t="s">
         <v>123</v>
       </c>
-      <c r="J333" s="152"/>
+      <c r="J333" s="149"/>
       <c r="K333" s="31"/>
       <c r="L333" s="31">
         <v>3.5</v>
@@ -22901,7 +22821,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22915,10 +22835,10 @@
       <c r="F334" s="5"/>
       <c r="G334" s="4"/>
       <c r="H334" s="54"/>
-      <c r="I334" s="146" t="s">
+      <c r="I334" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="J334" s="152"/>
+      <c r="J334" s="149"/>
       <c r="K334" s="31"/>
       <c r="L334" s="31"/>
       <c r="M334" s="31"/>
@@ -22942,7 +22862,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22956,10 +22876,10 @@
       <c r="F335" s="5"/>
       <c r="G335" s="4"/>
       <c r="H335" s="54"/>
-      <c r="I335" s="147" t="s">
+      <c r="I335" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="J335" s="152"/>
+      <c r="J335" s="149"/>
       <c r="K335" s="31"/>
       <c r="L335" s="31"/>
       <c r="M335" s="31"/>
@@ -22983,7 +22903,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -23018,7 +22938,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="158" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -23053,7 +22973,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -23088,7 +23008,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -23133,7 +23053,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23180,7 +23100,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23232,7 +23152,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23282,7 +23202,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23331,7 +23251,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76">
@@ -23378,7 +23298,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23423,7 +23343,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23445,7 +23365,7 @@
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
-      <c r="O346" s="169">
+      <c r="O346" s="166">
         <v>43784</v>
       </c>
       <c r="P346" s="2"/>
@@ -23462,7 +23382,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23484,7 +23404,7 @@
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
-      <c r="O347" s="169">
+      <c r="O347" s="166">
         <v>43480</v>
       </c>
       <c r="P347" s="2"/>
@@ -23501,7 +23421,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76">
@@ -23544,7 +23464,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76">
@@ -23591,7 +23511,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23623,22 +23543,22 @@
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
       <c r="P350" s="2"/>
-      <c r="Q350" s="176" t="s">
+      <c r="Q350" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="R350" s="177"/>
-      <c r="S350" s="177"/>
-      <c r="T350" s="177"/>
-      <c r="U350" s="177"/>
-      <c r="V350" s="177"/>
-      <c r="W350" s="178"/>
+      <c r="R350" s="175"/>
+      <c r="S350" s="175"/>
+      <c r="T350" s="175"/>
+      <c r="U350" s="175"/>
+      <c r="V350" s="175"/>
+      <c r="W350" s="176"/>
       <c r="X350" s="4"/>
       <c r="Y350" s="16"/>
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23672,20 +23592,20 @@
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
-      <c r="Q351" s="179"/>
-      <c r="R351" s="180"/>
-      <c r="S351" s="180"/>
-      <c r="T351" s="180"/>
-      <c r="U351" s="180"/>
-      <c r="V351" s="180"/>
-      <c r="W351" s="181"/>
+      <c r="Q351" s="177"/>
+      <c r="R351" s="178"/>
+      <c r="S351" s="178"/>
+      <c r="T351" s="178"/>
+      <c r="U351" s="178"/>
+      <c r="V351" s="178"/>
+      <c r="W351" s="179"/>
       <c r="X351" s="4"/>
       <c r="Y351" s="16"/>
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23717,20 +23637,20 @@
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
-      <c r="Q352" s="179"/>
-      <c r="R352" s="180"/>
-      <c r="S352" s="180"/>
-      <c r="T352" s="180"/>
-      <c r="U352" s="180"/>
-      <c r="V352" s="180"/>
-      <c r="W352" s="181"/>
+      <c r="Q352" s="177"/>
+      <c r="R352" s="178"/>
+      <c r="S352" s="178"/>
+      <c r="T352" s="178"/>
+      <c r="U352" s="178"/>
+      <c r="V352" s="178"/>
+      <c r="W352" s="179"/>
       <c r="X352" s="4"/>
       <c r="Y352" s="16"/>
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23752,20 +23672,20 @@
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
-      <c r="Q353" s="182"/>
-      <c r="R353" s="183"/>
-      <c r="S353" s="183"/>
-      <c r="T353" s="183"/>
-      <c r="U353" s="183"/>
-      <c r="V353" s="183"/>
-      <c r="W353" s="184"/>
+      <c r="Q353" s="180"/>
+      <c r="R353" s="181"/>
+      <c r="S353" s="181"/>
+      <c r="T353" s="181"/>
+      <c r="U353" s="181"/>
+      <c r="V353" s="181"/>
+      <c r="W353" s="182"/>
       <c r="X353" s="4"/>
       <c r="Y353" s="16"/>
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76">
@@ -23800,7 +23720,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23841,7 +23761,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23884,7 +23804,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23932,7 +23852,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76"/>
@@ -23976,7 +23896,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -24021,7 +23941,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -24054,7 +23974,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -24089,7 +24009,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -24132,7 +24052,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76">
@@ -24179,7 +24099,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24211,20 +24131,20 @@
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
-      <c r="Q364" s="176"/>
-      <c r="R364" s="177"/>
-      <c r="S364" s="177"/>
-      <c r="T364" s="177"/>
-      <c r="U364" s="177"/>
-      <c r="V364" s="177"/>
-      <c r="W364" s="178"/>
+      <c r="Q364" s="174"/>
+      <c r="R364" s="175"/>
+      <c r="S364" s="175"/>
+      <c r="T364" s="175"/>
+      <c r="U364" s="175"/>
+      <c r="V364" s="175"/>
+      <c r="W364" s="176"/>
       <c r="X364" s="4"/>
       <c r="Y364" s="16"/>
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24258,20 +24178,20 @@
       <c r="N365" s="2"/>
       <c r="O365" s="2"/>
       <c r="P365" s="2"/>
-      <c r="Q365" s="179"/>
-      <c r="R365" s="180"/>
-      <c r="S365" s="180"/>
-      <c r="T365" s="180"/>
-      <c r="U365" s="180"/>
-      <c r="V365" s="180"/>
-      <c r="W365" s="181"/>
+      <c r="Q365" s="177"/>
+      <c r="R365" s="178"/>
+      <c r="S365" s="178"/>
+      <c r="T365" s="178"/>
+      <c r="U365" s="178"/>
+      <c r="V365" s="178"/>
+      <c r="W365" s="179"/>
       <c r="X365" s="4"/>
       <c r="Y365" s="16"/>
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24303,20 +24223,20 @@
       <c r="N366" s="2"/>
       <c r="O366" s="2"/>
       <c r="P366" s="2"/>
-      <c r="Q366" s="179"/>
-      <c r="R366" s="180"/>
-      <c r="S366" s="180"/>
-      <c r="T366" s="180"/>
-      <c r="U366" s="180"/>
-      <c r="V366" s="180"/>
-      <c r="W366" s="181"/>
+      <c r="Q366" s="177"/>
+      <c r="R366" s="178"/>
+      <c r="S366" s="178"/>
+      <c r="T366" s="178"/>
+      <c r="U366" s="178"/>
+      <c r="V366" s="178"/>
+      <c r="W366" s="179"/>
       <c r="X366" s="4"/>
       <c r="Y366" s="16"/>
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76">
@@ -24338,20 +24258,20 @@
       <c r="N367" s="2"/>
       <c r="O367" s="2"/>
       <c r="P367" s="2"/>
-      <c r="Q367" s="182"/>
-      <c r="R367" s="183"/>
-      <c r="S367" s="183"/>
-      <c r="T367" s="183"/>
-      <c r="U367" s="183"/>
-      <c r="V367" s="183"/>
-      <c r="W367" s="184"/>
+      <c r="Q367" s="180"/>
+      <c r="R367" s="181"/>
+      <c r="S367" s="181"/>
+      <c r="T367" s="181"/>
+      <c r="U367" s="181"/>
+      <c r="V367" s="181"/>
+      <c r="W367" s="182"/>
       <c r="X367" s="4"/>
       <c r="Y367" s="16"/>
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="158" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24386,7 +24306,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="158" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24421,7 +24341,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="33"/>
       <c r="C370" s="76">
@@ -24456,7 +24376,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="33"/>
       <c r="C371" s="76">
@@ -24470,7 +24390,7 @@
       <c r="H371" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I371" s="152"/>
+      <c r="I371" s="149"/>
       <c r="J371" s="107" t="s">
         <v>75</v>
       </c>
@@ -24497,7 +24417,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="33"/>
       <c r="C372" s="76"/>
@@ -24506,7 +24426,7 @@
       <c r="F372" s="5"/>
       <c r="G372" s="4"/>
       <c r="H372" s="2"/>
-      <c r="I372" s="152"/>
+      <c r="I372" s="149"/>
       <c r="J372" s="107" t="s">
         <v>281</v>
       </c>
@@ -24551,7 +24471,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="33"/>
       <c r="C373" s="76">
@@ -24567,8 +24487,8 @@
       <c r="H373" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="I373" s="152"/>
-      <c r="J373" s="165">
+      <c r="I373" s="149"/>
+      <c r="J373" s="162">
         <v>0</v>
       </c>
       <c r="K373" s="106">
@@ -24612,7 +24532,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="33"/>
       <c r="C374" s="76">
@@ -24628,8 +24548,8 @@
       <c r="H374" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="I374" s="152"/>
-      <c r="J374" s="152"/>
+      <c r="I374" s="149"/>
+      <c r="J374" s="149"/>
       <c r="K374" s="2"/>
       <c r="L374" s="107"/>
       <c r="M374" s="2"/>
@@ -24665,7 +24585,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="33"/>
       <c r="C375" s="76">
@@ -24681,8 +24601,8 @@
       <c r="H375" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="I375" s="152"/>
-      <c r="J375" s="152"/>
+      <c r="I375" s="149"/>
+      <c r="J375" s="149"/>
       <c r="K375" s="2"/>
       <c r="L375" s="107"/>
       <c r="M375" s="2"/>
@@ -24718,7 +24638,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" s="158" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="33"/>
       <c r="C376" s="76"/>
@@ -24726,8 +24646,8 @@
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
       <c r="G376" s="4"/>
-      <c r="H376" s="193"/>
-      <c r="I376" s="170"/>
+      <c r="H376" s="168"/>
+      <c r="I376" s="167"/>
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
       <c r="L376" s="107"/>
@@ -24748,7 +24668,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="33"/>
       <c r="C377" s="76">
@@ -24783,7 +24703,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="33"/>
       <c r="C378" s="76">
@@ -24816,7 +24736,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="35"/>
       <c r="C379" s="79">
@@ -24851,7 +24771,7 @@
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
     </row>
-    <row r="380" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="19"/>
       <c r="C380" s="80">
@@ -24884,7 +24804,7 @@
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
     </row>
-    <row r="381" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="76">
@@ -24917,7 +24837,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="69"/>
@@ -24947,7 +24867,7 @@
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="69"/>
@@ -24977,7 +24897,7 @@
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="69"/>
@@ -25007,7 +24927,7 @@
       <c r="AA384" s="1"/>
       <c r="AB384" s="1"/>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="69"/>
@@ -25037,7 +24957,7 @@
       <c r="AA385" s="1"/>
       <c r="AB385" s="1"/>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="69"/>
@@ -25067,7 +24987,7 @@
       <c r="AA386" s="1"/>
       <c r="AB386" s="1"/>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="69"/>
@@ -25097,7 +25017,7 @@
       <c r="AA387" s="1"/>
       <c r="AB387" s="1"/>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C388" s="75" t="s">
         <v>4</v>
       </c>
@@ -25243,22 +25163,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -25290,7 +25210,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -25325,7 +25245,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -25360,7 +25280,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -25397,7 +25317,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -25474,7 +25394,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -25514,7 +25434,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -25555,7 +25475,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -25590,7 +25510,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25625,7 +25545,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25660,7 +25580,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25695,7 +25615,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25734,7 +25654,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25771,7 +25691,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25806,7 +25726,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25845,7 +25765,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25882,7 +25802,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25919,7 +25839,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25936,23 +25856,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="191" t="s">
+      <c r="J18" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
+      <c r="S18" s="189"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
+      <c r="W18" s="189"/>
+      <c r="X18" s="189"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -25960,7 +25880,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25995,7 +25915,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -26030,7 +25950,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -26047,23 +25967,23 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="192"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="173"/>
+      <c r="S21" s="173"/>
+      <c r="T21" s="173"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="173"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="190"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>
@@ -26071,7 +25991,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -26106,7 +26026,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -26141,7 +26061,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -26178,7 +26098,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -26215,7 +26135,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -26264,7 +26184,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -26303,7 +26223,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -26342,7 +26262,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -26381,7 +26301,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -26420,7 +26340,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -26457,7 +26377,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -26494,7 +26414,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -26555,7 +26475,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26620,7 +26540,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26655,7 +26575,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26690,7 +26610,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26725,7 +26645,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26762,7 +26682,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26797,7 +26717,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26834,7 +26754,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26869,7 +26789,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26904,7 +26824,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26936,7 +26856,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26968,7 +26888,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -27000,7 +26920,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -27032,7 +26952,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -27064,7 +26984,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -27096,7 +27016,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FC8F9-CFCB-4489-A40D-51EB22F6DCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3FFFE-7AE2-4722-A706-8CE32F50373D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -30,43 +30,45 @@
     <definedName name="grazing_int" localSheetId="0">General!$I$58:$L$58</definedName>
     <definedName name="i_a0_pos">Stock!$I$52</definedName>
     <definedName name="i_a1_pos">Stock!$I$53</definedName>
-    <definedName name="i_adjp_cfw_initial_w0">Stock!$K$373</definedName>
-    <definedName name="i_adjp_cfw_initial_w1">Stock!$P$373:$P$375</definedName>
-    <definedName name="i_adjp_cfw_initial_w3">Stock!$V$373:$V$375</definedName>
-    <definedName name="i_adjp_fd_initial_w0">Stock!$L$373</definedName>
-    <definedName name="i_adjp_fd_initial_w1">Stock!$Q$373:$Q$375</definedName>
-    <definedName name="i_adjp_fd_initial_w3">Stock!$U$373:$U$375</definedName>
-    <definedName name="i_adjp_fl_initial_w0">Stock!$M$373</definedName>
-    <definedName name="i_adjp_fl_initial_w1">Stock!$R$373:$R$375</definedName>
-    <definedName name="i_adjp_fl_initial_w3">Stock!$W$373:$W$375</definedName>
-    <definedName name="i_adjp_lw_initial_w0">Stock!$J$373</definedName>
-    <definedName name="i_adjp_lw_initial_w1">Stock!$O$373:$O$375</definedName>
-    <definedName name="i_adjp_lw_initial_w3">Stock!$T$373:$T$375</definedName>
+    <definedName name="i_adjp_cfw_initial_w0">Stock!$K$369</definedName>
+    <definedName name="i_adjp_cfw_initial_w1">Stock!$P$369:$P$371</definedName>
+    <definedName name="i_adjp_cfw_initial_w3">Stock!$V$369:$V$371</definedName>
+    <definedName name="i_adjp_fd_initial_w0">Stock!$L$369</definedName>
+    <definedName name="i_adjp_fd_initial_w1">Stock!$Q$369:$Q$371</definedName>
+    <definedName name="i_adjp_fd_initial_w3">Stock!$U$369:$U$371</definedName>
+    <definedName name="i_adjp_fl_initial_w0">Stock!$M$369</definedName>
+    <definedName name="i_adjp_fl_initial_w1">Stock!$R$369:$R$371</definedName>
+    <definedName name="i_adjp_fl_initial_w3">Stock!$W$369:$W$371</definedName>
+    <definedName name="i_adjp_lw_initial_w0">Stock!$J$369</definedName>
+    <definedName name="i_adjp_lw_initial_w1">Stock!$O$369:$O$371</definedName>
+    <definedName name="i_adjp_lw_initial_w3">Stock!$T$369:$T$371</definedName>
     <definedName name="i_age_max">Stock!$I$71</definedName>
     <definedName name="i_age_max_offs">Stock!$I$72</definedName>
     <definedName name="i_b0_pos">Stock!$I$54</definedName>
     <definedName name="i_b1_pos">Stock!$I$55</definedName>
     <definedName name="i_btrt_idx_offs">Stock!$L$275:$Q$275</definedName>
     <definedName name="i_condensefvp_type1">Stock!$Q$341</definedName>
-    <definedName name="i_condensefvp_type3">Stock!$Q$357</definedName>
+    <definedName name="i_condensefvp_type3">Stock!$Q$353</definedName>
     <definedName name="i_confinement_pattern_dams">Stock!$L$324</definedName>
     <definedName name="i_confinement_pattern_offs">Stock!$P$324</definedName>
     <definedName name="i_confinement_pattern_sire">Stock!$J$324</definedName>
     <definedName name="i_d_pos">Stock!$I$56</definedName>
     <definedName name="i_date_assetvalue" localSheetId="0">General!$I$67</definedName>
     <definedName name="i_density_n0">Stock!$K$328</definedName>
-    <definedName name="i_density_n1">OFFSET(Stock!$M$328,0,0,Stock!$L$322,1)</definedName>
-    <definedName name="i_density_n3">OFFSET(Stock!$Q$328,0,0,Stock!$P$322,1)</definedName>
+    <definedName name="i_density_n1">Stock!$M$328:$M$330</definedName>
+    <definedName name="i_density_n3">Stock!$Q$328:$Q$330</definedName>
     <definedName name="i_dvp_mask_f1">Stock!$J$343:$O$343</definedName>
-    <definedName name="i_dvp_mask_f3">Stock!$J$359:$M$359</definedName>
+    <definedName name="i_dvp_mask_f3">Stock!$J$355:$M$355</definedName>
     <definedName name="i_e0_pos">Stock!$I$57</definedName>
     <definedName name="i_e1_pos">Stock!$I$58</definedName>
     <definedName name="i_feedsupply_itn_max">Stock!$I$80</definedName>
+    <definedName name="i_fvp_is_rdvp_f1">Stock!$J$344:$O$344</definedName>
     <definedName name="i_fvp_mask_dams">Stock!$J$341:$O$341</definedName>
-    <definedName name="i_fvp_mask_offs">Stock!$J$357:$M$357</definedName>
+    <definedName name="i_fvp_mask_offs">Stock!$J$353:$M$353</definedName>
     <definedName name="i_fvp_type1">Stock!$J$342:$O$342</definedName>
-    <definedName name="i_fvp_type3">Stock!$J$358:$M$358</definedName>
-    <definedName name="i_fvp4_date_i">Stock!$O$346:$O$347</definedName>
+    <definedName name="i_fvp_type3">Stock!$J$354:$M$354</definedName>
+    <definedName name="i_fvp4_date_i">Stock!$O$345:$O$346</definedName>
+    <definedName name="i_i_pos">Stock!$I$59</definedName>
     <definedName name="i_initial_b1">Stock!$L$162:$V$162</definedName>
     <definedName name="i_k2_idx_dams">Stock!$L$209:$V$211</definedName>
     <definedName name="i_k2_pos">Stock!$I$60</definedName>
@@ -90,11 +92,12 @@
     <definedName name="i_mul_g2c0">Stock!$P$111:$R$114</definedName>
     <definedName name="i_mul_g3c0">Stock!$P$116:$R$119</definedName>
     <definedName name="i_n_fvp_period0">Stock!$J$323</definedName>
-    <definedName name="i_n_fvps_vi1">Stock!$J$349:$M$350</definedName>
+    <definedName name="i_n_fvps_vi1">Stock!#REF!</definedName>
     <definedName name="i_n_pos">Stock!$I$63</definedName>
-    <definedName name="i_n_prior_fvps_vi1">Stock!$J$351:$M$352</definedName>
+    <definedName name="i_n_prior_fvps_vi1">Stock!#REF!</definedName>
     <definedName name="i_n_r1type">Stock!$L$213</definedName>
     <definedName name="i_n0_len">Stock!$J$322</definedName>
+    <definedName name="i_n0_matrix_len">Stock!$J$326</definedName>
     <definedName name="i_n1_len">Stock!$L$322</definedName>
     <definedName name="i_n1_matrix_len">Stock!$L$326</definedName>
     <definedName name="i_n2_len">Stock!$L$322</definedName>
@@ -102,14 +105,14 @@
     <definedName name="i_n3_matrix_len">Stock!$P$326</definedName>
     <definedName name="i_numbers_min_b1">Stock!$L$163:$V$163</definedName>
     <definedName name="i_nut_spread_n0">Stock!$J$328</definedName>
-    <definedName name="i_nut_spread_n1">OFFSET(Stock!$L$328,0,0,Stock!$L$322,1)</definedName>
-    <definedName name="i_nut_spread_n3">OFFSET(Stock!$P$328,0,0,Stock!$P$322,1)</definedName>
+    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$330</definedName>
+    <definedName name="i_nut_spread_n3">Stock!$P$328:$P$330</definedName>
     <definedName name="i_p_pos">Stock!$I$64</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$74</definedName>
     <definedName name="i_progeny_w2_len">Stock!$O$320</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$70</definedName>
     <definedName name="i_transfer_exists_tg1">Stock!$K$127:$N$129</definedName>
-    <definedName name="i_w_idx_sire">OFFSET(Stock!$I$373,0,0,Stock!$J$320,1)</definedName>
+    <definedName name="i_w_idx_sire">OFFSET(Stock!$I$369,0,0,Stock!$J$320,1)</definedName>
     <definedName name="i_w_pos">Stock!$I$65</definedName>
     <definedName name="i_w_start_len1" localSheetId="1">Stock!$L$321</definedName>
     <definedName name="i_w_start_len3">Stock!$P$321</definedName>
@@ -124,16 +127,17 @@
     <definedName name="ia_g1_tg1">Stock!$K$123:$N$125</definedName>
     <definedName name="ia_k2_mlsb1">Stock!$L$168:$V$207</definedName>
     <definedName name="ia_offs_dsegroup_b1">Stock!$L$155</definedName>
-    <definedName name="ia_ppk2g1_vlsb1">Stock!$L$214:$V$273</definedName>
+    <definedName name="ia_ppk2g1_rlsb1">Stock!$L$214:$V$273</definedName>
     <definedName name="ia_ppk5_lsb0">Stock!$L$280:$Q$299</definedName>
     <definedName name="ia_prepost_b1">Stock!$L$159:$V$159</definedName>
-    <definedName name="ia_r1type_fi">Stock!$J$344:$O$345</definedName>
+    <definedName name="ia_r1type_fi">Stock!#REF!</definedName>
     <definedName name="ia_sire_dsegroup_b1">Stock!$L$152</definedName>
     <definedName name="ia_yatf_dsegroup_b1">Stock!$L$154:$V$154</definedName>
     <definedName name="labour_period_len" localSheetId="0">General!$I$65</definedName>
     <definedName name="pastures" localSheetId="0">General!$I$55:$K$55</definedName>
     <definedName name="pastures_exist" localSheetId="0">General!$I$56:$K$56</definedName>
     <definedName name="phase_len" localSheetId="0">General!$I$63</definedName>
+    <definedName name="rdvp_type_r">Stock!$J$348:$L$348</definedName>
     <definedName name="sheep_pools" localSheetId="0">General!$I$61:$L$61</definedName>
     <definedName name="TL.d" localSheetId="0">[0]!L.d</definedName>
     <definedName name="TL.d">[0]!L.d</definedName>
@@ -950,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H344" authorId="0" shapeId="0" xr:uid="{D0966CCC-CC8D-4CC5-A3DB-3C71C534B814}">
+    <comment ref="J347" authorId="0" shapeId="0" xr:uid="{E29AB565-A991-45ED-AD8D-42E00F440CFF}">
       <text>
         <r>
           <rPr>
@@ -970,12 +974,131 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The structural inputs above (relating to k2 clustering) are inputted based on the reproduction cycle (R type - prejoining, scanning &amp; birth). This input is basically an association between r and v. 
-(note the fvps that are not dvps dont need to have a value)</t>
+reproduction dvps. Used in the ppk2g1 cluster input above.</t>
         </r>
       </text>
     </comment>
-    <comment ref="J348" authorId="0" shapeId="0" xr:uid="{E29AB565-A991-45ED-AD8D-42E00F440CFF}">
+    <comment ref="H348" authorId="0" shapeId="0" xr:uid="{5FD2DB34-320E-4C8F-8B32-CAC2458CCD6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+this is the fvp that the start of each part of the repro cycle. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q352" authorId="0" shapeId="0" xr:uid="{8A202C78-795B-49D7-A2D5-396964034621}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Typically this is prejoining.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H353" authorId="0" shapeId="0" xr:uid="{CE04D53A-E6D8-4A80-BFB2-063DD8B1C5D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+is the fvp being included in the model?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H354" authorId="0" shapeId="0" xr:uid="{E52CB49D-5DB4-428A-B748-FAED94ADB99C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FVP type is only relevant for the fvps that are included. It must start at 0 and icrement by 1 for each active fvp.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H355" authorId="0" shapeId="0" xr:uid="{83DAB1CD-5F99-42DB-AF94-C7E71EDE90D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+is the fvp also a dvp?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J358" authorId="0" shapeId="0" xr:uid="{693A6FF1-2DB9-4B79-B819-60CE71AB1300}">
       <text>
         <r>
           <rPr>
@@ -999,151 +1122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H351" authorId="0" shapeId="0" xr:uid="{9C7954EB-EA25-4202-8B26-A092BC00101F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-condensing happens at prejoining. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q356" authorId="0" shapeId="0" xr:uid="{8A202C78-795B-49D7-A2D5-396964034621}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Typically this is prejoining.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H357" authorId="0" shapeId="0" xr:uid="{CE04D53A-E6D8-4A80-BFB2-063DD8B1C5D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-is the fvp being included in the model?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H358" authorId="0" shapeId="0" xr:uid="{E52CB49D-5DB4-428A-B748-FAED94ADB99C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-FVP type is only relevant for the fvps that are included. It must start at 0 and icrement by 1 for each active fvp.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H359" authorId="0" shapeId="0" xr:uid="{83DAB1CD-5F99-42DB-AF94-C7E71EDE90D7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-is the fvp also a dvp?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J362" authorId="0" shapeId="0" xr:uid="{693A6FF1-2DB9-4B79-B819-60CE71AB1300}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-#this is only the v type axis. it is expanded to full v axis in code.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H365" authorId="0" shapeId="0" xr:uid="{67EB845D-0B2A-4F06-A743-CE82E4536FB1}">
+    <comment ref="H361" authorId="0" shapeId="0" xr:uid="{67EB845D-0B2A-4F06-A743-CE82E4536FB1}">
       <text>
         <r>
           <rPr>
@@ -1172,7 +1151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="298">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -2007,9 +1986,6 @@
     <t>User defined</t>
   </si>
   <si>
-    <t>Association: reproduction cycle for each fvp</t>
-  </si>
-  <si>
     <t>User defined FVP date</t>
   </si>
   <si>
@@ -2031,11 +2007,6 @@
     <t>DVP3</t>
   </si>
   <si>
-    <t>The number is the number of fvps prior to the start of this dvp. So if the dvp dates are say 1 Feb, 1 May &amp; 1 July and the FVP dates are 1 Feb, 1 May, 1 June, 1 July, 1 Oct. Then: 
-n_prior_damfvps_v = 0, 1, 3
-n_damsfvps_v = 1,2,2</t>
-  </si>
-  <si>
     <t>Dams FVP/DVP</t>
   </si>
   <si>
@@ -2079,6 +2050,24 @@
   </si>
   <si>
     <t>Initial lw 3</t>
+  </si>
+  <si>
+    <t>nut spread</t>
+  </si>
+  <si>
+    <t>FVP is reproduction DVP</t>
+  </si>
+  <si>
+    <t>FVP/DVP type of each dvp in reproduction cycle</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
   </si>
 </sst>
 </file>
@@ -3239,7 +3228,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -3650,6 +3639,12 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="47" xfId="3" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3719,7 +3714,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="3" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="3" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3768,7 +3766,7 @@
     <cellStyle name="Warning Text" xfId="21" builtinId="11" customBuiltin="1"/>
     <cellStyle name="WorksheetBackground" xfId="38" xr:uid="{D9586848-0E78-42E2-92FA-4C5FBD9E7440}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -3901,31 +3899,6 @@
           <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4274,25 +4247,25 @@
       <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="155"/>
-    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.7109375" style="155"/>
+    <col min="1" max="1" width="4.7265625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="155"/>
+    <col min="28" max="28" width="46.1796875" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4322,7 +4295,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4355,7 +4328,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4388,7 +4361,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4423,7 +4396,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4494,7 +4467,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4532,7 +4505,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4571,7 +4544,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4604,7 +4577,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4637,7 +4610,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4670,7 +4643,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4703,7 +4676,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4740,7 +4713,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4775,7 +4748,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4808,7 +4781,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4841,7 +4814,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4878,7 +4851,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4913,7 +4886,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4930,19 +4903,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="169" t="s">
+      <c r="J18" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="173"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4952,7 +4925,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4985,7 +4958,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -5018,7 +4991,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -5035,19 +5008,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="172" t="s">
+      <c r="J21" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -5057,7 +5030,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -5090,7 +5063,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5123,7 +5096,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5158,7 +5131,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5193,7 +5166,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5240,7 +5213,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5277,7 +5250,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5314,7 +5287,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5351,7 +5324,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5388,7 +5361,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5423,7 +5396,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5456,7 +5429,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5491,7 +5464,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5524,7 +5497,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5557,7 +5530,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5590,7 +5563,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5623,7 +5596,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5658,7 +5631,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5691,7 +5664,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5728,7 +5701,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5767,7 +5740,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5800,7 +5773,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5833,7 +5806,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5866,7 +5839,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5899,7 +5872,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -5932,7 +5905,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5967,7 +5940,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -6000,7 +5973,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -6037,7 +6010,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -6072,7 +6045,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76"/>
@@ -6110,7 +6083,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -6140,7 +6113,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -6176,7 +6149,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -6206,7 +6179,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -6244,7 +6217,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -6282,7 +6255,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -6318,7 +6291,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -6358,7 +6331,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -6396,7 +6369,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -6426,7 +6399,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -6466,7 +6439,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -6496,7 +6469,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -6530,7 +6503,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -6560,7 +6533,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76"/>
@@ -6594,7 +6567,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76"/>
@@ -6624,7 +6597,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6680,7 +6653,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76"/>
@@ -6741,7 +6714,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76"/>
@@ -6788,7 +6761,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76"/>
@@ -6835,7 +6808,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6870,7 +6843,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6903,7 +6876,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6938,7 +6911,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -6971,7 +6944,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -7004,7 +6977,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -7037,7 +7010,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -7067,7 +7040,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -7097,7 +7070,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7127,7 +7100,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7157,7 +7130,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7187,7 +7160,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7217,7 +7190,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7239,29 +7212,29 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE388"/>
+  <dimension ref="A1:AE384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="I328" sqref="I328"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="N349" sqref="N349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7291,7 +7264,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7324,7 +7297,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7357,7 +7330,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7392,7 +7365,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7463,7 +7436,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7501,7 +7474,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7540,7 +7513,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7573,7 +7546,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7606,7 +7579,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7639,7 +7612,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7672,7 +7645,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7709,7 +7682,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7744,7 +7717,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7777,7 +7750,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7810,7 +7783,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7847,7 +7820,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7882,7 +7855,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7899,19 +7872,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="169" t="s">
+      <c r="J18" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="173"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -7921,7 +7894,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7954,7 +7927,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -7987,7 +7960,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -8004,19 +7977,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="172" t="s">
+      <c r="J21" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -8026,7 +7999,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -8059,7 +8032,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -8092,7 +8065,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8127,7 +8100,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8162,7 +8135,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8209,7 +8182,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8246,7 +8219,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8283,7 +8256,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8320,7 +8293,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8357,7 +8330,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8392,7 +8365,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8425,7 +8398,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8460,7 +8433,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8493,7 +8466,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8526,7 +8499,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8559,7 +8532,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8592,7 +8565,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8627,7 +8600,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8660,7 +8633,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8697,7 +8670,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8736,7 +8709,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8769,7 +8742,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8802,7 +8775,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8835,7 +8808,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8868,7 +8841,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8911,7 +8884,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8946,7 +8919,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -8979,7 +8952,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -9016,7 +8989,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -9051,7 +9024,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -9086,7 +9059,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9120,7 +9093,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9154,7 +9127,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9188,7 +9161,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9222,7 +9195,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9256,7 +9229,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9290,7 +9263,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9324,7 +9297,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9358,7 +9331,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9392,7 +9365,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9426,7 +9399,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9460,7 +9433,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9494,7 +9467,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9528,7 +9501,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9567,7 +9540,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9604,7 +9577,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9641,7 +9614,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9678,7 +9651,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9711,7 +9684,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9748,7 +9721,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9789,7 +9762,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9828,7 +9801,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9858,7 +9831,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9894,7 +9867,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9924,7 +9897,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -9959,7 +9932,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -10000,7 +9973,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -10041,7 +10014,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -10074,7 +10047,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10111,7 +10084,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10144,7 +10117,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10179,7 +10152,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10212,7 +10185,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10247,7 +10220,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10280,7 +10253,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10313,7 +10286,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10346,7 +10319,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10379,7 +10352,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10414,7 +10387,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10447,7 +10420,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10484,7 +10457,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10523,7 +10496,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10556,7 +10529,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10589,7 +10562,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10622,7 +10595,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10661,7 +10634,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10710,7 +10683,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10745,7 +10718,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10778,7 +10751,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10815,7 +10788,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10850,7 +10823,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10903,7 +10876,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10954,7 +10927,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -11005,7 +10978,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -11038,7 +11011,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -11089,7 +11062,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11138,7 +11111,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11187,7 +11160,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11236,7 +11209,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11269,7 +11242,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11320,7 +11293,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11369,7 +11342,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11401,7 +11374,9 @@
       <c r="P113" s="31">
         <v>0.5</v>
       </c>
-      <c r="Q113" s="31"/>
+      <c r="Q113" s="31">
+        <v>0</v>
+      </c>
       <c r="R113" s="31">
         <v>0.5</v>
       </c>
@@ -11416,7 +11391,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11465,7 +11440,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11498,7 +11473,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11549,7 +11524,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11598,7 +11573,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11647,7 +11622,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11696,7 +11671,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11729,7 +11704,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11764,7 +11739,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11805,7 +11780,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11853,7 +11828,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11899,7 +11874,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11942,7 +11917,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -11975,7 +11950,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -12022,7 +11997,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -12067,7 +12042,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12110,7 +12085,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12143,7 +12118,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12178,7 +12153,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12211,7 +12186,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12246,7 +12221,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12279,7 +12254,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12312,7 +12287,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12345,7 +12320,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12378,7 +12353,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12413,7 +12388,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12446,7 +12421,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12483,7 +12458,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12522,7 +12497,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12555,7 +12530,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12588,7 +12563,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12623,7 +12598,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12658,7 +12633,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12713,7 +12688,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12748,7 +12723,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12803,7 +12778,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12840,7 +12815,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12875,7 +12850,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12910,7 +12885,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12949,7 +12924,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -13008,7 +12983,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -13065,7 +13040,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13102,7 +13077,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13159,7 +13134,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13218,7 +13193,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13275,7 +13250,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13332,7 +13307,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13389,7 +13364,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13446,7 +13421,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13506,7 +13481,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13563,7 +13538,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13599,7 +13574,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13662,7 +13637,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13700,7 +13675,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13754,7 +13729,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13817,7 +13792,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13878,7 +13853,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13937,7 +13912,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -13996,7 +13971,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -14055,7 +14030,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14116,7 +14091,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14177,7 +14152,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14236,7 +14211,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14295,7 +14270,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14354,7 +14329,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14415,7 +14390,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14476,7 +14451,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14535,7 +14510,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14592,7 +14567,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14651,7 +14626,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14712,7 +14687,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14773,7 +14748,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14832,7 +14807,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14891,7 +14866,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14950,7 +14925,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -15013,7 +14988,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -15072,7 +15047,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15129,7 +15104,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15186,7 +15161,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15243,7 +15218,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15302,7 +15277,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15359,7 +15334,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15416,7 +15391,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15473,7 +15448,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15530,7 +15505,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15589,7 +15564,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15646,7 +15621,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15703,7 +15678,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15760,7 +15735,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15817,7 +15792,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15876,7 +15851,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15933,7 +15908,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -15990,7 +15965,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -16047,7 +16022,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16104,7 +16079,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16139,7 +16114,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16154,7 +16129,7 @@
         <v>155</v>
       </c>
       <c r="I209" s="63" t="str">
-        <f>"("&amp;ROWS(ia_ppk2g1_vlsb1)-2&amp;","&amp;COLUMNS(ia_ppk2g1_vlsb1)-1&amp;"): ia_ppk2_vlsb1(pointers) = input"</f>
+        <f>"("&amp;ROWS(ia_ppk2g1_rlsb1)-2&amp;","&amp;COLUMNS(ia_ppk2g1_rlsb1)-1&amp;"): ia_ppk2_vlsb1(pointers) = input"</f>
         <v>(58,10): ia_ppk2_vlsb1(pointers) = input</v>
       </c>
       <c r="J209" s="49"/>
@@ -16199,7 +16174,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16269,7 +16244,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16339,7 +16314,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16374,7 +16349,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16389,7 +16364,7 @@
         <v>134</v>
       </c>
       <c r="I213" s="55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J213" s="55" t="s">
         <v>116</v>
@@ -16425,7 +16400,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16488,7 +16463,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16551,7 +16526,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16608,7 +16583,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16667,7 +16642,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16726,7 +16701,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16787,7 +16762,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16848,7 +16823,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16905,7 +16880,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -16962,7 +16937,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -17019,7 +16994,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -17078,7 +17053,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17137,7 +17112,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17194,7 +17169,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17251,7 +17226,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17308,7 +17283,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17367,7 +17342,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17426,7 +17401,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17483,7 +17458,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17540,7 +17515,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17597,7 +17572,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17667,7 +17642,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17734,7 +17709,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17797,7 +17772,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17860,7 +17835,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17927,7 +17902,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -17996,7 +17971,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -18063,7 +18038,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18130,7 +18105,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18197,7 +18172,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18264,7 +18239,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18333,7 +18308,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18400,7 +18375,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18467,7 +18442,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18534,7 +18509,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18601,7 +18576,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18670,7 +18645,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18737,7 +18712,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18804,7 +18779,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18871,7 +18846,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18938,7 +18913,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -18999,7 +18974,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -19056,7 +19031,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19113,7 +19088,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19170,7 +19145,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19227,7 +19202,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19296,7 +19271,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19363,7 +19338,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19430,7 +19405,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19497,7 +19472,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19564,7 +19539,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19623,7 +19598,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19685,7 +19660,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19746,7 +19721,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19806,7 +19781,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19873,7 +19848,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19938,7 +19913,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -20000,7 +19975,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -20060,7 +20035,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20117,7 +20092,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20184,7 +20159,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20217,7 +20192,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20273,7 +20248,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20326,7 +20301,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20379,7 +20354,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20414,7 +20389,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20464,7 +20439,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20522,7 +20497,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20580,7 +20555,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20633,7 +20608,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20685,7 +20660,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20740,7 +20715,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20794,7 +20769,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20848,7 +20823,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20898,7 +20873,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20948,7 +20923,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -21001,7 +20976,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -21055,7 +21030,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21109,7 +21084,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21159,7 +21134,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21209,7 +21184,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21262,7 +21237,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21314,7 +21289,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21366,7 +21341,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21415,7 +21390,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21462,7 +21437,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21515,7 +21490,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21548,7 +21523,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21581,7 +21556,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21616,7 +21591,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21649,7 +21624,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21682,7 +21657,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21715,7 +21690,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21748,7 +21723,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21783,11 +21758,11 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
-        <f>INT(MAX($C$319:$D$377))+1</f>
+        <f>INT(MAX($C$319:$D$373))+1</f>
         <v>5</v>
       </c>
       <c r="D308" s="3"/>
@@ -21816,7 +21791,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21853,7 +21828,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21892,7 +21867,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21925,7 +21900,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -21958,7 +21933,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -21991,7 +21966,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -22024,7 +21999,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -22067,7 +22042,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22102,7 +22077,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22135,7 +22110,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22172,7 +22147,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22207,7 +22182,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22254,7 +22229,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22293,7 +22268,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22334,7 +22309,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22358,25 +22333,25 @@
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
       <c r="P323" s="132">
-        <f>COUNTIF(J357:M357,TRUE)</f>
+        <f>COUNTIF(J353:M353,TRUE)</f>
         <v>4</v>
       </c>
       <c r="Q323" s="126"/>
-      <c r="R323" s="183" t="s">
+      <c r="R323" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="S323" s="184"/>
-      <c r="T323" s="184"/>
-      <c r="U323" s="184"/>
-      <c r="V323" s="184"/>
-      <c r="W323" s="185"/>
+      <c r="S323" s="186"/>
+      <c r="T323" s="186"/>
+      <c r="U323" s="186"/>
+      <c r="V323" s="186"/>
+      <c r="W323" s="187"/>
       <c r="X323" s="4"/>
       <c r="Y323" s="16"/>
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22407,19 +22382,19 @@
         <v>1</v>
       </c>
       <c r="Q324" s="2"/>
-      <c r="R324" s="186"/>
-      <c r="S324" s="187"/>
-      <c r="T324" s="187"/>
-      <c r="U324" s="187"/>
-      <c r="V324" s="187"/>
-      <c r="W324" s="188"/>
+      <c r="R324" s="188"/>
+      <c r="S324" s="189"/>
+      <c r="T324" s="189"/>
+      <c r="U324" s="189"/>
+      <c r="V324" s="189"/>
+      <c r="W324" s="190"/>
       <c r="X324" s="4"/>
       <c r="Y324" s="16"/>
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22450,19 +22425,19 @@
         <v>1</v>
       </c>
       <c r="Q325" s="2"/>
-      <c r="R325" s="186"/>
-      <c r="S325" s="187"/>
-      <c r="T325" s="187"/>
-      <c r="U325" s="187"/>
-      <c r="V325" s="187"/>
-      <c r="W325" s="188"/>
+      <c r="R325" s="188"/>
+      <c r="S325" s="189"/>
+      <c r="T325" s="189"/>
+      <c r="U325" s="189"/>
+      <c r="V325" s="189"/>
+      <c r="W325" s="190"/>
       <c r="X325" s="4"/>
       <c r="Y325" s="16"/>
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22503,7 +22478,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22516,17 +22491,23 @@
       <c r="G327" s="4"/>
       <c r="H327" s="2"/>
       <c r="I327" s="56"/>
-      <c r="J327" s="2"/>
+      <c r="J327" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="K327" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L327" s="2"/>
+      <c r="L327" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="M327" s="2" t="s">
         <v>115</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
+      <c r="P327" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="Q327" s="2" t="s">
         <v>115</v>
       </c>
@@ -22545,7 +22526,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22561,7 +22542,7 @@
       <c r="H328" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="I328" s="191" t="s">
+      <c r="I328" s="169" t="s">
         <v>118</v>
       </c>
       <c r="J328" s="149">
@@ -22577,11 +22558,11 @@
         <v>1</v>
       </c>
       <c r="N328" s="2"/>
-      <c r="O328" s="2"/>
-      <c r="P328" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q328" s="31">
+      <c r="O328" s="54"/>
+      <c r="P328" s="149">
+        <v>0</v>
+      </c>
+      <c r="Q328" s="149">
         <v>1</v>
       </c>
       <c r="R328" s="2"/>
@@ -22596,7 +22577,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22610,11 +22591,11 @@
       <c r="F329" s="5"/>
       <c r="G329" s="4"/>
       <c r="H329" s="54"/>
-      <c r="I329" s="191" t="s">
+      <c r="I329" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="J329" s="149"/>
-      <c r="K329" s="31"/>
+      <c r="J329" s="54"/>
+      <c r="K329" s="54"/>
       <c r="L329" s="31">
         <v>1</v>
       </c>
@@ -22622,11 +22603,11 @@
         <v>0.5</v>
       </c>
       <c r="N329" s="2"/>
-      <c r="O329" s="2"/>
-      <c r="P329" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q329" s="31">
+      <c r="O329" s="54"/>
+      <c r="P329" s="149">
+        <v>1</v>
+      </c>
+      <c r="Q329" s="149">
         <v>0.5</v>
       </c>
       <c r="R329" s="2"/>
@@ -22641,7 +22622,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22655,11 +22636,11 @@
       <c r="F330" s="5"/>
       <c r="G330" s="4"/>
       <c r="H330" s="54"/>
-      <c r="I330" s="191" t="s">
+      <c r="I330" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="J330" s="149"/>
-      <c r="K330" s="31"/>
+      <c r="J330" s="54"/>
+      <c r="K330" s="54"/>
       <c r="L330" s="31">
         <v>-1</v>
       </c>
@@ -22667,11 +22648,11 @@
         <v>1.5</v>
       </c>
       <c r="N330" s="2"/>
-      <c r="O330" s="2"/>
-      <c r="P330" s="31">
+      <c r="O330" s="54"/>
+      <c r="P330" s="149">
         <v>-1</v>
       </c>
-      <c r="Q330" s="31">
+      <c r="Q330" s="149">
         <v>1.5</v>
       </c>
       <c r="R330" s="2"/>
@@ -22686,7 +22667,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22700,23 +22681,23 @@
       <c r="F331" s="5"/>
       <c r="G331" s="4"/>
       <c r="H331" s="54"/>
-      <c r="I331" s="191" t="s">
+      <c r="I331" s="169" t="s">
         <v>121</v>
       </c>
-      <c r="J331" s="149"/>
-      <c r="K331" s="31"/>
-      <c r="L331" s="31">
-        <v>1</v>
-      </c>
-      <c r="M331" s="31">
+      <c r="J331" s="54"/>
+      <c r="K331" s="54"/>
+      <c r="L331" s="54">
+        <v>1</v>
+      </c>
+      <c r="M331" s="54">
         <v>0.5</v>
       </c>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
-      <c r="P331" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q331" s="31">
+      <c r="P331" s="170">
+        <v>4</v>
+      </c>
+      <c r="Q331" s="54">
         <v>300</v>
       </c>
       <c r="R331" s="2"/>
@@ -22731,7 +22712,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22745,23 +22726,23 @@
       <c r="F332" s="5"/>
       <c r="G332" s="4"/>
       <c r="H332" s="54"/>
-      <c r="I332" s="191" t="s">
+      <c r="I332" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="J332" s="149"/>
-      <c r="K332" s="31"/>
-      <c r="L332" s="31">
+      <c r="J332" s="54"/>
+      <c r="K332" s="54"/>
+      <c r="L332" s="54">
         <v>-1</v>
       </c>
-      <c r="M332" s="31">
+      <c r="M332" s="54">
         <v>1.5</v>
       </c>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
-      <c r="P332" s="31">
+      <c r="P332" s="54">
         <v>-0.5</v>
       </c>
-      <c r="Q332" s="31">
+      <c r="Q332" s="54">
         <v>1.25</v>
       </c>
       <c r="R332" s="2"/>
@@ -22776,7 +22757,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22790,23 +22771,23 @@
       <c r="F333" s="5"/>
       <c r="G333" s="4"/>
       <c r="H333" s="54"/>
-      <c r="I333" s="191" t="s">
+      <c r="I333" s="169" t="s">
         <v>123</v>
       </c>
-      <c r="J333" s="149"/>
-      <c r="K333" s="31"/>
-      <c r="L333" s="31">
+      <c r="J333" s="54"/>
+      <c r="K333" s="54"/>
+      <c r="L333" s="54">
         <v>3.5</v>
       </c>
-      <c r="M333" s="31">
+      <c r="M333" s="54">
         <v>100</v>
       </c>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
-      <c r="P333" s="31">
+      <c r="P333" s="54">
         <v>-1</v>
       </c>
-      <c r="Q333" s="31">
+      <c r="Q333" s="54">
         <v>1.5</v>
       </c>
       <c r="R333" s="2"/>
@@ -22821,7 +22802,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22835,19 +22816,19 @@
       <c r="F334" s="5"/>
       <c r="G334" s="4"/>
       <c r="H334" s="54"/>
-      <c r="I334" s="191" t="s">
+      <c r="I334" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="J334" s="149"/>
-      <c r="K334" s="31"/>
-      <c r="L334" s="31"/>
-      <c r="M334" s="31"/>
+      <c r="J334" s="54"/>
+      <c r="K334" s="54"/>
+      <c r="L334" s="54"/>
+      <c r="M334" s="54"/>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
-      <c r="P334" s="31">
-        <v>4</v>
-      </c>
-      <c r="Q334" s="31">
+      <c r="P334" s="54">
+        <v>4</v>
+      </c>
+      <c r="Q334" s="54">
         <v>300</v>
       </c>
       <c r="R334" s="2"/>
@@ -22862,7 +22843,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22876,19 +22857,19 @@
       <c r="F335" s="5"/>
       <c r="G335" s="4"/>
       <c r="H335" s="54"/>
-      <c r="I335" s="191" t="s">
+      <c r="I335" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="J335" s="149"/>
-      <c r="K335" s="31"/>
-      <c r="L335" s="31"/>
-      <c r="M335" s="31"/>
+      <c r="J335" s="54"/>
+      <c r="K335" s="54"/>
+      <c r="L335" s="54"/>
+      <c r="M335" s="54"/>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
-      <c r="P335" s="31">
+      <c r="P335" s="54">
         <v>3.5</v>
       </c>
-      <c r="Q335" s="31">
+      <c r="Q335" s="54">
         <v>100</v>
       </c>
       <c r="R335" s="2"/>
@@ -22903,7 +22884,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -22938,7 +22919,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -22973,7 +22954,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -22985,7 +22966,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="4"/>
       <c r="H338" s="107" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -23008,11 +22989,11 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
-        <f t="shared" ref="C339:C368" si="44">INT($C$309)+3</f>
+        <f t="shared" ref="C339:C364" si="44">INT($C$309)+3</f>
         <v>4</v>
       </c>
       <c r="D339" s="4"/>
@@ -23053,7 +23034,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23086,7 +23067,7 @@
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
@@ -23100,7 +23081,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23152,7 +23133,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23161,7 +23142,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="4"/>
       <c r="H342" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
@@ -23202,7 +23183,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23251,38 +23232,35 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
-      <c r="C344" s="76">
-        <f>INT(C$309+3)</f>
-        <v>4</v>
-      </c>
+      <c r="C344" s="76"/>
       <c r="D344" s="4"/>
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
       <c r="G344" s="4"/>
       <c r="H344" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I344" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J344" s="31"/>
-      <c r="K344" s="31">
-        <v>0</v>
-      </c>
-      <c r="L344" s="31">
-        <v>1</v>
-      </c>
-      <c r="M344" s="31">
-        <v>2</v>
-      </c>
-      <c r="N344" s="31">
-        <v>2</v>
-      </c>
-      <c r="O344" s="31">
-        <v>2</v>
+        <v>293</v>
+      </c>
+      <c r="I344" s="2"/>
+      <c r="J344" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K344" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M344" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="N344" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="O344" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
@@ -23298,7 +23276,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23309,25 +23287,19 @@
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
       <c r="G345" s="4"/>
-      <c r="H345" s="2"/>
+      <c r="H345" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="I345" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J345" s="31"/>
-      <c r="K345" s="31">
-        <v>0</v>
-      </c>
-      <c r="L345" s="31">
-        <v>1</v>
-      </c>
-      <c r="M345" s="31">
-        <v>2</v>
-      </c>
-      <c r="N345" s="31">
-        <v>2</v>
-      </c>
-      <c r="O345" s="31">
-        <v>2</v>
+        <v>261</v>
+      </c>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+      <c r="L345" s="2"/>
+      <c r="M345" s="2"/>
+      <c r="N345" s="2"/>
+      <c r="O345" s="166">
+        <v>43784</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
@@ -23343,22 +23315,22 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
-        <f>INT(C$309+3)</f>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="D346" s="4"/>
-      <c r="E346" s="5"/>
+      <c r="E346" s="5">
+        <v>0</v>
+      </c>
       <c r="F346" s="5"/>
       <c r="G346" s="4"/>
-      <c r="H346" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="H346" s="2"/>
       <c r="I346" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
@@ -23366,7 +23338,7 @@
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="166">
-        <v>43784</v>
+        <v>43480</v>
       </c>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
@@ -23382,7 +23354,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23391,22 +23363,24 @@
       </c>
       <c r="D347" s="4"/>
       <c r="E347" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F347" s="5"/>
       <c r="G347" s="4"/>
       <c r="H347" s="2"/>
-      <c r="I347" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J347" s="2"/>
-      <c r="K347" s="2"/>
-      <c r="L347" s="2"/>
+      <c r="I347" s="193"/>
+      <c r="J347" s="194" t="s">
+        <v>295</v>
+      </c>
+      <c r="K347" s="194" t="s">
+        <v>296</v>
+      </c>
+      <c r="L347" s="194" t="s">
+        <v>297</v>
+      </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
-      <c r="O347" s="166">
-        <v>43480</v>
-      </c>
+      <c r="O347" s="2"/>
       <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
       <c r="R347" s="2"/>
@@ -23421,33 +23395,28 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
-      <c r="C348" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
+      <c r="C348" s="76"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="5">
-        <v>1</v>
-      </c>
+      <c r="E348" s="5"/>
       <c r="F348" s="5"/>
       <c r="G348" s="4"/>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-      <c r="J348" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K348" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L348" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M348" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="H348" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I348" s="193"/>
+      <c r="J348" s="31">
+        <v>1</v>
+      </c>
+      <c r="K348" s="31">
+        <v>2</v>
+      </c>
+      <c r="L348" s="31">
+        <v>3</v>
+      </c>
+      <c r="M348" s="2"/>
       <c r="N348" s="2"/>
       <c r="O348" s="2"/>
       <c r="P348" s="2"/>
@@ -23464,37 +23433,20 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
-      <c r="C349" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
+      <c r="C349" s="76"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="5">
-        <v>2</v>
-      </c>
+      <c r="E349" s="5"/>
       <c r="F349" s="5"/>
       <c r="G349" s="4"/>
-      <c r="H349" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J349" s="31">
-        <v>1</v>
-      </c>
-      <c r="K349" s="31">
-        <v>1</v>
-      </c>
-      <c r="L349" s="31">
-        <v>1</v>
-      </c>
-      <c r="M349" s="31">
-        <v>2</v>
-      </c>
+      <c r="H349" s="2"/>
+      <c r="I349" s="193"/>
+      <c r="J349" s="194"/>
+      <c r="K349" s="194"/>
+      <c r="L349" s="194"/>
+      <c r="M349" s="2"/>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -23511,54 +23463,42 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
       </c>
       <c r="D350" s="4"/>
-      <c r="E350" s="5">
-        <v>3</v>
-      </c>
+      <c r="E350" s="5"/>
       <c r="F350" s="5"/>
       <c r="G350" s="4"/>
-      <c r="H350" s="2"/>
-      <c r="I350" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J350" s="31">
-        <v>1</v>
-      </c>
-      <c r="K350" s="31">
-        <v>1</v>
-      </c>
-      <c r="L350" s="31">
-        <v>1</v>
-      </c>
-      <c r="M350" s="31">
-        <v>2</v>
-      </c>
+      <c r="H350" s="107" t="s">
+        <v>285</v>
+      </c>
+      <c r="I350" s="2"/>
+      <c r="J350" s="2"/>
+      <c r="K350" s="2"/>
+      <c r="L350" s="2"/>
+      <c r="M350" s="2"/>
       <c r="N350" s="2"/>
       <c r="O350" s="2"/>
       <c r="P350" s="2"/>
-      <c r="Q350" s="174" t="s">
-        <v>278</v>
-      </c>
-      <c r="R350" s="175"/>
-      <c r="S350" s="175"/>
-      <c r="T350" s="175"/>
-      <c r="U350" s="175"/>
-      <c r="V350" s="175"/>
-      <c r="W350" s="176"/>
+      <c r="Q350" s="2"/>
+      <c r="R350" s="2"/>
+      <c r="S350" s="2"/>
+      <c r="T350" s="2"/>
+      <c r="U350" s="2"/>
+      <c r="V350" s="2"/>
+      <c r="W350" s="2"/>
       <c r="X350" s="4"/>
       <c r="Y350" s="16"/>
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23566,46 +23506,40 @@
         <v>4</v>
       </c>
       <c r="D351" s="4"/>
-      <c r="E351" s="5">
-        <v>4</v>
-      </c>
+      <c r="E351" s="5"/>
       <c r="F351" s="5"/>
       <c r="G351" s="4"/>
-      <c r="H351" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J351" s="31">
-        <v>0</v>
-      </c>
-      <c r="K351" s="31">
-        <v>1</v>
-      </c>
-      <c r="L351" s="31">
-        <v>2</v>
-      </c>
-      <c r="M351" s="31">
-        <v>2</v>
+      <c r="H351" s="2"/>
+      <c r="I351" s="2"/>
+      <c r="J351" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K351" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="L351" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M351" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
       <c r="P351" s="2"/>
-      <c r="Q351" s="177"/>
-      <c r="R351" s="178"/>
-      <c r="S351" s="178"/>
-      <c r="T351" s="178"/>
-      <c r="U351" s="178"/>
-      <c r="V351" s="178"/>
-      <c r="W351" s="179"/>
+      <c r="Q351" s="2"/>
+      <c r="R351" s="2"/>
+      <c r="S351" s="2"/>
+      <c r="T351" s="2"/>
+      <c r="U351" s="2"/>
+      <c r="V351" s="2"/>
+      <c r="W351" s="2"/>
       <c r="X351" s="4"/>
       <c r="Y351" s="16"/>
       <c r="Z351" s="1"/>
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23613,44 +23547,42 @@
         <v>4</v>
       </c>
       <c r="D352" s="4"/>
-      <c r="E352" s="5">
-        <v>5</v>
-      </c>
+      <c r="E352" s="5"/>
       <c r="F352" s="5"/>
       <c r="G352" s="4"/>
       <c r="H352" s="2"/>
-      <c r="I352" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J352" s="31">
-        <v>0</v>
-      </c>
-      <c r="K352" s="31">
-        <v>1</v>
-      </c>
-      <c r="L352" s="31">
-        <v>2</v>
-      </c>
-      <c r="M352" s="31">
-        <v>2</v>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K352" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="L352" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M352" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
-      <c r="Q352" s="177"/>
-      <c r="R352" s="178"/>
-      <c r="S352" s="178"/>
-      <c r="T352" s="178"/>
-      <c r="U352" s="178"/>
-      <c r="V352" s="178"/>
-      <c r="W352" s="179"/>
+      <c r="Q352" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R352" s="2"/>
+      <c r="S352" s="2"/>
+      <c r="T352" s="2"/>
+      <c r="U352" s="2"/>
+      <c r="V352" s="2"/>
+      <c r="W352" s="2"/>
       <c r="X352" s="4"/>
       <c r="Y352" s="16"/>
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23658,52 +23590,74 @@
         <v>4</v>
       </c>
       <c r="D353" s="4"/>
-      <c r="E353" s="5">
-        <v>6</v>
-      </c>
+      <c r="E353" s="5"/>
       <c r="F353" s="5"/>
       <c r="G353" s="4"/>
-      <c r="H353" s="2"/>
-      <c r="I353" s="2"/>
-      <c r="J353" s="2"/>
-      <c r="K353" s="2"/>
-      <c r="L353" s="2"/>
-      <c r="M353" s="2"/>
+      <c r="H353" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J353" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K353" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L353" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M353" s="31" t="b">
+        <v>1</v>
+      </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
-      <c r="Q353" s="180"/>
-      <c r="R353" s="181"/>
-      <c r="S353" s="181"/>
-      <c r="T353" s="181"/>
-      <c r="U353" s="181"/>
-      <c r="V353" s="181"/>
-      <c r="W353" s="182"/>
+      <c r="Q353" s="31">
+        <f>K354</f>
+        <v>1</v>
+      </c>
+      <c r="R353" s="2"/>
+      <c r="S353" s="2"/>
+      <c r="T353" s="2"/>
+      <c r="U353" s="2"/>
+      <c r="V353" s="2"/>
+      <c r="W353" s="2"/>
       <c r="X353" s="4"/>
       <c r="Y353" s="16"/>
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
-      <c r="C354" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
+      <c r="C354" s="76"/>
       <c r="D354" s="4"/>
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
       <c r="G354" s="4"/>
-      <c r="H354" s="107" t="s">
-        <v>287</v>
+      <c r="H354" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="I354" s="2"/>
-      <c r="J354" s="2"/>
-      <c r="K354" s="2"/>
-      <c r="L354" s="2"/>
-      <c r="M354" s="2"/>
+      <c r="J354" s="132">
+        <f>COUNTIF($J$353:J353,TRUE)-1</f>
+        <v>0</v>
+      </c>
+      <c r="K354" s="132">
+        <f>COUNTIF($J$353:K353,TRUE)-1</f>
+        <v>1</v>
+      </c>
+      <c r="L354" s="132">
+        <f>COUNTIF($J$353:L353,TRUE)-1</f>
+        <v>2</v>
+      </c>
+      <c r="M354" s="132">
+        <f>COUNTIF($J$353:M353,TRUE)-1</f>
+        <v>3</v>
+      </c>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
@@ -23720,30 +23674,34 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
-        <f t="shared" si="44"/>
+        <f>INT(C$309+3)</f>
         <v>4</v>
       </c>
       <c r="D355" s="4"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="4"/>
-      <c r="H355" s="2"/>
-      <c r="I355" s="2"/>
-      <c r="J355" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="K355" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L355" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="M355" s="2" t="s">
-        <v>290</v>
+      <c r="H355" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J355" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K355" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L355" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M355" s="31" t="b">
+        <v>0</v>
       </c>
       <c r="N355" s="2"/>
       <c r="O355" s="2"/>
@@ -23761,11 +23719,11 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
-        <f t="shared" si="44"/>
+        <f>INT(C$309+3)</f>
         <v>4</v>
       </c>
       <c r="D356" s="4"/>
@@ -23774,24 +23732,14 @@
       <c r="G356" s="4"/>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
-      <c r="J356" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="K356" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L356" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M356" s="2" t="s">
-        <v>258</v>
-      </c>
+      <c r="J356" s="2"/>
+      <c r="K356" s="2"/>
+      <c r="L356" s="2"/>
+      <c r="M356" s="2"/>
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
       <c r="P356" s="2"/>
-      <c r="Q356" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="Q356" s="2"/>
       <c r="R356" s="2"/>
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
@@ -23804,7 +23752,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23812,34 +23760,21 @@
         <v>4</v>
       </c>
       <c r="D357" s="4"/>
-      <c r="E357" s="5"/>
+      <c r="E357" s="5">
+        <v>0</v>
+      </c>
       <c r="F357" s="5"/>
       <c r="G357" s="4"/>
-      <c r="H357" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I357" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J357" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K357" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L357" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M357" s="31" t="b">
-        <v>1</v>
-      </c>
+      <c r="H357" s="2"/>
+      <c r="I357" s="2"/>
+      <c r="J357" s="2"/>
+      <c r="K357" s="2"/>
+      <c r="L357" s="2"/>
+      <c r="M357" s="2"/>
       <c r="N357" s="2"/>
       <c r="O357" s="2"/>
       <c r="P357" s="2"/>
-      <c r="Q357" s="31">
-        <f>K358</f>
-        <v>1</v>
-      </c>
+      <c r="Q357" s="2"/>
       <c r="R357" s="2"/>
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
@@ -23852,33 +23787,32 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
-      <c r="C358" s="76"/>
+      <c r="C358" s="76">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
       <c r="D358" s="4"/>
-      <c r="E358" s="5"/>
+      <c r="E358" s="5">
+        <v>1</v>
+      </c>
       <c r="F358" s="5"/>
       <c r="G358" s="4"/>
-      <c r="H358" s="2" t="s">
-        <v>285</v>
-      </c>
+      <c r="H358" s="2"/>
       <c r="I358" s="2"/>
-      <c r="J358" s="132">
-        <f>COUNTIF($J$357:J357,TRUE)-1</f>
-        <v>0</v>
-      </c>
-      <c r="K358" s="132">
-        <f>COUNTIF($J$357:K357,TRUE)-1</f>
-        <v>1</v>
-      </c>
-      <c r="L358" s="132">
-        <f>COUNTIF($J$357:L357,TRUE)-1</f>
-        <v>2</v>
-      </c>
-      <c r="M358" s="132">
-        <f>COUNTIF($J$357:M357,TRUE)-1</f>
-        <v>3</v>
+      <c r="J358" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K358" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L358" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M358" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
@@ -23896,34 +23830,36 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
-        <f>INT(C$309+3)</f>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="D359" s="4"/>
-      <c r="E359" s="5"/>
+      <c r="E359" s="5">
+        <v>2</v>
+      </c>
       <c r="F359" s="5"/>
       <c r="G359" s="4"/>
       <c r="H359" s="2" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J359" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K359" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L359" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M359" s="31" t="b">
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="J359" s="31">
+        <v>1</v>
+      </c>
+      <c r="K359" s="31">
+        <v>1</v>
+      </c>
+      <c r="L359" s="31">
+        <v>1</v>
+      </c>
+      <c r="M359" s="31">
+        <v>2</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
@@ -23941,40 +23877,52 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
-        <f>INT(C$309+3)</f>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="D360" s="4"/>
-      <c r="E360" s="5"/>
+      <c r="E360" s="5">
+        <v>3</v>
+      </c>
       <c r="F360" s="5"/>
       <c r="G360" s="4"/>
       <c r="H360" s="2"/>
-      <c r="I360" s="2"/>
-      <c r="J360" s="2"/>
-      <c r="K360" s="2"/>
-      <c r="L360" s="2"/>
-      <c r="M360" s="2"/>
+      <c r="I360" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J360" s="31">
+        <v>1</v>
+      </c>
+      <c r="K360" s="31">
+        <v>1</v>
+      </c>
+      <c r="L360" s="31">
+        <v>1</v>
+      </c>
+      <c r="M360" s="31">
+        <v>2</v>
+      </c>
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
-      <c r="Q360" s="2"/>
-      <c r="R360" s="2"/>
-      <c r="S360" s="2"/>
-      <c r="T360" s="2"/>
-      <c r="U360" s="2"/>
-      <c r="V360" s="2"/>
-      <c r="W360" s="2"/>
+      <c r="Q360" s="176"/>
+      <c r="R360" s="177"/>
+      <c r="S360" s="177"/>
+      <c r="T360" s="177"/>
+      <c r="U360" s="177"/>
+      <c r="V360" s="177"/>
+      <c r="W360" s="178"/>
       <c r="X360" s="4"/>
       <c r="Y360" s="16"/>
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -23983,33 +23931,45 @@
       </c>
       <c r="D361" s="4"/>
       <c r="E361" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F361" s="5"/>
       <c r="G361" s="4"/>
-      <c r="H361" s="2"/>
-      <c r="I361" s="2"/>
-      <c r="J361" s="2"/>
-      <c r="K361" s="2"/>
-      <c r="L361" s="2"/>
-      <c r="M361" s="2"/>
+      <c r="H361" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I361" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J361" s="31">
+        <v>0</v>
+      </c>
+      <c r="K361" s="31">
+        <v>1</v>
+      </c>
+      <c r="L361" s="31">
+        <v>2</v>
+      </c>
+      <c r="M361" s="31">
+        <v>2</v>
+      </c>
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
       <c r="P361" s="2"/>
-      <c r="Q361" s="2"/>
-      <c r="R361" s="2"/>
-      <c r="S361" s="2"/>
-      <c r="T361" s="2"/>
-      <c r="U361" s="2"/>
-      <c r="V361" s="2"/>
-      <c r="W361" s="2"/>
+      <c r="Q361" s="179"/>
+      <c r="R361" s="180"/>
+      <c r="S361" s="180"/>
+      <c r="T361" s="180"/>
+      <c r="U361" s="180"/>
+      <c r="V361" s="180"/>
+      <c r="W361" s="181"/>
       <c r="X361" s="4"/>
       <c r="Y361" s="16"/>
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -24018,41 +23978,43 @@
       </c>
       <c r="D362" s="4"/>
       <c r="E362" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F362" s="5"/>
       <c r="G362" s="4"/>
       <c r="H362" s="2"/>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="K362" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="L362" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M362" s="2" t="s">
-        <v>277</v>
+      <c r="I362" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J362" s="31">
+        <v>0</v>
+      </c>
+      <c r="K362" s="31">
+        <v>1</v>
+      </c>
+      <c r="L362" s="31">
+        <v>2</v>
+      </c>
+      <c r="M362" s="31">
+        <v>2</v>
       </c>
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
       <c r="P362" s="2"/>
-      <c r="Q362" s="2"/>
-      <c r="R362" s="2"/>
-      <c r="S362" s="2"/>
-      <c r="T362" s="2"/>
-      <c r="U362" s="2"/>
-      <c r="V362" s="2"/>
-      <c r="W362" s="2"/>
+      <c r="Q362" s="179"/>
+      <c r="R362" s="180"/>
+      <c r="S362" s="180"/>
+      <c r="T362" s="180"/>
+      <c r="U362" s="180"/>
+      <c r="V362" s="180"/>
+      <c r="W362" s="181"/>
       <c r="X362" s="4"/>
       <c r="Y362" s="16"/>
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76">
@@ -24061,45 +24023,33 @@
       </c>
       <c r="D363" s="4"/>
       <c r="E363" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F363" s="5"/>
       <c r="G363" s="4"/>
-      <c r="H363" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J363" s="31">
-        <v>1</v>
-      </c>
-      <c r="K363" s="31">
-        <v>1</v>
-      </c>
-      <c r="L363" s="31">
-        <v>1</v>
-      </c>
-      <c r="M363" s="31">
-        <v>2</v>
-      </c>
+      <c r="H363" s="2"/>
+      <c r="I363" s="2"/>
+      <c r="J363" s="2"/>
+      <c r="K363" s="2"/>
+      <c r="L363" s="2"/>
+      <c r="M363" s="2"/>
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
       <c r="P363" s="2"/>
-      <c r="Q363" s="2"/>
-      <c r="R363" s="2"/>
-      <c r="S363" s="2"/>
-      <c r="T363" s="2"/>
-      <c r="U363" s="2"/>
-      <c r="V363" s="2"/>
-      <c r="W363" s="2"/>
+      <c r="Q363" s="182"/>
+      <c r="R363" s="183"/>
+      <c r="S363" s="183"/>
+      <c r="T363" s="183"/>
+      <c r="U363" s="183"/>
+      <c r="V363" s="183"/>
+      <c r="W363" s="184"/>
       <c r="X363" s="4"/>
       <c r="Y363" s="16"/>
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24108,275 +24058,312 @@
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="4"/>
       <c r="H364" s="2"/>
-      <c r="I364" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J364" s="31">
-        <v>1</v>
-      </c>
-      <c r="K364" s="31">
-        <v>1</v>
-      </c>
-      <c r="L364" s="31">
-        <v>1</v>
-      </c>
-      <c r="M364" s="31">
-        <v>2</v>
-      </c>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+      <c r="K364" s="2"/>
+      <c r="L364" s="2"/>
+      <c r="M364" s="2"/>
       <c r="N364" s="2"/>
       <c r="O364" s="2"/>
       <c r="P364" s="2"/>
-      <c r="Q364" s="174"/>
-      <c r="R364" s="175"/>
-      <c r="S364" s="175"/>
-      <c r="T364" s="175"/>
-      <c r="U364" s="175"/>
-      <c r="V364" s="175"/>
-      <c r="W364" s="176"/>
+      <c r="Q364" s="2"/>
+      <c r="R364" s="2"/>
+      <c r="S364" s="2"/>
+      <c r="T364" s="2"/>
+      <c r="U364" s="2"/>
+      <c r="V364" s="2"/>
+      <c r="W364" s="2"/>
       <c r="X364" s="4"/>
       <c r="Y364" s="16"/>
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f>INT($C$309)+3.005</f>
+        <v>4.0049999999999999</v>
       </c>
       <c r="D365" s="4"/>
-      <c r="E365" s="5">
-        <v>4</v>
-      </c>
-      <c r="F365" s="5"/>
+      <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
       <c r="G365" s="4"/>
-      <c r="H365" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I365" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J365" s="31">
-        <v>0</v>
-      </c>
-      <c r="K365" s="31">
-        <v>1</v>
-      </c>
-      <c r="L365" s="31">
-        <v>2</v>
-      </c>
-      <c r="M365" s="31">
-        <v>2</v>
-      </c>
-      <c r="N365" s="2"/>
-      <c r="O365" s="2"/>
-      <c r="P365" s="2"/>
-      <c r="Q365" s="177"/>
-      <c r="R365" s="178"/>
-      <c r="S365" s="178"/>
-      <c r="T365" s="178"/>
-      <c r="U365" s="178"/>
-      <c r="V365" s="178"/>
-      <c r="W365" s="179"/>
-      <c r="X365" s="4"/>
+      <c r="H365" s="86"/>
+      <c r="I365" s="86"/>
+      <c r="J365" s="86"/>
+      <c r="K365" s="86"/>
+      <c r="L365" s="86"/>
+      <c r="M365" s="86"/>
+      <c r="N365" s="86"/>
+      <c r="O365" s="86"/>
+      <c r="P365" s="86"/>
+      <c r="Q365" s="86"/>
+      <c r="R365" s="86"/>
+      <c r="S365" s="86"/>
+      <c r="T365" s="86"/>
+      <c r="U365" s="86"/>
+      <c r="V365" s="86"/>
+      <c r="W365" s="86"/>
+      <c r="X365" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Y365" s="16"/>
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="D366" s="4"/>
-      <c r="E366" s="5">
-        <v>5</v>
-      </c>
-      <c r="F366" s="5"/>
+        <f>INT($C$309)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
       <c r="G366" s="4"/>
-      <c r="H366" s="2"/>
-      <c r="I366" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J366" s="31">
-        <v>0</v>
-      </c>
-      <c r="K366" s="31">
-        <v>1</v>
-      </c>
-      <c r="L366" s="31">
-        <v>2</v>
-      </c>
-      <c r="M366" s="31">
-        <v>2</v>
-      </c>
-      <c r="N366" s="2"/>
-      <c r="O366" s="2"/>
-      <c r="P366" s="2"/>
-      <c r="Q366" s="177"/>
-      <c r="R366" s="178"/>
-      <c r="S366" s="178"/>
-      <c r="T366" s="178"/>
-      <c r="U366" s="178"/>
-      <c r="V366" s="178"/>
-      <c r="W366" s="179"/>
+      <c r="H366" s="98"/>
+      <c r="I366" s="98"/>
+      <c r="J366" s="98"/>
+      <c r="K366" s="98"/>
+      <c r="L366" s="98"/>
+      <c r="M366" s="98"/>
+      <c r="N366" s="98"/>
+      <c r="O366" s="98"/>
+      <c r="P366" s="98"/>
+      <c r="Q366" s="98"/>
+      <c r="R366" s="98"/>
+      <c r="S366" s="98"/>
+      <c r="T366" s="98"/>
+      <c r="U366" s="98"/>
+      <c r="V366" s="98"/>
+      <c r="W366" s="98"/>
       <c r="X366" s="4"/>
       <c r="Y366" s="16"/>
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
       </c>
       <c r="D367" s="4"/>
-      <c r="E367" s="5">
-        <v>6</v>
-      </c>
+      <c r="E367" s="5"/>
       <c r="F367" s="5"/>
       <c r="G367" s="4"/>
-      <c r="H367" s="2"/>
-      <c r="I367" s="2"/>
-      <c r="J367" s="2"/>
-      <c r="K367" s="2"/>
-      <c r="L367" s="2"/>
-      <c r="M367" s="2"/>
+      <c r="H367" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I367" s="149"/>
+      <c r="J367" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="K367" s="107"/>
+      <c r="L367" s="107"/>
+      <c r="M367" s="107"/>
       <c r="N367" s="2"/>
-      <c r="O367" s="2"/>
+      <c r="O367" s="107" t="s">
+        <v>76</v>
+      </c>
       <c r="P367" s="2"/>
-      <c r="Q367" s="180"/>
-      <c r="R367" s="181"/>
-      <c r="S367" s="181"/>
-      <c r="T367" s="181"/>
-      <c r="U367" s="181"/>
-      <c r="V367" s="181"/>
-      <c r="W367" s="182"/>
+      <c r="Q367" s="2"/>
+      <c r="R367" s="2"/>
+      <c r="S367" s="2"/>
+      <c r="T367" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="U367" s="2"/>
+      <c r="V367" s="2"/>
+      <c r="W367" s="2"/>
       <c r="X367" s="4"/>
       <c r="Y367" s="16"/>
       <c r="Z367" s="1"/>
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
-      <c r="C368" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
+      <c r="C368" s="76"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="5">
-        <v>7</v>
-      </c>
+      <c r="E368" s="5"/>
       <c r="F368" s="5"/>
       <c r="G368" s="4"/>
       <c r="H368" s="2"/>
-      <c r="I368" s="2"/>
-      <c r="J368" s="2"/>
-      <c r="K368" s="2"/>
-      <c r="L368" s="2"/>
-      <c r="M368" s="2"/>
+      <c r="I368" s="149"/>
+      <c r="J368" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="K368" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="L368" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="M368" s="107" t="s">
+        <v>282</v>
+      </c>
       <c r="N368" s="2"/>
-      <c r="O368" s="2"/>
-      <c r="P368" s="2"/>
-      <c r="Q368" s="2"/>
-      <c r="R368" s="2"/>
+      <c r="O368" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="P368" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q368" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="R368" s="107" t="s">
+        <v>282</v>
+      </c>
       <c r="S368" s="2"/>
-      <c r="T368" s="2"/>
-      <c r="U368" s="2"/>
-      <c r="V368" s="2"/>
-      <c r="W368" s="2"/>
+      <c r="T368" s="107" t="s">
+        <v>279</v>
+      </c>
+      <c r="U368" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="V368" s="107" t="s">
+        <v>281</v>
+      </c>
+      <c r="W368" s="107" t="s">
+        <v>282</v>
+      </c>
       <c r="X368" s="4"/>
       <c r="Y368" s="16"/>
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
-        <f>INT($C$309)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
       </c>
       <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="4"/>
+      <c r="E369" s="5">
+        <v>0</v>
+      </c>
+      <c r="F369" s="5"/>
       <c r="G369" s="4"/>
-      <c r="H369" s="86"/>
-      <c r="I369" s="86"/>
-      <c r="J369" s="86"/>
-      <c r="K369" s="86"/>
-      <c r="L369" s="86"/>
-      <c r="M369" s="86"/>
-      <c r="N369" s="86"/>
-      <c r="O369" s="86"/>
-      <c r="P369" s="86"/>
-      <c r="Q369" s="86"/>
-      <c r="R369" s="86"/>
-      <c r="S369" s="86"/>
-      <c r="T369" s="86"/>
-      <c r="U369" s="86"/>
-      <c r="V369" s="86"/>
-      <c r="W369" s="86"/>
-      <c r="X369" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H369" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="I369" s="149"/>
+      <c r="J369" s="162">
+        <v>0</v>
+      </c>
+      <c r="K369" s="106">
+        <v>0</v>
+      </c>
+      <c r="L369" s="106">
+        <v>0</v>
+      </c>
+      <c r="M369" s="106">
+        <v>0</v>
+      </c>
+      <c r="N369" s="2"/>
+      <c r="O369" s="106">
+        <v>0</v>
+      </c>
+      <c r="P369" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q369" s="106">
+        <v>0</v>
+      </c>
+      <c r="R369" s="106">
+        <v>0</v>
+      </c>
+      <c r="S369" s="2"/>
+      <c r="T369" s="106">
+        <v>0</v>
+      </c>
+      <c r="U369" s="106">
+        <v>0</v>
+      </c>
+      <c r="V369" s="106">
+        <v>0</v>
+      </c>
+      <c r="W369" s="106">
+        <v>0</v>
+      </c>
+      <c r="X369" s="4"/>
       <c r="Y369" s="16"/>
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="33"/>
       <c r="C370" s="76">
-        <f>INT($C$309)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E370" s="4"/>
-      <c r="F370" s="4"/>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D370" s="4"/>
+      <c r="E370" s="5">
+        <v>27</v>
+      </c>
+      <c r="F370" s="5"/>
       <c r="G370" s="4"/>
-      <c r="H370" s="98"/>
-      <c r="I370" s="98"/>
-      <c r="J370" s="98"/>
-      <c r="K370" s="98"/>
-      <c r="L370" s="98"/>
-      <c r="M370" s="98"/>
-      <c r="N370" s="98"/>
-      <c r="O370" s="98"/>
-      <c r="P370" s="98"/>
-      <c r="Q370" s="98"/>
-      <c r="R370" s="98"/>
-      <c r="S370" s="98"/>
-      <c r="T370" s="98"/>
-      <c r="U370" s="98"/>
-      <c r="V370" s="98"/>
-      <c r="W370" s="98"/>
+      <c r="H370" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="I370" s="149"/>
+      <c r="J370" s="149"/>
+      <c r="K370" s="2"/>
+      <c r="L370" s="107"/>
+      <c r="M370" s="2"/>
+      <c r="N370" s="2"/>
+      <c r="O370" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="P370" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="Q370" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="R370" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="S370" s="2"/>
+      <c r="T370" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="U370" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="V370" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="W370" s="32">
+        <v>0.1</v>
+      </c>
       <c r="X370" s="4"/>
       <c r="Y370" s="16"/>
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="33"/>
       <c r="C371" s="76">
@@ -24384,40 +24371,52 @@
         <v>3</v>
       </c>
       <c r="D371" s="4"/>
-      <c r="E371" s="5"/>
+      <c r="E371" s="5">
+        <v>54</v>
+      </c>
       <c r="F371" s="5"/>
       <c r="G371" s="4"/>
-      <c r="H371" s="2" t="s">
-        <v>151</v>
+      <c r="H371" s="61" t="s">
+        <v>291</v>
       </c>
       <c r="I371" s="149"/>
-      <c r="J371" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="K371" s="107"/>
+      <c r="J371" s="149"/>
+      <c r="K371" s="2"/>
       <c r="L371" s="107"/>
-      <c r="M371" s="107"/>
+      <c r="M371" s="2"/>
       <c r="N371" s="2"/>
-      <c r="O371" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="P371" s="2"/>
-      <c r="Q371" s="2"/>
-      <c r="R371" s="2"/>
+      <c r="O371" s="32">
+        <v>-0.15</v>
+      </c>
+      <c r="P371" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="Q371" s="32">
+        <v>-0.05</v>
+      </c>
+      <c r="R371" s="32">
+        <v>-0.1</v>
+      </c>
       <c r="S371" s="2"/>
-      <c r="T371" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="U371" s="2"/>
-      <c r="V371" s="2"/>
-      <c r="W371" s="2"/>
+      <c r="T371" s="32">
+        <v>-0.15</v>
+      </c>
+      <c r="U371" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="V371" s="32">
+        <v>-0.05</v>
+      </c>
+      <c r="W371" s="32">
+        <v>-0.1</v>
+      </c>
       <c r="X371" s="4"/>
       <c r="Y371" s="16"/>
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="33"/>
       <c r="C372" s="76"/>
@@ -24425,392 +24424,291 @@
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
       <c r="G372" s="4"/>
-      <c r="H372" s="2"/>
-      <c r="I372" s="149"/>
-      <c r="J372" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="K372" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="L372" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="M372" s="107" t="s">
-        <v>284</v>
-      </c>
+      <c r="H372" s="168"/>
+      <c r="I372" s="167"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="2"/>
+      <c r="L372" s="107"/>
+      <c r="M372" s="2"/>
       <c r="N372" s="2"/>
-      <c r="O372" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="P372" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q372" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="R372" s="107" t="s">
-        <v>284</v>
-      </c>
+      <c r="O372" s="2"/>
+      <c r="P372" s="2"/>
+      <c r="Q372" s="2"/>
+      <c r="R372" s="2"/>
       <c r="S372" s="2"/>
-      <c r="T372" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="U372" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="V372" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="W372" s="107" t="s">
-        <v>284</v>
-      </c>
+      <c r="T372" s="2"/>
+      <c r="U372" s="2"/>
+      <c r="V372" s="2"/>
+      <c r="W372" s="2"/>
       <c r="X372" s="4"/>
       <c r="Y372" s="16"/>
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="33"/>
       <c r="C373" s="76">
-        <f>INT($C$309)+2</f>
+        <f>INT($C$309)+3.005</f>
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
+      <c r="H373" s="4"/>
+      <c r="I373" s="4"/>
+      <c r="J373" s="4"/>
+      <c r="K373" s="4"/>
+      <c r="L373" s="4"/>
+      <c r="M373" s="4"/>
+      <c r="N373" s="4"/>
+      <c r="O373" s="4"/>
+      <c r="P373" s="4"/>
+      <c r="Q373" s="4"/>
+      <c r="R373" s="4"/>
+      <c r="S373" s="4"/>
+      <c r="T373" s="4"/>
+      <c r="U373" s="4"/>
+      <c r="V373" s="4"/>
+      <c r="W373" s="4"/>
+      <c r="X373" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D373" s="4"/>
-      <c r="E373" s="5">
-        <v>0</v>
-      </c>
-      <c r="F373" s="5"/>
-      <c r="G373" s="4"/>
-      <c r="H373" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I373" s="149"/>
-      <c r="J373" s="162">
-        <v>0</v>
-      </c>
-      <c r="K373" s="106">
-        <v>0</v>
-      </c>
-      <c r="L373" s="106">
-        <v>0</v>
-      </c>
-      <c r="M373" s="106">
-        <v>0</v>
-      </c>
-      <c r="N373" s="2"/>
-      <c r="O373" s="106">
-        <v>0</v>
-      </c>
-      <c r="P373" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q373" s="106">
-        <v>0</v>
-      </c>
-      <c r="R373" s="106">
-        <v>0</v>
-      </c>
-      <c r="S373" s="2"/>
-      <c r="T373" s="106">
-        <v>0</v>
-      </c>
-      <c r="U373" s="106">
-        <v>0</v>
-      </c>
-      <c r="V373" s="106">
-        <v>0</v>
-      </c>
-      <c r="W373" s="106">
-        <v>0</v>
-      </c>
-      <c r="X373" s="4"/>
       <c r="Y373" s="16"/>
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="33"/>
       <c r="C374" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
+        <f>INT($C$309)+2.005</f>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D374" s="4"/>
-      <c r="E374" s="5">
-        <v>27</v>
-      </c>
-      <c r="F374" s="5"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
       <c r="G374" s="4"/>
-      <c r="H374" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="I374" s="149"/>
-      <c r="J374" s="149"/>
-      <c r="K374" s="2"/>
-      <c r="L374" s="107"/>
-      <c r="M374" s="2"/>
-      <c r="N374" s="2"/>
-      <c r="O374" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="P374" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="Q374" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="R374" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="S374" s="2"/>
-      <c r="T374" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="U374" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="V374" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="W374" s="32">
-        <v>0.1</v>
-      </c>
+      <c r="H374" s="4"/>
+      <c r="I374" s="4"/>
+      <c r="J374" s="4"/>
+      <c r="K374" s="4"/>
+      <c r="L374" s="4"/>
+      <c r="M374" s="4"/>
+      <c r="N374" s="4"/>
+      <c r="O374" s="4"/>
+      <c r="P374" s="4"/>
+      <c r="Q374" s="4"/>
+      <c r="R374" s="4"/>
+      <c r="S374" s="4"/>
+      <c r="T374" s="4"/>
+      <c r="U374" s="4"/>
+      <c r="V374" s="4"/>
+      <c r="W374" s="4"/>
       <c r="X374" s="4"/>
       <c r="Y374" s="16"/>
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
-      <c r="B375" s="33"/>
-      <c r="C375" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D375" s="4"/>
-      <c r="E375" s="5">
-        <v>54</v>
-      </c>
-      <c r="F375" s="5"/>
-      <c r="G375" s="4"/>
-      <c r="H375" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="I375" s="149"/>
-      <c r="J375" s="149"/>
-      <c r="K375" s="2"/>
-      <c r="L375" s="107"/>
-      <c r="M375" s="2"/>
-      <c r="N375" s="2"/>
-      <c r="O375" s="32">
-        <v>-0.15</v>
-      </c>
-      <c r="P375" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="Q375" s="32">
-        <v>-0.05</v>
-      </c>
-      <c r="R375" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="S375" s="2"/>
-      <c r="T375" s="32">
-        <v>-0.15</v>
-      </c>
-      <c r="U375" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="V375" s="32">
-        <v>-0.05</v>
-      </c>
-      <c r="W375" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="X375" s="4"/>
-      <c r="Y375" s="16"/>
+      <c r="B375" s="35"/>
+      <c r="C375" s="79">
+        <f>INT($C$309)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D375" s="17"/>
+      <c r="E375" s="17"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="17"/>
+      <c r="H375" s="17"/>
+      <c r="I375" s="17"/>
+      <c r="J375" s="17"/>
+      <c r="K375" s="17"/>
+      <c r="L375" s="17"/>
+      <c r="M375" s="17"/>
+      <c r="N375" s="17"/>
+      <c r="O375" s="17"/>
+      <c r="P375" s="17"/>
+      <c r="Q375" s="17"/>
+      <c r="R375" s="17"/>
+      <c r="S375" s="17"/>
+      <c r="T375" s="17"/>
+      <c r="U375" s="17"/>
+      <c r="V375" s="17"/>
+      <c r="W375" s="17"/>
+      <c r="X375" s="17"/>
+      <c r="Y375" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
-      <c r="B376" s="33"/>
-      <c r="C376" s="76"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="5"/>
-      <c r="F376" s="5"/>
-      <c r="G376" s="4"/>
-      <c r="H376" s="168"/>
-      <c r="I376" s="167"/>
-      <c r="J376" s="2"/>
-      <c r="K376" s="2"/>
-      <c r="L376" s="107"/>
-      <c r="M376" s="2"/>
-      <c r="N376" s="2"/>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
-      <c r="Q376" s="2"/>
-      <c r="R376" s="2"/>
-      <c r="S376" s="2"/>
-      <c r="T376" s="2"/>
-      <c r="U376" s="2"/>
-      <c r="V376" s="2"/>
-      <c r="W376" s="2"/>
-      <c r="X376" s="4"/>
-      <c r="Y376" s="16"/>
+      <c r="B376" s="19"/>
+      <c r="C376" s="80">
+        <f>INT($C$309)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D376" s="19"/>
+      <c r="E376" s="19"/>
+      <c r="F376" s="19"/>
+      <c r="G376" s="19"/>
+      <c r="H376" s="19"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="19"/>
+      <c r="K376" s="19"/>
+      <c r="L376" s="19"/>
+      <c r="M376" s="19"/>
+      <c r="N376" s="19"/>
+      <c r="O376" s="19"/>
+      <c r="P376" s="19"/>
+      <c r="Q376" s="19"/>
+      <c r="R376" s="19"/>
+      <c r="S376" s="19"/>
+      <c r="T376" s="19"/>
+      <c r="U376" s="19"/>
+      <c r="V376" s="19"/>
+      <c r="W376" s="19"/>
+      <c r="X376" s="19"/>
+      <c r="Y376" s="19"/>
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
-      <c r="B377" s="33"/>
+      <c r="B377" s="1"/>
       <c r="C377" s="76">
-        <f>INT($C$309)+3.005</f>
-        <v>4.0049999999999999</v>
-      </c>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4"/>
-      <c r="F377" s="4"/>
-      <c r="G377" s="4"/>
-      <c r="H377" s="4"/>
-      <c r="I377" s="4"/>
-      <c r="J377" s="4"/>
-      <c r="K377" s="4"/>
-      <c r="L377" s="4"/>
-      <c r="M377" s="4"/>
-      <c r="N377" s="4"/>
-      <c r="O377" s="4"/>
-      <c r="P377" s="4"/>
-      <c r="Q377" s="4"/>
-      <c r="R377" s="4"/>
-      <c r="S377" s="4"/>
-      <c r="T377" s="4"/>
-      <c r="U377" s="4"/>
-      <c r="V377" s="4"/>
-      <c r="W377" s="4"/>
-      <c r="X377" s="4" t="s">
+        <f>INT($C$309)+2</f>
         <v>3</v>
       </c>
-      <c r="Y377" s="16"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="1"/>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+      <c r="M377" s="1"/>
+      <c r="N377" s="1"/>
+      <c r="O377" s="1"/>
+      <c r="P377" s="1"/>
+      <c r="Q377" s="1"/>
+      <c r="R377" s="1"/>
+      <c r="S377" s="1"/>
+      <c r="T377" s="1"/>
+      <c r="U377" s="1"/>
+      <c r="V377" s="1"/>
+      <c r="W377" s="1"/>
+      <c r="X377" s="1"/>
+      <c r="Y377" s="1"/>
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
-      <c r="B378" s="33"/>
-      <c r="C378" s="76">
-        <f>INT($C$309)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
-      <c r="F378" s="4"/>
-      <c r="G378" s="4"/>
-      <c r="H378" s="4"/>
-      <c r="I378" s="4"/>
-      <c r="J378" s="4"/>
-      <c r="K378" s="4"/>
-      <c r="L378" s="4"/>
-      <c r="M378" s="4"/>
-      <c r="N378" s="4"/>
-      <c r="O378" s="4"/>
-      <c r="P378" s="4"/>
-      <c r="Q378" s="4"/>
-      <c r="R378" s="4"/>
-      <c r="S378" s="4"/>
-      <c r="T378" s="4"/>
-      <c r="U378" s="4"/>
-      <c r="V378" s="4"/>
-      <c r="W378" s="4"/>
-      <c r="X378" s="4"/>
-      <c r="Y378" s="16"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="69"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+      <c r="K378" s="1"/>
+      <c r="L378" s="1"/>
+      <c r="M378" s="1"/>
+      <c r="N378" s="1"/>
+      <c r="O378" s="1"/>
+      <c r="P378" s="1"/>
+      <c r="Q378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="S378" s="1"/>
+      <c r="T378" s="1"/>
+      <c r="U378" s="1"/>
+      <c r="V378" s="1"/>
+      <c r="W378" s="1"/>
+      <c r="X378" s="1"/>
+      <c r="Y378" s="1"/>
       <c r="Z378" s="1"/>
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A379" s="1"/>
-      <c r="B379" s="35"/>
-      <c r="C379" s="79">
-        <f>INT($C$309)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D379" s="17"/>
-      <c r="E379" s="17"/>
-      <c r="F379" s="17"/>
-      <c r="G379" s="17"/>
-      <c r="H379" s="17"/>
-      <c r="I379" s="17"/>
-      <c r="J379" s="17"/>
-      <c r="K379" s="17"/>
-      <c r="L379" s="17"/>
-      <c r="M379" s="17"/>
-      <c r="N379" s="17"/>
-      <c r="O379" s="17"/>
-      <c r="P379" s="17"/>
-      <c r="Q379" s="17"/>
-      <c r="R379" s="17"/>
-      <c r="S379" s="17"/>
-      <c r="T379" s="17"/>
-      <c r="U379" s="17"/>
-      <c r="V379" s="17"/>
-      <c r="W379" s="17"/>
-      <c r="X379" s="17"/>
-      <c r="Y379" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="69"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+      <c r="K379" s="1"/>
+      <c r="L379" s="1"/>
+      <c r="M379" s="1"/>
+      <c r="N379" s="1"/>
+      <c r="O379" s="1"/>
+      <c r="P379" s="1"/>
+      <c r="Q379" s="1"/>
+      <c r="R379" s="1"/>
+      <c r="S379" s="1"/>
+      <c r="T379" s="1"/>
+      <c r="U379" s="1"/>
+      <c r="V379" s="1"/>
+      <c r="W379" s="1"/>
+      <c r="X379" s="1"/>
+      <c r="Y379" s="1"/>
       <c r="Z379" s="1"/>
       <c r="AA379" s="1"/>
       <c r="AB379" s="1"/>
     </row>
-    <row r="380" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A380" s="1"/>
-      <c r="B380" s="19"/>
-      <c r="C380" s="80">
-        <f>INT($C$309)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D380" s="19"/>
-      <c r="E380" s="19"/>
-      <c r="F380" s="19"/>
-      <c r="G380" s="19"/>
-      <c r="H380" s="19"/>
-      <c r="I380" s="19"/>
-      <c r="J380" s="19"/>
-      <c r="K380" s="19"/>
-      <c r="L380" s="19"/>
-      <c r="M380" s="19"/>
-      <c r="N380" s="19"/>
-      <c r="O380" s="19"/>
-      <c r="P380" s="19"/>
-      <c r="Q380" s="19"/>
-      <c r="R380" s="19"/>
-      <c r="S380" s="19"/>
-      <c r="T380" s="19"/>
-      <c r="U380" s="19"/>
-      <c r="V380" s="19"/>
-      <c r="W380" s="19"/>
-      <c r="X380" s="19"/>
-      <c r="Y380" s="19"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="69"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+      <c r="K380" s="1"/>
+      <c r="L380" s="1"/>
+      <c r="M380" s="1"/>
+      <c r="N380" s="1"/>
+      <c r="O380" s="1"/>
+      <c r="P380" s="1"/>
+      <c r="Q380" s="1"/>
+      <c r="R380" s="1"/>
+      <c r="S380" s="1"/>
+      <c r="T380" s="1"/>
+      <c r="U380" s="1"/>
+      <c r="V380" s="1"/>
+      <c r="W380" s="1"/>
+      <c r="X380" s="1"/>
+      <c r="Y380" s="1"/>
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
       <c r="AB380" s="1"/>
     </row>
-    <row r="381" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
-      <c r="C381" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
+      <c r="C381" s="69"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
@@ -24837,7 +24735,7 @@
       <c r="AA381" s="1"/>
       <c r="AB381" s="1"/>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="69"/>
@@ -24867,7 +24765,7 @@
       <c r="AA382" s="1"/>
       <c r="AB382" s="1"/>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="69"/>
@@ -24897,251 +24795,120 @@
       <c r="AA383" s="1"/>
       <c r="AB383" s="1"/>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-      <c r="C384" s="69"/>
-      <c r="D384" s="1"/>
-      <c r="E384" s="1"/>
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-      <c r="I384" s="1"/>
-      <c r="J384" s="1"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1"/>
-      <c r="M384" s="1"/>
-      <c r="N384" s="1"/>
-      <c r="O384" s="1"/>
-      <c r="P384" s="1"/>
-      <c r="Q384" s="1"/>
-      <c r="R384" s="1"/>
-      <c r="S384" s="1"/>
-      <c r="T384" s="1"/>
-      <c r="U384" s="1"/>
-      <c r="V384" s="1"/>
-      <c r="W384" s="1"/>
-      <c r="X384" s="1"/>
-      <c r="Y384" s="1"/>
-      <c r="Z384" s="1"/>
-      <c r="AA384" s="1"/>
-      <c r="AB384" s="1"/>
-    </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
-      <c r="C385" s="69"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-      <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1"/>
-      <c r="M385" s="1"/>
-      <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
-      <c r="P385" s="1"/>
-      <c r="Q385" s="1"/>
-      <c r="R385" s="1"/>
-      <c r="S385" s="1"/>
-      <c r="T385" s="1"/>
-      <c r="U385" s="1"/>
-      <c r="V385" s="1"/>
-      <c r="W385" s="1"/>
-      <c r="X385" s="1"/>
-      <c r="Y385" s="1"/>
-      <c r="Z385" s="1"/>
-      <c r="AA385" s="1"/>
-      <c r="AB385" s="1"/>
-    </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
-      <c r="C386" s="69"/>
-      <c r="D386" s="1"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-      <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1"/>
-      <c r="M386" s="1"/>
-      <c r="N386" s="1"/>
-      <c r="O386" s="1"/>
-      <c r="P386" s="1"/>
-      <c r="Q386" s="1"/>
-      <c r="R386" s="1"/>
-      <c r="S386" s="1"/>
-      <c r="T386" s="1"/>
-      <c r="U386" s="1"/>
-      <c r="V386" s="1"/>
-      <c r="W386" s="1"/>
-      <c r="X386" s="1"/>
-      <c r="Y386" s="1"/>
-      <c r="Z386" s="1"/>
-      <c r="AA386" s="1"/>
-      <c r="AB386" s="1"/>
-    </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
-      <c r="C387" s="69"/>
-      <c r="D387" s="1"/>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-      <c r="I387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1"/>
-      <c r="M387" s="1"/>
-      <c r="N387" s="1"/>
-      <c r="O387" s="1"/>
-      <c r="P387" s="1"/>
-      <c r="Q387" s="1"/>
-      <c r="R387" s="1"/>
-      <c r="S387" s="1"/>
-      <c r="T387" s="1"/>
-      <c r="U387" s="1"/>
-      <c r="V387" s="1"/>
-      <c r="W387" s="1"/>
-      <c r="X387" s="1"/>
-      <c r="Y387" s="1"/>
-      <c r="Z387" s="1"/>
-      <c r="AA387" s="1"/>
-      <c r="AB387" s="1"/>
-    </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C388" s="75" t="s">
+    <row r="384" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="C384" s="75" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="Q350:W353"/>
+  <mergeCells count="4">
     <mergeCell ref="J18:T18"/>
     <mergeCell ref="J21:T21"/>
     <mergeCell ref="R323:W325"/>
-    <mergeCell ref="Q364:W367"/>
+    <mergeCell ref="Q360:W363"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="I373:J375 I371:I372">
-    <cfRule type="expression" dxfId="22" priority="75">
-      <formula>($E371&gt;=I$320)</formula>
+  <conditionalFormatting sqref="I369:J371 I367:I368">
+    <cfRule type="expression" dxfId="20" priority="75">
+      <formula>($E367&gt;=I$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P328:Q335 J328:M335">
-    <cfRule type="expression" dxfId="21" priority="68">
-      <formula>($E328&gt;=J$322)</formula>
+  <conditionalFormatting sqref="O369:O371">
+    <cfRule type="expression" dxfId="19" priority="76">
+      <formula>($E369&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P328:Q335 J328:M335">
-    <cfRule type="expression" dxfId="20" priority="66">
-      <formula>($E328&lt;J$322)</formula>
+  <conditionalFormatting sqref="T369:T371">
+    <cfRule type="expression" dxfId="18" priority="83">
+      <formula>($E369&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O373:O375">
-    <cfRule type="expression" dxfId="19" priority="76">
-      <formula>($E373&gt;=L$320)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T373:T375">
-    <cfRule type="expression" dxfId="18" priority="83">
-      <formula>($E373&gt;=P$320)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P375">
+  <conditionalFormatting sqref="P371">
     <cfRule type="expression" dxfId="17" priority="149">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q375 U375">
+  <conditionalFormatting sqref="Q371 U371">
     <cfRule type="expression" dxfId="16" priority="150">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R375">
+  <conditionalFormatting sqref="R371">
     <cfRule type="expression" dxfId="15" priority="152">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W375">
+  <conditionalFormatting sqref="W371">
     <cfRule type="expression" dxfId="14" priority="153">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V375">
+  <conditionalFormatting sqref="V371">
     <cfRule type="expression" dxfId="13" priority="154">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P374">
+  <conditionalFormatting sqref="P370">
     <cfRule type="expression" dxfId="12" priority="155">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q374 U374">
+  <conditionalFormatting sqref="Q370 U370">
     <cfRule type="expression" dxfId="11" priority="156">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R374">
+  <conditionalFormatting sqref="R370">
     <cfRule type="expression" dxfId="10" priority="158">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W374">
+  <conditionalFormatting sqref="W370">
     <cfRule type="expression" dxfId="9" priority="159">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V374">
+  <conditionalFormatting sqref="V370">
     <cfRule type="expression" dxfId="8" priority="160">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K373">
+  <conditionalFormatting sqref="K369">
     <cfRule type="expression" dxfId="7" priority="161">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M373">
+  <conditionalFormatting sqref="M369">
     <cfRule type="expression" dxfId="6" priority="162">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L373">
+  <conditionalFormatting sqref="L369">
     <cfRule type="expression" dxfId="5" priority="163">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P373">
+  <conditionalFormatting sqref="P369">
     <cfRule type="expression" dxfId="4" priority="164">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q373 U373">
+  <conditionalFormatting sqref="Q369 U369">
     <cfRule type="expression" dxfId="3" priority="165">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R373">
+  <conditionalFormatting sqref="R369">
     <cfRule type="expression" dxfId="2" priority="167">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W373">
+  <conditionalFormatting sqref="W369">
     <cfRule type="expression" dxfId="1" priority="168">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V373">
+  <conditionalFormatting sqref="V369">
     <cfRule type="expression" dxfId="0" priority="169">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
@@ -25163,22 +24930,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="26" max="26" width="1.7265625" customWidth="1"/>
+    <col min="27" max="28" width="4.7265625" customWidth="1"/>
+    <col min="30" max="30" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -25210,7 +24977,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -25245,7 +25012,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -25280,7 +25047,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -25317,7 +25084,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -25394,7 +25161,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -25434,7 +25201,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -25475,7 +25242,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -25510,7 +25277,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25545,7 +25312,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25580,7 +25347,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25615,7 +25382,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25654,7 +25421,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25691,7 +25458,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25726,7 +25493,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25765,7 +25532,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25802,7 +25569,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25839,7 +25606,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25856,23 +25623,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="189" t="s">
+      <c r="J18" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="189"/>
-      <c r="S18" s="189"/>
-      <c r="T18" s="189"/>
-      <c r="U18" s="189"/>
-      <c r="V18" s="189"/>
-      <c r="W18" s="189"/>
-      <c r="X18" s="189"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="191"/>
+      <c r="S18" s="191"/>
+      <c r="T18" s="191"/>
+      <c r="U18" s="191"/>
+      <c r="V18" s="191"/>
+      <c r="W18" s="191"/>
+      <c r="X18" s="191"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -25880,7 +25647,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25915,7 +25682,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25950,7 +25717,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25967,23 +25734,23 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="172" t="s">
+      <c r="J21" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="190"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="192"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>
@@ -25991,7 +25758,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -26026,7 +25793,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -26061,7 +25828,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -26098,7 +25865,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -26135,7 +25902,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -26184,7 +25951,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -26223,7 +25990,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -26262,7 +26029,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -26301,7 +26068,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -26340,7 +26107,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -26377,7 +26144,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -26414,7 +26181,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -26475,7 +26242,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26540,7 +26307,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26575,7 +26342,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26610,7 +26377,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26645,7 +26412,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26682,7 +26449,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26717,7 +26484,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26754,7 +26521,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26789,7 +26556,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26824,7 +26591,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26856,7 +26623,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26888,7 +26655,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26920,7 +26687,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26952,7 +26719,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26984,7 +26751,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -27016,7 +26783,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA3FFFE-7AE2-4722-A706-8CE32F50373D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A7F894-0262-4828-97F6-09DE7A4F6104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
@@ -126,12 +126,12 @@
     <definedName name="ia_dams_dsegroup_b1">Stock!$L$153:$V$153</definedName>
     <definedName name="ia_g1_tg1">Stock!$K$123:$N$125</definedName>
     <definedName name="ia_k2_mlsb1">Stock!$L$168:$V$207</definedName>
-    <definedName name="ia_offs_dsegroup_b1">Stock!$L$155</definedName>
+    <definedName name="ia_offs_dsegroup">Stock!$L$155</definedName>
     <definedName name="ia_ppk2g1_rlsb1">Stock!$L$214:$V$273</definedName>
     <definedName name="ia_ppk5_lsb0">Stock!$L$280:$Q$299</definedName>
     <definedName name="ia_prepost_b1">Stock!$L$159:$V$159</definedName>
     <definedName name="ia_r1type_fi">Stock!#REF!</definedName>
-    <definedName name="ia_sire_dsegroup_b1">Stock!$L$152</definedName>
+    <definedName name="ia_sire_dsegroup">Stock!$L$152</definedName>
     <definedName name="ia_yatf_dsegroup_b1">Stock!$L$154:$V$154</definedName>
     <definedName name="labour_period_len" localSheetId="0">General!$I$65</definedName>
     <definedName name="pastures" localSheetId="0">General!$I$55:$K$55</definedName>
@@ -578,6 +578,30 @@
           <t xml:space="preserve">
 If early lambing then use # of foetuses
 If late lambing use number of lambs</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{4480F7C9-AFC2-4EF1-9DB3-141549F180B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not counted in dse stuff. They are accounted for by dam. If this changes will need to add them to code.</t>
         </r>
       </text>
     </comment>
@@ -3645,6 +3669,12 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="47" xfId="3" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="3" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="3" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3661,6 +3691,24 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3689,36 +3737,12 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="3" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="3" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4903,19 +4927,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="173"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="175"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -5008,19 +5032,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -7214,8 +7238,8 @@
   </sheetPr>
   <dimension ref="A1:AE384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="N349" sqref="N349"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -7872,19 +7896,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="173"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="175"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -7977,19 +8001,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -9377,7 +9401,7 @@
         <v>169</v>
       </c>
       <c r="I61" s="31">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -9411,7 +9435,7 @@
         <v>170</v>
       </c>
       <c r="I62" s="31">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -22337,14 +22361,14 @@
         <v>4</v>
       </c>
       <c r="Q323" s="126"/>
-      <c r="R323" s="185" t="s">
+      <c r="R323" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="S323" s="186"/>
-      <c r="T323" s="186"/>
-      <c r="U323" s="186"/>
-      <c r="V323" s="186"/>
-      <c r="W323" s="187"/>
+      <c r="S323" s="179"/>
+      <c r="T323" s="179"/>
+      <c r="U323" s="179"/>
+      <c r="V323" s="179"/>
+      <c r="W323" s="180"/>
       <c r="X323" s="4"/>
       <c r="Y323" s="16"/>
       <c r="Z323" s="1"/>
@@ -22382,12 +22406,12 @@
         <v>1</v>
       </c>
       <c r="Q324" s="2"/>
-      <c r="R324" s="188"/>
-      <c r="S324" s="189"/>
-      <c r="T324" s="189"/>
-      <c r="U324" s="189"/>
-      <c r="V324" s="189"/>
-      <c r="W324" s="190"/>
+      <c r="R324" s="181"/>
+      <c r="S324" s="182"/>
+      <c r="T324" s="182"/>
+      <c r="U324" s="182"/>
+      <c r="V324" s="182"/>
+      <c r="W324" s="183"/>
       <c r="X324" s="4"/>
       <c r="Y324" s="16"/>
       <c r="Z324" s="1"/>
@@ -22425,12 +22449,12 @@
         <v>1</v>
       </c>
       <c r="Q325" s="2"/>
-      <c r="R325" s="188"/>
-      <c r="S325" s="189"/>
-      <c r="T325" s="189"/>
-      <c r="U325" s="189"/>
-      <c r="V325" s="189"/>
-      <c r="W325" s="190"/>
+      <c r="R325" s="181"/>
+      <c r="S325" s="182"/>
+      <c r="T325" s="182"/>
+      <c r="U325" s="182"/>
+      <c r="V325" s="182"/>
+      <c r="W325" s="183"/>
       <c r="X325" s="4"/>
       <c r="Y325" s="16"/>
       <c r="Z325" s="1"/>
@@ -23368,14 +23392,14 @@
       <c r="F347" s="5"/>
       <c r="G347" s="4"/>
       <c r="H347" s="2"/>
-      <c r="I347" s="193"/>
-      <c r="J347" s="194" t="s">
+      <c r="I347" s="171"/>
+      <c r="J347" s="172" t="s">
         <v>295</v>
       </c>
-      <c r="K347" s="194" t="s">
+      <c r="K347" s="172" t="s">
         <v>296</v>
       </c>
-      <c r="L347" s="194" t="s">
+      <c r="L347" s="172" t="s">
         <v>297</v>
       </c>
       <c r="M347" s="2"/>
@@ -23406,7 +23430,7 @@
       <c r="H348" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I348" s="193"/>
+      <c r="I348" s="171"/>
       <c r="J348" s="31">
         <v>1</v>
       </c>
@@ -23442,10 +23466,10 @@
       <c r="F349" s="5"/>
       <c r="G349" s="4"/>
       <c r="H349" s="2"/>
-      <c r="I349" s="193"/>
-      <c r="J349" s="194"/>
-      <c r="K349" s="194"/>
-      <c r="L349" s="194"/>
+      <c r="I349" s="171"/>
+      <c r="J349" s="172"/>
+      <c r="K349" s="172"/>
+      <c r="L349" s="172"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
@@ -23909,13 +23933,13 @@
       <c r="N360" s="2"/>
       <c r="O360" s="2"/>
       <c r="P360" s="2"/>
-      <c r="Q360" s="176"/>
-      <c r="R360" s="177"/>
-      <c r="S360" s="177"/>
-      <c r="T360" s="177"/>
-      <c r="U360" s="177"/>
-      <c r="V360" s="177"/>
-      <c r="W360" s="178"/>
+      <c r="Q360" s="184"/>
+      <c r="R360" s="185"/>
+      <c r="S360" s="185"/>
+      <c r="T360" s="185"/>
+      <c r="U360" s="185"/>
+      <c r="V360" s="185"/>
+      <c r="W360" s="186"/>
       <c r="X360" s="4"/>
       <c r="Y360" s="16"/>
       <c r="Z360" s="1"/>
@@ -23956,13 +23980,13 @@
       <c r="N361" s="2"/>
       <c r="O361" s="2"/>
       <c r="P361" s="2"/>
-      <c r="Q361" s="179"/>
-      <c r="R361" s="180"/>
-      <c r="S361" s="180"/>
-      <c r="T361" s="180"/>
-      <c r="U361" s="180"/>
-      <c r="V361" s="180"/>
-      <c r="W361" s="181"/>
+      <c r="Q361" s="187"/>
+      <c r="R361" s="188"/>
+      <c r="S361" s="188"/>
+      <c r="T361" s="188"/>
+      <c r="U361" s="188"/>
+      <c r="V361" s="188"/>
+      <c r="W361" s="189"/>
       <c r="X361" s="4"/>
       <c r="Y361" s="16"/>
       <c r="Z361" s="1"/>
@@ -24001,13 +24025,13 @@
       <c r="N362" s="2"/>
       <c r="O362" s="2"/>
       <c r="P362" s="2"/>
-      <c r="Q362" s="179"/>
-      <c r="R362" s="180"/>
-      <c r="S362" s="180"/>
-      <c r="T362" s="180"/>
-      <c r="U362" s="180"/>
-      <c r="V362" s="180"/>
-      <c r="W362" s="181"/>
+      <c r="Q362" s="187"/>
+      <c r="R362" s="188"/>
+      <c r="S362" s="188"/>
+      <c r="T362" s="188"/>
+      <c r="U362" s="188"/>
+      <c r="V362" s="188"/>
+      <c r="W362" s="189"/>
       <c r="X362" s="4"/>
       <c r="Y362" s="16"/>
       <c r="Z362" s="1"/>
@@ -24036,13 +24060,13 @@
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
       <c r="P363" s="2"/>
-      <c r="Q363" s="182"/>
-      <c r="R363" s="183"/>
-      <c r="S363" s="183"/>
-      <c r="T363" s="183"/>
-      <c r="U363" s="183"/>
-      <c r="V363" s="183"/>
-      <c r="W363" s="184"/>
+      <c r="Q363" s="190"/>
+      <c r="R363" s="191"/>
+      <c r="S363" s="191"/>
+      <c r="T363" s="191"/>
+      <c r="U363" s="191"/>
+      <c r="V363" s="191"/>
+      <c r="W363" s="192"/>
       <c r="X363" s="4"/>
       <c r="Y363" s="16"/>
       <c r="Z363" s="1"/>
@@ -25623,23 +25647,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="191" t="s">
+      <c r="J18" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="191"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -25734,23 +25758,23 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="174" t="s">
+      <c r="J21" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="192"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="194"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A7F894-0262-4828-97F6-09DE7A4F6104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E468F5-4896-44AE-9DB3-758555493430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -30,18 +30,18 @@
     <definedName name="grazing_int" localSheetId="0">General!$I$58:$L$58</definedName>
     <definedName name="i_a0_pos">Stock!$I$52</definedName>
     <definedName name="i_a1_pos">Stock!$I$53</definedName>
-    <definedName name="i_adjp_cfw_initial_w0">Stock!$K$369</definedName>
-    <definedName name="i_adjp_cfw_initial_w1">Stock!$P$369:$P$371</definedName>
-    <definedName name="i_adjp_cfw_initial_w3">Stock!$V$369:$V$371</definedName>
-    <definedName name="i_adjp_fd_initial_w0">Stock!$L$369</definedName>
-    <definedName name="i_adjp_fd_initial_w1">Stock!$Q$369:$Q$371</definedName>
-    <definedName name="i_adjp_fd_initial_w3">Stock!$U$369:$U$371</definedName>
-    <definedName name="i_adjp_fl_initial_w0">Stock!$M$369</definedName>
-    <definedName name="i_adjp_fl_initial_w1">Stock!$R$369:$R$371</definedName>
-    <definedName name="i_adjp_fl_initial_w3">Stock!$W$369:$W$371</definedName>
-    <definedName name="i_adjp_lw_initial_w0">Stock!$J$369</definedName>
-    <definedName name="i_adjp_lw_initial_w1">Stock!$O$369:$O$371</definedName>
-    <definedName name="i_adjp_lw_initial_w3">Stock!$T$369:$T$371</definedName>
+    <definedName name="i_adjp_cfw_initial_w0">Stock!$K$364</definedName>
+    <definedName name="i_adjp_cfw_initial_w1">Stock!$P$364:$P$366</definedName>
+    <definedName name="i_adjp_cfw_initial_w3">Stock!$V$364:$V$366</definedName>
+    <definedName name="i_adjp_fd_initial_w0">Stock!$L$364</definedName>
+    <definedName name="i_adjp_fd_initial_w1">Stock!$Q$364:$Q$366</definedName>
+    <definedName name="i_adjp_fd_initial_w3">Stock!$U$364:$U$366</definedName>
+    <definedName name="i_adjp_fl_initial_w0">Stock!$M$364</definedName>
+    <definedName name="i_adjp_fl_initial_w1">Stock!$R$364:$R$366</definedName>
+    <definedName name="i_adjp_fl_initial_w3">Stock!$W$364:$W$366</definedName>
+    <definedName name="i_adjp_lw_initial_w0">Stock!$J$364</definedName>
+    <definedName name="i_adjp_lw_initial_w1">Stock!$O$364:$O$366</definedName>
+    <definedName name="i_adjp_lw_initial_w3">Stock!$T$364:$T$366</definedName>
     <definedName name="i_age_max">Stock!$I$71</definedName>
     <definedName name="i_age_max_offs">Stock!$I$72</definedName>
     <definedName name="i_b0_pos">Stock!$I$54</definedName>
@@ -112,7 +112,7 @@
     <definedName name="i_progeny_w2_len">Stock!$O$320</definedName>
     <definedName name="i_sim_periods_year">Stock!$I$70</definedName>
     <definedName name="i_transfer_exists_tg1">Stock!$K$127:$N$129</definedName>
-    <definedName name="i_w_idx_sire">OFFSET(Stock!$I$369,0,0,Stock!$J$320,1)</definedName>
+    <definedName name="i_w_idx_sire">OFFSET(Stock!$I$364,0,0,Stock!$J$320,1)</definedName>
     <definedName name="i_w_pos">Stock!$I$65</definedName>
     <definedName name="i_w_start_len1" localSheetId="1">Stock!$L$321</definedName>
     <definedName name="i_w_start_len3">Stock!$P$321</definedName>
@@ -1122,60 +1122,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="J358" authorId="0" shapeId="0" xr:uid="{693A6FF1-2DB9-4B79-B819-60CE71AB1300}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-#this is only the v type axis. it is expanded to full v axis in code.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H361" authorId="0" shapeId="0" xr:uid="{67EB845D-0B2A-4F06-A743-CE82E4536FB1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Michael Young (21512438):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-condensing happens at prejoining. </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="292">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -2016,25 +1968,7 @@
     <t>R type</t>
   </si>
   <si>
-    <t>How many fvps occur in each dvp</t>
-  </si>
-  <si>
-    <t>DVP0</t>
-  </si>
-  <si>
-    <t>DVP1</t>
-  </si>
-  <si>
-    <t>DVP2</t>
-  </si>
-  <si>
-    <t>DVP3</t>
-  </si>
-  <si>
     <t>Dams FVP/DVP</t>
-  </si>
-  <si>
-    <t>Number of fvps since condenseing</t>
   </si>
   <si>
     <t>LW</t>
@@ -3252,7 +3186,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -3709,24 +3643,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="8" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7236,10 +7152,10 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE384"/>
+  <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="K161" sqref="K161"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="J356" sqref="J356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -21786,7 +21702,7 @@
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
-        <f>INT(MAX($C$319:$D$373))+1</f>
+        <f>INT(MAX($C$319:$D$368))+1</f>
         <v>5</v>
       </c>
       <c r="D308" s="3"/>
@@ -22227,7 +22143,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22238,7 +22154,7 @@
       </c>
       <c r="P320" s="132">
         <f>i_w_start_len3*i_n3_len^P323</f>
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
@@ -22351,14 +22267,14 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
       <c r="P323" s="132">
         <f>COUNTIF(J353:M353,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q323" s="126"/>
       <c r="R323" s="178" t="s">
@@ -22516,13 +22432,13 @@
       <c r="H327" s="2"/>
       <c r="I327" s="56"/>
       <c r="J327" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K327" s="2" t="s">
         <v>115</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M327" s="2" t="s">
         <v>115</v>
@@ -22530,7 +22446,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q327" s="2" t="s">
         <v>115</v>
@@ -22990,7 +22906,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="4"/>
       <c r="H338" s="107" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -23017,7 +22933,7 @@
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
-        <f t="shared" ref="C339:C364" si="44">INT($C$309)+3</f>
+        <f t="shared" ref="C339:C359" si="44">INT($C$309)+3</f>
         <v>4</v>
       </c>
       <c r="D339" s="4"/>
@@ -23091,7 +23007,7 @@
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
@@ -23123,7 +23039,7 @@
         <v>264</v>
       </c>
       <c r="J341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341" s="31" t="b">
         <v>1</v>
@@ -23143,7 +23059,7 @@
       <c r="P341" s="2"/>
       <c r="Q341" s="31">
         <f>K342</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R341" s="2"/>
       <c r="S341" s="2"/>
@@ -23166,32 +23082,32 @@
       <c r="F342" s="5"/>
       <c r="G342" s="4"/>
       <c r="H342" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
         <f>COUNTIF($J$341:J341,TRUE)-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K342" s="132">
         <f>COUNTIF($J$341:K341,TRUE)-1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L342" s="132">
         <f>COUNTIF($J$341:L341,TRUE)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M342" s="132">
         <f>COUNTIF($J$341:M341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -23225,7 +23141,7 @@
         <v>264</v>
       </c>
       <c r="J343" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343" s="31" t="b">
         <v>1</v>
@@ -23265,7 +23181,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="4"/>
       <c r="H344" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="31" t="b">
@@ -23394,13 +23310,13 @@
       <c r="H347" s="2"/>
       <c r="I347" s="171"/>
       <c r="J347" s="172" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K347" s="172" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L347" s="172" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -23428,17 +23344,20 @@
       <c r="F348" s="5"/>
       <c r="G348" s="4"/>
       <c r="H348" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I348" s="171"/>
       <c r="J348" s="31">
-        <v>1</v>
+        <f>K342</f>
+        <v>0</v>
       </c>
       <c r="K348" s="31">
+        <f t="shared" ref="K348" si="45">L342</f>
+        <v>1</v>
+      </c>
+      <c r="L348" s="31">
+        <f>M342</f>
         <v>2</v>
-      </c>
-      <c r="L348" s="31">
-        <v>3</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -23499,7 +23418,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="4"/>
       <c r="H350" s="107" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -23539,13 +23458,13 @@
         <v>266</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -23592,7 +23511,7 @@
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
@@ -23624,7 +23543,7 @@
         <v>264</v>
       </c>
       <c r="J353" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K353" s="31" t="b">
         <v>1</v>
@@ -23640,7 +23559,7 @@
       <c r="P353" s="2"/>
       <c r="Q353" s="31">
         <f>K354</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R353" s="2"/>
       <c r="S353" s="2"/>
@@ -23663,24 +23582,24 @@
       <c r="F354" s="5"/>
       <c r="G354" s="4"/>
       <c r="H354" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="132">
         <f>COUNTIF($J$353:J353,TRUE)-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K354" s="132">
         <f>COUNTIF($J$353:K353,TRUE)-1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L354" s="132">
         <f>COUNTIF($J$353:L353,TRUE)-1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M354" s="132">
         <f>COUNTIF($J$353:M353,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N354" s="2"/>
       <c r="O354" s="2"/>
@@ -23716,7 +23635,7 @@
         <v>264</v>
       </c>
       <c r="J355" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K355" s="31" t="b">
         <v>1</v>
@@ -23820,34 +23739,26 @@
       </c>
       <c r="D358" s="4"/>
       <c r="E358" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F358" s="5"/>
       <c r="G358" s="4"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
-      <c r="J358" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="K358" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="L358" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="M358" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="J358" s="2"/>
+      <c r="K358" s="2"/>
+      <c r="L358" s="2"/>
+      <c r="M358" s="2"/>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
-      <c r="Q358" s="2"/>
-      <c r="R358" s="2"/>
-      <c r="S358" s="2"/>
-      <c r="T358" s="2"/>
-      <c r="U358" s="2"/>
-      <c r="V358" s="2"/>
-      <c r="W358" s="2"/>
+      <c r="Q358" s="184"/>
+      <c r="R358" s="185"/>
+      <c r="S358" s="185"/>
+      <c r="T358" s="185"/>
+      <c r="U358" s="185"/>
+      <c r="V358" s="185"/>
+      <c r="W358" s="186"/>
       <c r="X358" s="4"/>
       <c r="Y358" s="16"/>
       <c r="Z358" s="1"/>
@@ -23863,28 +23774,16 @@
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F359" s="5"/>
       <c r="G359" s="4"/>
-      <c r="H359" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J359" s="31">
-        <v>1</v>
-      </c>
-      <c r="K359" s="31">
-        <v>1</v>
-      </c>
-      <c r="L359" s="31">
-        <v>1</v>
-      </c>
-      <c r="M359" s="31">
-        <v>2</v>
-      </c>
+      <c r="H359" s="2"/>
+      <c r="I359" s="2"/>
+      <c r="J359" s="2"/>
+      <c r="K359" s="2"/>
+      <c r="L359" s="2"/>
+      <c r="M359" s="2"/>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
       <c r="P359" s="2"/>
@@ -23901,315 +23800,359 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f>INT($C$309)+3.005</f>
+        <v>4.0049999999999999</v>
       </c>
       <c r="D360" s="4"/>
-      <c r="E360" s="5">
+      <c r="E360" s="4"/>
+      <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
+      <c r="H360" s="86"/>
+      <c r="I360" s="86"/>
+      <c r="J360" s="86"/>
+      <c r="K360" s="86"/>
+      <c r="L360" s="86"/>
+      <c r="M360" s="86"/>
+      <c r="N360" s="86"/>
+      <c r="O360" s="86"/>
+      <c r="P360" s="86"/>
+      <c r="Q360" s="86"/>
+      <c r="R360" s="86"/>
+      <c r="S360" s="86"/>
+      <c r="T360" s="86"/>
+      <c r="U360" s="86"/>
+      <c r="V360" s="86"/>
+      <c r="W360" s="86"/>
+      <c r="X360" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F360" s="5"/>
-      <c r="G360" s="4"/>
-      <c r="H360" s="2"/>
-      <c r="I360" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J360" s="31">
-        <v>1</v>
-      </c>
-      <c r="K360" s="31">
-        <v>1</v>
-      </c>
-      <c r="L360" s="31">
-        <v>1</v>
-      </c>
-      <c r="M360" s="31">
-        <v>2</v>
-      </c>
-      <c r="N360" s="2"/>
-      <c r="O360" s="2"/>
-      <c r="P360" s="2"/>
-      <c r="Q360" s="184"/>
-      <c r="R360" s="185"/>
-      <c r="S360" s="185"/>
-      <c r="T360" s="185"/>
-      <c r="U360" s="185"/>
-      <c r="V360" s="185"/>
-      <c r="W360" s="186"/>
-      <c r="X360" s="4"/>
       <c r="Y360" s="16"/>
       <c r="Z360" s="1"/>
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
-      <c r="D361" s="4"/>
-      <c r="E361" s="5">
-        <v>4</v>
-      </c>
-      <c r="F361" s="5"/>
+        <f>INT($C$309)+2.005</f>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
       <c r="G361" s="4"/>
-      <c r="H361" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I361" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J361" s="31">
-        <v>0</v>
-      </c>
-      <c r="K361" s="31">
-        <v>1</v>
-      </c>
-      <c r="L361" s="31">
-        <v>2</v>
-      </c>
-      <c r="M361" s="31">
-        <v>2</v>
-      </c>
-      <c r="N361" s="2"/>
-      <c r="O361" s="2"/>
-      <c r="P361" s="2"/>
-      <c r="Q361" s="187"/>
-      <c r="R361" s="188"/>
-      <c r="S361" s="188"/>
-      <c r="T361" s="188"/>
-      <c r="U361" s="188"/>
-      <c r="V361" s="188"/>
-      <c r="W361" s="189"/>
+      <c r="H361" s="98"/>
+      <c r="I361" s="98"/>
+      <c r="J361" s="98"/>
+      <c r="K361" s="98"/>
+      <c r="L361" s="98"/>
+      <c r="M361" s="98"/>
+      <c r="N361" s="98"/>
+      <c r="O361" s="98"/>
+      <c r="P361" s="98"/>
+      <c r="Q361" s="98"/>
+      <c r="R361" s="98"/>
+      <c r="S361" s="98"/>
+      <c r="T361" s="98"/>
+      <c r="U361" s="98"/>
+      <c r="V361" s="98"/>
+      <c r="W361" s="98"/>
       <c r="X361" s="4"/>
       <c r="Y361" s="16"/>
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
       </c>
       <c r="D362" s="4"/>
-      <c r="E362" s="5">
-        <v>5</v>
-      </c>
+      <c r="E362" s="5"/>
       <c r="F362" s="5"/>
       <c r="G362" s="4"/>
-      <c r="H362" s="2"/>
-      <c r="I362" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J362" s="31">
-        <v>0</v>
-      </c>
-      <c r="K362" s="31">
-        <v>1</v>
-      </c>
-      <c r="L362" s="31">
-        <v>2</v>
-      </c>
-      <c r="M362" s="31">
-        <v>2</v>
-      </c>
+      <c r="H362" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I362" s="149"/>
+      <c r="J362" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="K362" s="107"/>
+      <c r="L362" s="107"/>
+      <c r="M362" s="107"/>
       <c r="N362" s="2"/>
-      <c r="O362" s="2"/>
+      <c r="O362" s="107" t="s">
+        <v>76</v>
+      </c>
       <c r="P362" s="2"/>
-      <c r="Q362" s="187"/>
-      <c r="R362" s="188"/>
-      <c r="S362" s="188"/>
-      <c r="T362" s="188"/>
-      <c r="U362" s="188"/>
-      <c r="V362" s="188"/>
-      <c r="W362" s="189"/>
+      <c r="Q362" s="2"/>
+      <c r="R362" s="2"/>
+      <c r="S362" s="2"/>
+      <c r="T362" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="U362" s="2"/>
+      <c r="V362" s="2"/>
+      <c r="W362" s="2"/>
       <c r="X362" s="4"/>
       <c r="Y362" s="16"/>
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
-      <c r="C363" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
-      </c>
+      <c r="C363" s="76"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="5">
-        <v>6</v>
-      </c>
+      <c r="E363" s="5"/>
       <c r="F363" s="5"/>
       <c r="G363" s="4"/>
       <c r="H363" s="2"/>
-      <c r="I363" s="2"/>
-      <c r="J363" s="2"/>
-      <c r="K363" s="2"/>
-      <c r="L363" s="2"/>
-      <c r="M363" s="2"/>
+      <c r="I363" s="149"/>
+      <c r="J363" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="K363" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="L363" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="M363" s="107" t="s">
+        <v>276</v>
+      </c>
       <c r="N363" s="2"/>
-      <c r="O363" s="2"/>
-      <c r="P363" s="2"/>
-      <c r="Q363" s="190"/>
-      <c r="R363" s="191"/>
-      <c r="S363" s="191"/>
-      <c r="T363" s="191"/>
-      <c r="U363" s="191"/>
-      <c r="V363" s="191"/>
-      <c r="W363" s="192"/>
+      <c r="O363" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="P363" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q363" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="R363" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="S363" s="2"/>
+      <c r="T363" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="U363" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="V363" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="W363" s="107" t="s">
+        <v>276</v>
+      </c>
       <c r="X363" s="4"/>
       <c r="Y363" s="16"/>
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
-        <f t="shared" si="44"/>
-        <v>4</v>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
       </c>
       <c r="D364" s="4"/>
       <c r="E364" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F364" s="5"/>
       <c r="G364" s="4"/>
-      <c r="H364" s="2"/>
-      <c r="I364" s="2"/>
-      <c r="J364" s="2"/>
-      <c r="K364" s="2"/>
-      <c r="L364" s="2"/>
-      <c r="M364" s="2"/>
+      <c r="H364" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="I364" s="149"/>
+      <c r="J364" s="162">
+        <v>0</v>
+      </c>
+      <c r="K364" s="106">
+        <v>0</v>
+      </c>
+      <c r="L364" s="106">
+        <v>0</v>
+      </c>
+      <c r="M364" s="106">
+        <v>0</v>
+      </c>
       <c r="N364" s="2"/>
-      <c r="O364" s="2"/>
-      <c r="P364" s="2"/>
-      <c r="Q364" s="2"/>
-      <c r="R364" s="2"/>
+      <c r="O364" s="106">
+        <v>0</v>
+      </c>
+      <c r="P364" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q364" s="106">
+        <v>0</v>
+      </c>
+      <c r="R364" s="106">
+        <v>0</v>
+      </c>
       <c r="S364" s="2"/>
-      <c r="T364" s="2"/>
-      <c r="U364" s="2"/>
-      <c r="V364" s="2"/>
-      <c r="W364" s="2"/>
+      <c r="T364" s="106">
+        <v>0</v>
+      </c>
+      <c r="U364" s="106">
+        <v>0</v>
+      </c>
+      <c r="V364" s="106">
+        <v>0</v>
+      </c>
+      <c r="W364" s="106">
+        <v>0</v>
+      </c>
       <c r="X364" s="4"/>
       <c r="Y364" s="16"/>
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
-        <f>INT($C$309)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
       </c>
       <c r="D365" s="4"/>
-      <c r="E365" s="4"/>
-      <c r="F365" s="4"/>
+      <c r="E365" s="5">
+        <v>27</v>
+      </c>
+      <c r="F365" s="5"/>
       <c r="G365" s="4"/>
-      <c r="H365" s="86"/>
-      <c r="I365" s="86"/>
-      <c r="J365" s="86"/>
-      <c r="K365" s="86"/>
-      <c r="L365" s="86"/>
-      <c r="M365" s="86"/>
-      <c r="N365" s="86"/>
-      <c r="O365" s="86"/>
-      <c r="P365" s="86"/>
-      <c r="Q365" s="86"/>
-      <c r="R365" s="86"/>
-      <c r="S365" s="86"/>
-      <c r="T365" s="86"/>
-      <c r="U365" s="86"/>
-      <c r="V365" s="86"/>
-      <c r="W365" s="86"/>
-      <c r="X365" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="H365" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="I365" s="149"/>
+      <c r="J365" s="149"/>
+      <c r="K365" s="2"/>
+      <c r="L365" s="107"/>
+      <c r="M365" s="2"/>
+      <c r="N365" s="2"/>
+      <c r="O365" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="P365" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="Q365" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="R365" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="S365" s="2"/>
+      <c r="T365" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="U365" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="V365" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="W365" s="32">
+        <v>0.1</v>
+      </c>
+      <c r="X365" s="4"/>
       <c r="Y365" s="16"/>
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
-        <f>INT($C$309)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E366" s="4"/>
-      <c r="F366" s="4"/>
+        <f>INT($C$309)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D366" s="4"/>
+      <c r="E366" s="5">
+        <v>54</v>
+      </c>
+      <c r="F366" s="5"/>
       <c r="G366" s="4"/>
-      <c r="H366" s="98"/>
-      <c r="I366" s="98"/>
-      <c r="J366" s="98"/>
-      <c r="K366" s="98"/>
-      <c r="L366" s="98"/>
-      <c r="M366" s="98"/>
-      <c r="N366" s="98"/>
-      <c r="O366" s="98"/>
-      <c r="P366" s="98"/>
-      <c r="Q366" s="98"/>
-      <c r="R366" s="98"/>
-      <c r="S366" s="98"/>
-      <c r="T366" s="98"/>
-      <c r="U366" s="98"/>
-      <c r="V366" s="98"/>
-      <c r="W366" s="98"/>
+      <c r="H366" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="I366" s="149"/>
+      <c r="J366" s="149"/>
+      <c r="K366" s="2"/>
+      <c r="L366" s="107"/>
+      <c r="M366" s="2"/>
+      <c r="N366" s="2"/>
+      <c r="O366" s="32">
+        <v>-0.15</v>
+      </c>
+      <c r="P366" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="Q366" s="32">
+        <v>-0.05</v>
+      </c>
+      <c r="R366" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="S366" s="2"/>
+      <c r="T366" s="32">
+        <v>-0.15</v>
+      </c>
+      <c r="U366" s="32">
+        <v>-0.1</v>
+      </c>
+      <c r="V366" s="32">
+        <v>-0.05</v>
+      </c>
+      <c r="W366" s="32">
+        <v>-0.1</v>
+      </c>
       <c r="X366" s="4"/>
       <c r="Y366" s="16"/>
       <c r="Z366" s="1"/>
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
-      <c r="C367" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
+      <c r="C367" s="76"/>
       <c r="D367" s="4"/>
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
       <c r="G367" s="4"/>
-      <c r="H367" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I367" s="149"/>
-      <c r="J367" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="K367" s="107"/>
+      <c r="H367" s="168"/>
+      <c r="I367" s="167"/>
+      <c r="J367" s="2"/>
+      <c r="K367" s="2"/>
       <c r="L367" s="107"/>
-      <c r="M367" s="107"/>
+      <c r="M367" s="2"/>
       <c r="N367" s="2"/>
-      <c r="O367" s="107" t="s">
-        <v>76</v>
-      </c>
+      <c r="O367" s="2"/>
       <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
       <c r="R367" s="2"/>
       <c r="S367" s="2"/>
-      <c r="T367" s="107" t="s">
-        <v>78</v>
-      </c>
+      <c r="T367" s="2"/>
       <c r="U367" s="2"/>
       <c r="V367" s="2"/>
       <c r="W367" s="2"/>
@@ -24219,400 +24162,299 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
-      <c r="C368" s="76"/>
+      <c r="C368" s="76">
+        <f>INT($C$309)+3.005</f>
+        <v>4.0049999999999999</v>
+      </c>
       <c r="D368" s="4"/>
-      <c r="E368" s="5"/>
-      <c r="F368" s="5"/>
+      <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
       <c r="G368" s="4"/>
-      <c r="H368" s="2"/>
-      <c r="I368" s="149"/>
-      <c r="J368" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="K368" s="107" t="s">
-        <v>280</v>
-      </c>
-      <c r="L368" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="M368" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="N368" s="2"/>
-      <c r="O368" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="P368" s="107" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q368" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="R368" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="S368" s="2"/>
-      <c r="T368" s="107" t="s">
-        <v>279</v>
-      </c>
-      <c r="U368" s="107" t="s">
-        <v>280</v>
-      </c>
-      <c r="V368" s="107" t="s">
-        <v>281</v>
-      </c>
-      <c r="W368" s="107" t="s">
-        <v>282</v>
-      </c>
-      <c r="X368" s="4"/>
+      <c r="H368" s="4"/>
+      <c r="I368" s="4"/>
+      <c r="J368" s="4"/>
+      <c r="K368" s="4"/>
+      <c r="L368" s="4"/>
+      <c r="M368" s="4"/>
+      <c r="N368" s="4"/>
+      <c r="O368" s="4"/>
+      <c r="P368" s="4"/>
+      <c r="Q368" s="4"/>
+      <c r="R368" s="4"/>
+      <c r="S368" s="4"/>
+      <c r="T368" s="4"/>
+      <c r="U368" s="4"/>
+      <c r="V368" s="4"/>
+      <c r="W368" s="4"/>
+      <c r="X368" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="Y368" s="16"/>
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
+        <f>INT($C$309)+2.005</f>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D369" s="4"/>
-      <c r="E369" s="5">
-        <v>0</v>
-      </c>
-      <c r="F369" s="5"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
       <c r="G369" s="4"/>
-      <c r="H369" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="I369" s="149"/>
-      <c r="J369" s="162">
-        <v>0</v>
-      </c>
-      <c r="K369" s="106">
-        <v>0</v>
-      </c>
-      <c r="L369" s="106">
-        <v>0</v>
-      </c>
-      <c r="M369" s="106">
-        <v>0</v>
-      </c>
-      <c r="N369" s="2"/>
-      <c r="O369" s="106">
-        <v>0</v>
-      </c>
-      <c r="P369" s="106">
-        <v>0</v>
-      </c>
-      <c r="Q369" s="106">
-        <v>0</v>
-      </c>
-      <c r="R369" s="106">
-        <v>0</v>
-      </c>
-      <c r="S369" s="2"/>
-      <c r="T369" s="106">
-        <v>0</v>
-      </c>
-      <c r="U369" s="106">
-        <v>0</v>
-      </c>
-      <c r="V369" s="106">
-        <v>0</v>
-      </c>
-      <c r="W369" s="106">
-        <v>0</v>
-      </c>
+      <c r="H369" s="4"/>
+      <c r="I369" s="4"/>
+      <c r="J369" s="4"/>
+      <c r="K369" s="4"/>
+      <c r="L369" s="4"/>
+      <c r="M369" s="4"/>
+      <c r="N369" s="4"/>
+      <c r="O369" s="4"/>
+      <c r="P369" s="4"/>
+      <c r="Q369" s="4"/>
+      <c r="R369" s="4"/>
+      <c r="S369" s="4"/>
+      <c r="T369" s="4"/>
+      <c r="U369" s="4"/>
+      <c r="V369" s="4"/>
+      <c r="W369" s="4"/>
       <c r="X369" s="4"/>
       <c r="Y369" s="16"/>
       <c r="Z369" s="1"/>
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
-      <c r="B370" s="33"/>
-      <c r="C370" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D370" s="4"/>
-      <c r="E370" s="5">
-        <v>27</v>
-      </c>
-      <c r="F370" s="5"/>
-      <c r="G370" s="4"/>
-      <c r="H370" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="I370" s="149"/>
-      <c r="J370" s="149"/>
-      <c r="K370" s="2"/>
-      <c r="L370" s="107"/>
-      <c r="M370" s="2"/>
-      <c r="N370" s="2"/>
-      <c r="O370" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="P370" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="Q370" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="R370" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="S370" s="2"/>
-      <c r="T370" s="32">
-        <v>0.15</v>
-      </c>
-      <c r="U370" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="V370" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="W370" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="X370" s="4"/>
-      <c r="Y370" s="16"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="79">
+        <f>INT($C$309)+1.005</f>
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="D370" s="17"/>
+      <c r="E370" s="17"/>
+      <c r="F370" s="17"/>
+      <c r="G370" s="17"/>
+      <c r="H370" s="17"/>
+      <c r="I370" s="17"/>
+      <c r="J370" s="17"/>
+      <c r="K370" s="17"/>
+      <c r="L370" s="17"/>
+      <c r="M370" s="17"/>
+      <c r="N370" s="17"/>
+      <c r="O370" s="17"/>
+      <c r="P370" s="17"/>
+      <c r="Q370" s="17"/>
+      <c r="R370" s="17"/>
+      <c r="S370" s="17"/>
+      <c r="T370" s="17"/>
+      <c r="U370" s="17"/>
+      <c r="V370" s="17"/>
+      <c r="W370" s="17"/>
+      <c r="X370" s="17"/>
+      <c r="Y370" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
-      <c r="B371" s="33"/>
-      <c r="C371" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
-      <c r="D371" s="4"/>
-      <c r="E371" s="5">
-        <v>54</v>
-      </c>
-      <c r="F371" s="5"/>
-      <c r="G371" s="4"/>
-      <c r="H371" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I371" s="149"/>
-      <c r="J371" s="149"/>
-      <c r="K371" s="2"/>
-      <c r="L371" s="107"/>
-      <c r="M371" s="2"/>
-      <c r="N371" s="2"/>
-      <c r="O371" s="32">
-        <v>-0.15</v>
-      </c>
-      <c r="P371" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="Q371" s="32">
-        <v>-0.05</v>
-      </c>
-      <c r="R371" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="S371" s="2"/>
-      <c r="T371" s="32">
-        <v>-0.15</v>
-      </c>
-      <c r="U371" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="V371" s="32">
-        <v>-0.05</v>
-      </c>
-      <c r="W371" s="32">
-        <v>-0.1</v>
-      </c>
-      <c r="X371" s="4"/>
-      <c r="Y371" s="16"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="80">
+        <f>INT($C$309)+0.005</f>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D371" s="19"/>
+      <c r="E371" s="19"/>
+      <c r="F371" s="19"/>
+      <c r="G371" s="19"/>
+      <c r="H371" s="19"/>
+      <c r="I371" s="19"/>
+      <c r="J371" s="19"/>
+      <c r="K371" s="19"/>
+      <c r="L371" s="19"/>
+      <c r="M371" s="19"/>
+      <c r="N371" s="19"/>
+      <c r="O371" s="19"/>
+      <c r="P371" s="19"/>
+      <c r="Q371" s="19"/>
+      <c r="R371" s="19"/>
+      <c r="S371" s="19"/>
+      <c r="T371" s="19"/>
+      <c r="U371" s="19"/>
+      <c r="V371" s="19"/>
+      <c r="W371" s="19"/>
+      <c r="X371" s="19"/>
+      <c r="Y371" s="19"/>
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
-      <c r="B372" s="33"/>
-      <c r="C372" s="76"/>
-      <c r="D372" s="4"/>
-      <c r="E372" s="5"/>
-      <c r="F372" s="5"/>
-      <c r="G372" s="4"/>
-      <c r="H372" s="168"/>
-      <c r="I372" s="167"/>
-      <c r="J372" s="2"/>
-      <c r="K372" s="2"/>
-      <c r="L372" s="107"/>
-      <c r="M372" s="2"/>
-      <c r="N372" s="2"/>
-      <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
-      <c r="Q372" s="2"/>
-      <c r="R372" s="2"/>
-      <c r="S372" s="2"/>
-      <c r="T372" s="2"/>
-      <c r="U372" s="2"/>
-      <c r="V372" s="2"/>
-      <c r="W372" s="2"/>
-      <c r="X372" s="4"/>
-      <c r="Y372" s="16"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="76">
+        <f>INT($C$309)+2</f>
+        <v>3</v>
+      </c>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+      <c r="F372" s="1"/>
+      <c r="G372" s="1"/>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+      <c r="K372" s="1"/>
+      <c r="L372" s="1"/>
+      <c r="M372" s="1"/>
+      <c r="N372" s="1"/>
+      <c r="O372" s="1"/>
+      <c r="P372" s="1"/>
+      <c r="Q372" s="1"/>
+      <c r="R372" s="1"/>
+      <c r="S372" s="1"/>
+      <c r="T372" s="1"/>
+      <c r="U372" s="1"/>
+      <c r="V372" s="1"/>
+      <c r="W372" s="1"/>
+      <c r="X372" s="1"/>
+      <c r="Y372" s="1"/>
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
-      <c r="B373" s="33"/>
-      <c r="C373" s="76">
-        <f>INT($C$309)+3.005</f>
-        <v>4.0049999999999999</v>
-      </c>
-      <c r="D373" s="4"/>
-      <c r="E373" s="4"/>
-      <c r="F373" s="4"/>
-      <c r="G373" s="4"/>
-      <c r="H373" s="4"/>
-      <c r="I373" s="4"/>
-      <c r="J373" s="4"/>
-      <c r="K373" s="4"/>
-      <c r="L373" s="4"/>
-      <c r="M373" s="4"/>
-      <c r="N373" s="4"/>
-      <c r="O373" s="4"/>
-      <c r="P373" s="4"/>
-      <c r="Q373" s="4"/>
-      <c r="R373" s="4"/>
-      <c r="S373" s="4"/>
-      <c r="T373" s="4"/>
-      <c r="U373" s="4"/>
-      <c r="V373" s="4"/>
-      <c r="W373" s="4"/>
-      <c r="X373" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y373" s="16"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="69"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+      <c r="F373" s="1"/>
+      <c r="G373" s="1"/>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1"/>
+      <c r="J373" s="1"/>
+      <c r="K373" s="1"/>
+      <c r="L373" s="1"/>
+      <c r="M373" s="1"/>
+      <c r="N373" s="1"/>
+      <c r="O373" s="1"/>
+      <c r="P373" s="1"/>
+      <c r="Q373" s="1"/>
+      <c r="R373" s="1"/>
+      <c r="S373" s="1"/>
+      <c r="T373" s="1"/>
+      <c r="U373" s="1"/>
+      <c r="V373" s="1"/>
+      <c r="W373" s="1"/>
+      <c r="X373" s="1"/>
+      <c r="Y373" s="1"/>
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
-      <c r="B374" s="33"/>
-      <c r="C374" s="76">
-        <f>INT($C$309)+2.005</f>
-        <v>3.0049999999999999</v>
-      </c>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="4"/>
-      <c r="G374" s="4"/>
-      <c r="H374" s="4"/>
-      <c r="I374" s="4"/>
-      <c r="J374" s="4"/>
-      <c r="K374" s="4"/>
-      <c r="L374" s="4"/>
-      <c r="M374" s="4"/>
-      <c r="N374" s="4"/>
-      <c r="O374" s="4"/>
-      <c r="P374" s="4"/>
-      <c r="Q374" s="4"/>
-      <c r="R374" s="4"/>
-      <c r="S374" s="4"/>
-      <c r="T374" s="4"/>
-      <c r="U374" s="4"/>
-      <c r="V374" s="4"/>
-      <c r="W374" s="4"/>
-      <c r="X374" s="4"/>
-      <c r="Y374" s="16"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="69"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+      <c r="F374" s="1"/>
+      <c r="G374" s="1"/>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+      <c r="K374" s="1"/>
+      <c r="L374" s="1"/>
+      <c r="M374" s="1"/>
+      <c r="N374" s="1"/>
+      <c r="O374" s="1"/>
+      <c r="P374" s="1"/>
+      <c r="Q374" s="1"/>
+      <c r="R374" s="1"/>
+      <c r="S374" s="1"/>
+      <c r="T374" s="1"/>
+      <c r="U374" s="1"/>
+      <c r="V374" s="1"/>
+      <c r="W374" s="1"/>
+      <c r="X374" s="1"/>
+      <c r="Y374" s="1"/>
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
-      <c r="B375" s="35"/>
-      <c r="C375" s="79">
-        <f>INT($C$309)+1.005</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="D375" s="17"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="17"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="17"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="17"/>
-      <c r="K375" s="17"/>
-      <c r="L375" s="17"/>
-      <c r="M375" s="17"/>
-      <c r="N375" s="17"/>
-      <c r="O375" s="17"/>
-      <c r="P375" s="17"/>
-      <c r="Q375" s="17"/>
-      <c r="R375" s="17"/>
-      <c r="S375" s="17"/>
-      <c r="T375" s="17"/>
-      <c r="U375" s="17"/>
-      <c r="V375" s="17"/>
-      <c r="W375" s="17"/>
-      <c r="X375" s="17"/>
-      <c r="Y375" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="B375" s="1"/>
+      <c r="C375" s="69"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+      <c r="F375" s="1"/>
+      <c r="G375" s="1"/>
+      <c r="H375" s="1"/>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+      <c r="K375" s="1"/>
+      <c r="L375" s="1"/>
+      <c r="M375" s="1"/>
+      <c r="N375" s="1"/>
+      <c r="O375" s="1"/>
+      <c r="P375" s="1"/>
+      <c r="Q375" s="1"/>
+      <c r="R375" s="1"/>
+      <c r="S375" s="1"/>
+      <c r="T375" s="1"/>
+      <c r="U375" s="1"/>
+      <c r="V375" s="1"/>
+      <c r="W375" s="1"/>
+      <c r="X375" s="1"/>
+      <c r="Y375" s="1"/>
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
-      <c r="B376" s="19"/>
-      <c r="C376" s="80">
-        <f>INT($C$309)+0.005</f>
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="D376" s="19"/>
-      <c r="E376" s="19"/>
-      <c r="F376" s="19"/>
-      <c r="G376" s="19"/>
-      <c r="H376" s="19"/>
-      <c r="I376" s="19"/>
-      <c r="J376" s="19"/>
-      <c r="K376" s="19"/>
-      <c r="L376" s="19"/>
-      <c r="M376" s="19"/>
-      <c r="N376" s="19"/>
-      <c r="O376" s="19"/>
-      <c r="P376" s="19"/>
-      <c r="Q376" s="19"/>
-      <c r="R376" s="19"/>
-      <c r="S376" s="19"/>
-      <c r="T376" s="19"/>
-      <c r="U376" s="19"/>
-      <c r="V376" s="19"/>
-      <c r="W376" s="19"/>
-      <c r="X376" s="19"/>
-      <c r="Y376" s="19"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="69"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="1"/>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+      <c r="K376" s="1"/>
+      <c r="L376" s="1"/>
+      <c r="M376" s="1"/>
+      <c r="N376" s="1"/>
+      <c r="O376" s="1"/>
+      <c r="P376" s="1"/>
+      <c r="Q376" s="1"/>
+      <c r="R376" s="1"/>
+      <c r="S376" s="1"/>
+      <c r="T376" s="1"/>
+      <c r="U376" s="1"/>
+      <c r="V376" s="1"/>
+      <c r="W376" s="1"/>
+      <c r="X376" s="1"/>
+      <c r="Y376" s="1"/>
       <c r="Z376" s="1"/>
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
-      <c r="C377" s="76">
-        <f>INT($C$309)+2</f>
-        <v>3</v>
-      </c>
+      <c r="C377" s="69"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -24670,157 +24512,7 @@
       <c r="AB378" s="1"/>
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-      <c r="C379" s="69"/>
-      <c r="D379" s="1"/>
-      <c r="E379" s="1"/>
-      <c r="F379" s="1"/>
-      <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-      <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
-      <c r="P379" s="1"/>
-      <c r="Q379" s="1"/>
-      <c r="R379" s="1"/>
-      <c r="S379" s="1"/>
-      <c r="T379" s="1"/>
-      <c r="U379" s="1"/>
-      <c r="V379" s="1"/>
-      <c r="W379" s="1"/>
-      <c r="X379" s="1"/>
-      <c r="Y379" s="1"/>
-      <c r="Z379" s="1"/>
-      <c r="AA379" s="1"/>
-      <c r="AB379" s="1"/>
-    </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
-      <c r="C380" s="69"/>
-      <c r="D380" s="1"/>
-      <c r="E380" s="1"/>
-      <c r="F380" s="1"/>
-      <c r="G380" s="1"/>
-      <c r="H380" s="1"/>
-      <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
-      <c r="K380" s="1"/>
-      <c r="L380" s="1"/>
-      <c r="M380" s="1"/>
-      <c r="N380" s="1"/>
-      <c r="O380" s="1"/>
-      <c r="P380" s="1"/>
-      <c r="Q380" s="1"/>
-      <c r="R380" s="1"/>
-      <c r="S380" s="1"/>
-      <c r="T380" s="1"/>
-      <c r="U380" s="1"/>
-      <c r="V380" s="1"/>
-      <c r="W380" s="1"/>
-      <c r="X380" s="1"/>
-      <c r="Y380" s="1"/>
-      <c r="Z380" s="1"/>
-      <c r="AA380" s="1"/>
-      <c r="AB380" s="1"/>
-    </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-      <c r="C381" s="69"/>
-      <c r="D381" s="1"/>
-      <c r="E381" s="1"/>
-      <c r="F381" s="1"/>
-      <c r="G381" s="1"/>
-      <c r="H381" s="1"/>
-      <c r="I381" s="1"/>
-      <c r="J381" s="1"/>
-      <c r="K381" s="1"/>
-      <c r="L381" s="1"/>
-      <c r="M381" s="1"/>
-      <c r="N381" s="1"/>
-      <c r="O381" s="1"/>
-      <c r="P381" s="1"/>
-      <c r="Q381" s="1"/>
-      <c r="R381" s="1"/>
-      <c r="S381" s="1"/>
-      <c r="T381" s="1"/>
-      <c r="U381" s="1"/>
-      <c r="V381" s="1"/>
-      <c r="W381" s="1"/>
-      <c r="X381" s="1"/>
-      <c r="Y381" s="1"/>
-      <c r="Z381" s="1"/>
-      <c r="AA381" s="1"/>
-      <c r="AB381" s="1"/>
-    </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
-      <c r="C382" s="69"/>
-      <c r="D382" s="1"/>
-      <c r="E382" s="1"/>
-      <c r="F382" s="1"/>
-      <c r="G382" s="1"/>
-      <c r="H382" s="1"/>
-      <c r="I382" s="1"/>
-      <c r="J382" s="1"/>
-      <c r="K382" s="1"/>
-      <c r="L382" s="1"/>
-      <c r="M382" s="1"/>
-      <c r="N382" s="1"/>
-      <c r="O382" s="1"/>
-      <c r="P382" s="1"/>
-      <c r="Q382" s="1"/>
-      <c r="R382" s="1"/>
-      <c r="S382" s="1"/>
-      <c r="T382" s="1"/>
-      <c r="U382" s="1"/>
-      <c r="V382" s="1"/>
-      <c r="W382" s="1"/>
-      <c r="X382" s="1"/>
-      <c r="Y382" s="1"/>
-      <c r="Z382" s="1"/>
-      <c r="AA382" s="1"/>
-      <c r="AB382" s="1"/>
-    </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
-      <c r="C383" s="69"/>
-      <c r="D383" s="1"/>
-      <c r="E383" s="1"/>
-      <c r="F383" s="1"/>
-      <c r="G383" s="1"/>
-      <c r="H383" s="1"/>
-      <c r="I383" s="1"/>
-      <c r="J383" s="1"/>
-      <c r="K383" s="1"/>
-      <c r="L383" s="1"/>
-      <c r="M383" s="1"/>
-      <c r="N383" s="1"/>
-      <c r="O383" s="1"/>
-      <c r="P383" s="1"/>
-      <c r="Q383" s="1"/>
-      <c r="R383" s="1"/>
-      <c r="S383" s="1"/>
-      <c r="T383" s="1"/>
-      <c r="U383" s="1"/>
-      <c r="V383" s="1"/>
-      <c r="W383" s="1"/>
-      <c r="X383" s="1"/>
-      <c r="Y383" s="1"/>
-      <c r="Z383" s="1"/>
-      <c r="AA383" s="1"/>
-      <c r="AB383" s="1"/>
-    </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="C384" s="75" t="s">
+      <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
     </row>
@@ -24829,110 +24521,110 @@
     <mergeCell ref="J18:T18"/>
     <mergeCell ref="J21:T21"/>
     <mergeCell ref="R323:W325"/>
-    <mergeCell ref="Q360:W363"/>
+    <mergeCell ref="Q358:W358"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="I369:J371 I367:I368">
+  <conditionalFormatting sqref="I364:J366 I362:I363">
     <cfRule type="expression" dxfId="20" priority="75">
-      <formula>($E367&gt;=I$320)</formula>
+      <formula>($E362&gt;=I$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O369:O371">
+  <conditionalFormatting sqref="O364:O366">
     <cfRule type="expression" dxfId="19" priority="76">
-      <formula>($E369&gt;=L$320)</formula>
+      <formula>($E364&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T369:T371">
+  <conditionalFormatting sqref="T364:T366">
     <cfRule type="expression" dxfId="18" priority="83">
-      <formula>($E369&gt;=P$320)</formula>
+      <formula>($E364&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P371">
+  <conditionalFormatting sqref="P366">
     <cfRule type="expression" dxfId="17" priority="149">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q371 U371">
+  <conditionalFormatting sqref="Q366 U366">
     <cfRule type="expression" dxfId="16" priority="150">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R371">
+  <conditionalFormatting sqref="R366">
     <cfRule type="expression" dxfId="15" priority="152">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W371">
+  <conditionalFormatting sqref="W366">
     <cfRule type="expression" dxfId="14" priority="153">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V371">
+  <conditionalFormatting sqref="V366">
     <cfRule type="expression" dxfId="13" priority="154">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P370">
+  <conditionalFormatting sqref="P365">
     <cfRule type="expression" dxfId="12" priority="155">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q370 U370">
+  <conditionalFormatting sqref="Q365 U365">
     <cfRule type="expression" dxfId="11" priority="156">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R370">
+  <conditionalFormatting sqref="R365">
     <cfRule type="expression" dxfId="10" priority="158">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W370">
+  <conditionalFormatting sqref="W365">
     <cfRule type="expression" dxfId="9" priority="159">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V370">
+  <conditionalFormatting sqref="V365">
     <cfRule type="expression" dxfId="8" priority="160">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K369">
+  <conditionalFormatting sqref="K364">
     <cfRule type="expression" dxfId="7" priority="161">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M369">
+  <conditionalFormatting sqref="M364">
     <cfRule type="expression" dxfId="6" priority="162">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L369">
+  <conditionalFormatting sqref="L364">
     <cfRule type="expression" dxfId="5" priority="163">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P369">
+  <conditionalFormatting sqref="P364">
     <cfRule type="expression" dxfId="4" priority="164">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q369 U369">
+  <conditionalFormatting sqref="Q364 U364">
     <cfRule type="expression" dxfId="3" priority="165">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R369">
+  <conditionalFormatting sqref="R364">
     <cfRule type="expression" dxfId="2" priority="167">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W369">
+  <conditionalFormatting sqref="W364">
     <cfRule type="expression" dxfId="1" priority="168">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V369">
+  <conditionalFormatting sqref="V364">
     <cfRule type="expression" dxfId="0" priority="169">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
@@ -25647,23 +25339,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="193" t="s">
+      <c r="J18" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
-      <c r="X18" s="193"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -25774,7 +25466,7 @@
       <c r="U21" s="177"/>
       <c r="V21" s="177"/>
       <c r="W21" s="177"/>
-      <c r="X21" s="194"/>
+      <c r="X21" s="188"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E468F5-4896-44AE-9DB3-758555493430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28DCB02-6784-4FEA-ADE5-E4C2F6D23E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
@@ -7154,8 +7154,8 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="J356" sqref="J356"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="N342" sqref="N342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -22143,7 +22143,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22267,7 +22267,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -22537,7 +22537,7 @@
       <c r="J329" s="54"/>
       <c r="K329" s="54"/>
       <c r="L329" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M329" s="31">
         <v>0.5</v>
@@ -23051,7 +23051,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23103,11 +23103,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28DCB02-6784-4FEA-ADE5-E4C2F6D23E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D6001E-D633-409F-9121-754C71F1DAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="i_d_pos">Stock!$I$56</definedName>
     <definedName name="i_date_assetvalue" localSheetId="0">General!$I$67</definedName>
     <definedName name="i_density_n0">Stock!$K$328</definedName>
-    <definedName name="i_density_n1">Stock!$M$328:$M$330</definedName>
+    <definedName name="i_density_n1">Stock!$M$328:$M$329</definedName>
     <definedName name="i_density_n3">Stock!$Q$328:$Q$330</definedName>
     <definedName name="i_dvp_mask_f1">Stock!$J$343:$O$343</definedName>
     <definedName name="i_dvp_mask_f3">Stock!$J$355:$M$355</definedName>
@@ -105,7 +105,7 @@
     <definedName name="i_n3_matrix_len">Stock!$P$326</definedName>
     <definedName name="i_numbers_min_b1">Stock!$L$163:$V$163</definedName>
     <definedName name="i_nut_spread_n0">Stock!$J$328</definedName>
-    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$330</definedName>
+    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$329</definedName>
     <definedName name="i_nut_spread_n3">Stock!$P$328:$P$330</definedName>
     <definedName name="i_p_pos">Stock!$I$64</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$74</definedName>
@@ -7154,7 +7154,7 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
       <selection activeCell="N342" sqref="N342"/>
     </sheetView>
   </sheetViews>
@@ -22143,7 +22143,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="K322" s="126"/>
       <c r="L322" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M322" s="126"/>
       <c r="N322" s="2"/>
@@ -22581,10 +22581,10 @@
       </c>
       <c r="J330" s="54"/>
       <c r="K330" s="54"/>
-      <c r="L330" s="31">
+      <c r="L330" s="54">
         <v>-1</v>
       </c>
-      <c r="M330" s="31">
+      <c r="M330" s="54">
         <v>1.5</v>
       </c>
       <c r="N330" s="2"/>
@@ -23039,7 +23039,7 @@
         <v>264</v>
       </c>
       <c r="J341" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K341" s="31" t="b">
         <v>1</v>
@@ -23051,7 +23051,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23086,20 +23086,16 @@
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
-        <f>COUNTIF($J$341:J341,TRUE)-1</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K342" s="132">
-        <f>COUNTIF($J$341:K341,TRUE)-1</f>
         <v>0</v>
       </c>
       <c r="L342" s="132">
-        <f>COUNTIF($J$341:L341,TRUE)-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M342" s="132">
-        <f>COUNTIF($J$341:M341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
@@ -23141,7 +23137,7 @@
         <v>264</v>
       </c>
       <c r="J343" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K343" s="31" t="b">
         <v>1</v>
@@ -23353,11 +23349,11 @@
       </c>
       <c r="K348" s="31">
         <f t="shared" ref="K348" si="45">L342</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L348" s="31">
         <f>M342</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D6001E-D633-409F-9121-754C71F1DAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8D2B4-8F1B-4C40-9B7A-A91DA7F6E9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -3186,7 +3186,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -3659,6 +3659,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="8" borderId="25" xfId="3" applyNumberFormat="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -7154,8 +7157,8 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="N342" sqref="N342"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="O344" sqref="O344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -22143,7 +22146,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22267,7 +22270,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -23039,7 +23042,7 @@
         <v>264</v>
       </c>
       <c r="J341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341" s="31" t="b">
         <v>1</v>
@@ -23086,24 +23089,28 @@
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
-        <v>1</v>
+        <f>COUNTIF($J$341:J341,TRUE)-1</f>
+        <v>-1</v>
       </c>
       <c r="K342" s="132">
+        <f>COUNTIF($J$341:K341,TRUE)-1</f>
         <v>0</v>
       </c>
       <c r="L342" s="132">
+        <f>COUNTIF($J$341:L341,TRUE)-1</f>
+        <v>1</v>
+      </c>
+      <c r="M342" s="132">
+        <f>COUNTIF($J$341:M341,TRUE)-1</f>
         <v>2</v>
-      </c>
-      <c r="M342" s="132">
-        <v>3</v>
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -23137,7 +23144,7 @@
         <v>264</v>
       </c>
       <c r="J343" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343" s="31" t="b">
         <v>1</v>
@@ -23237,7 +23244,9 @@
       <c r="O345" s="166">
         <v>43784</v>
       </c>
-      <c r="P345" s="2"/>
+      <c r="P345" s="189">
+        <v>43784</v>
+      </c>
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
       <c r="S345" s="2"/>
@@ -23274,9 +23283,11 @@
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="166">
+        <v>43818</v>
+      </c>
+      <c r="P346" s="189">
         <v>43480</v>
       </c>
-      <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
       <c r="S346" s="2"/>
@@ -23349,11 +23360,11 @@
       </c>
       <c r="K348" s="31">
         <f t="shared" ref="K348" si="45">L342</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L348" s="31">
         <f>M342</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28DCB02-6784-4FEA-ADE5-E4C2F6D23E9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9009EBE-3316-4969-85AD-3B4E47FE101C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView minimized="1" xWindow="225" yWindow="240" windowWidth="28305" windowHeight="14595" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -92,9 +92,7 @@
     <definedName name="i_mul_g2c0">Stock!$P$111:$R$114</definedName>
     <definedName name="i_mul_g3c0">Stock!$P$116:$R$119</definedName>
     <definedName name="i_n_fvp_period0">Stock!$J$323</definedName>
-    <definedName name="i_n_fvps_vi1">Stock!#REF!</definedName>
     <definedName name="i_n_pos">Stock!$I$63</definedName>
-    <definedName name="i_n_prior_fvps_vi1">Stock!#REF!</definedName>
     <definedName name="i_n_r1type">Stock!$L$213</definedName>
     <definedName name="i_n0_len">Stock!$J$322</definedName>
     <definedName name="i_n0_matrix_len">Stock!$J$326</definedName>
@@ -130,7 +128,6 @@
     <definedName name="ia_ppk2g1_rlsb1">Stock!$L$214:$V$273</definedName>
     <definedName name="ia_ppk5_lsb0">Stock!$L$280:$Q$299</definedName>
     <definedName name="ia_prepost_b1">Stock!$L$159:$V$159</definedName>
-    <definedName name="ia_r1type_fi">Stock!#REF!</definedName>
     <definedName name="ia_sire_dsegroup">Stock!$L$152</definedName>
     <definedName name="ia_yatf_dsegroup_b1">Stock!$L$154:$V$154</definedName>
     <definedName name="labour_period_len" localSheetId="0">General!$I$65</definedName>
@@ -159,7 +156,7 @@
     <definedName name="ZA.WidthCol" localSheetId="2">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="2">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -589,7 +586,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -598,7 +595,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 not counted in dse stuff. They are accounted for by dam. If this changes will need to add them to code.</t>
@@ -866,7 +863,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -875,7 +872,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is a user defined date. See just below.</t>
@@ -890,7 +887,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -899,7 +896,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Typically this is prejoining.</t>
@@ -914,7 +911,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -923,7 +920,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 is the fvp being included in the model?</t>
@@ -938,7 +935,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -947,7 +944,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 FVP type is only relevant for the fvps that are included. It must start at 0 and icrement by 1 for each active fvp.</t>
@@ -962,7 +959,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -971,7 +968,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 is the fvp also a dvp?</t>
@@ -986,7 +983,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -995,7 +992,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 reproduction dvps. Used in the ppk2g1 cluster input above.</t>
@@ -1034,7 +1031,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -1043,7 +1040,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Typically this is prejoining.</t>
@@ -1058,7 +1055,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -1067,7 +1064,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 is the fvp being included in the model?</t>
@@ -1082,7 +1079,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -1091,7 +1088,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 FVP type is only relevant for the fvps that are included. It must start at 0 and icrement by 1 for each active fvp.</t>
@@ -1106,7 +1103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -1115,7 +1112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 is the fvp also a dvp?</t>
@@ -2035,7 +2032,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2232,19 +2229,6 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -4187,25 +4171,25 @@
       <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="155"/>
-    <col min="28" max="28" width="46.1796875" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="155"/>
+    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="155"/>
+    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4235,7 +4219,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4268,7 +4252,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4301,7 +4285,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4336,7 +4320,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4407,7 +4391,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4445,7 +4429,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4484,7 +4468,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4517,7 +4501,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4550,7 +4534,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4583,7 +4567,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4616,7 +4600,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4653,7 +4637,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4688,7 +4672,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4721,7 +4705,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4754,7 +4738,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4791,7 +4775,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4826,7 +4810,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4865,7 +4849,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4898,7 +4882,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -4931,7 +4915,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -4970,7 +4954,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -5003,7 +4987,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5036,7 +5020,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5071,7 +5055,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5106,7 +5090,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5153,7 +5137,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5190,7 +5174,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5227,7 +5211,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5264,7 +5248,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5301,7 +5285,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5336,7 +5320,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5369,7 +5353,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5404,7 +5388,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5437,7 +5421,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5470,7 +5454,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5503,7 +5487,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5536,7 +5520,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5571,7 +5555,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5604,7 +5588,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5641,7 +5625,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5680,7 +5664,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5713,7 +5697,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5746,7 +5730,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5779,7 +5763,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5812,7 +5796,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -5845,7 +5829,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5880,7 +5864,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -5913,7 +5897,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -5950,7 +5934,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -5985,7 +5969,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76"/>
@@ -6023,7 +6007,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -6053,7 +6037,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -6089,7 +6073,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -6119,7 +6103,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -6157,7 +6141,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -6195,7 +6179,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -6231,7 +6215,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -6271,7 +6255,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -6309,7 +6293,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -6339,7 +6323,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -6379,7 +6363,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -6409,7 +6393,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -6443,7 +6427,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -6473,7 +6457,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76"/>
@@ -6507,7 +6491,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76"/>
@@ -6537,7 +6521,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6593,7 +6577,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76"/>
@@ -6654,7 +6638,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76"/>
@@ -6701,7 +6685,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76"/>
@@ -6748,7 +6732,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6783,7 +6767,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6816,7 +6800,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6851,7 +6835,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -6884,7 +6868,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -6917,7 +6901,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -6950,7 +6934,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -6980,7 +6964,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -7010,7 +6994,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7040,7 +7024,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7070,7 +7054,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7100,7 +7084,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7130,7 +7114,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7154,27 +7138,27 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="N342" sqref="N342"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="Q341" sqref="Q341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7204,7 +7188,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7237,7 +7221,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7270,7 +7254,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7305,7 +7289,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7376,7 +7360,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7414,7 +7398,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7453,7 +7437,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7486,7 +7470,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7519,7 +7503,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7552,7 +7536,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7585,7 +7569,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7622,7 +7606,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7657,7 +7641,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7690,7 +7674,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7723,7 +7707,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7760,7 +7744,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7795,7 +7779,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7834,7 +7818,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7867,7 +7851,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -7900,7 +7884,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -7939,7 +7923,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -7972,7 +7956,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -8005,7 +7989,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8040,7 +8024,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8075,7 +8059,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8122,7 +8106,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8159,7 +8143,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8196,7 +8180,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8233,7 +8217,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8270,7 +8254,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8305,7 +8289,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8338,7 +8322,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8373,7 +8357,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8406,7 +8390,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8439,7 +8423,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8472,7 +8456,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8505,7 +8489,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8540,7 +8524,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8573,7 +8557,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8610,7 +8594,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8649,7 +8633,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8682,7 +8666,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8715,7 +8699,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8748,7 +8732,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8781,7 +8765,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8824,7 +8808,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8859,7 +8843,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -8892,7 +8876,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -8929,7 +8913,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -8964,7 +8948,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -8999,7 +8983,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9033,7 +9017,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9067,7 +9051,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9101,7 +9085,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9135,7 +9119,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9169,7 +9153,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9203,7 +9187,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9237,7 +9221,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9271,7 +9255,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9305,7 +9289,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9339,7 +9323,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9373,7 +9357,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9407,7 +9391,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9441,7 +9425,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9480,7 +9464,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9517,7 +9501,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9554,7 +9538,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9591,7 +9575,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9624,7 +9608,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9661,7 +9645,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9702,7 +9686,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9741,7 +9725,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9771,7 +9755,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9807,7 +9791,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9837,7 +9821,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -9872,7 +9856,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -9913,7 +9897,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -9954,7 +9938,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -9987,7 +9971,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10024,7 +10008,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10057,7 +10041,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10092,7 +10076,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10125,7 +10109,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10160,7 +10144,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10193,7 +10177,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10226,7 +10210,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10259,7 +10243,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10292,7 +10276,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10327,7 +10311,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10360,7 +10344,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10397,7 +10381,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10436,7 +10420,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10469,7 +10453,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10502,7 +10486,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10535,7 +10519,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10574,7 +10558,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10623,7 +10607,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10658,7 +10642,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10691,7 +10675,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10728,7 +10712,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10763,7 +10747,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10816,7 +10800,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10867,7 +10851,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -10918,7 +10902,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -10951,7 +10935,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -11002,7 +10986,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11051,7 +11035,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11100,7 +11084,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11149,7 +11133,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11182,7 +11166,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11233,7 +11217,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11282,7 +11266,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11331,7 +11315,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11380,7 +11364,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11413,7 +11397,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11464,7 +11448,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11513,7 +11497,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11562,7 +11546,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11611,7 +11595,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11644,7 +11628,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11679,7 +11663,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11720,7 +11704,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11768,7 +11752,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11814,7 +11798,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11857,7 +11841,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -11890,7 +11874,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -11937,7 +11921,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -11982,7 +11966,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12025,7 +12009,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12058,7 +12042,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12093,7 +12077,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12126,7 +12110,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12161,7 +12145,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12194,7 +12178,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12227,7 +12211,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12260,7 +12244,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12293,7 +12277,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12328,7 +12312,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12361,7 +12345,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12398,7 +12382,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12437,7 +12421,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12470,7 +12454,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12503,7 +12487,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12538,7 +12522,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12573,7 +12557,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12628,7 +12612,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12663,7 +12647,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12718,7 +12702,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12755,7 +12739,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12790,7 +12774,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12825,7 +12809,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12864,7 +12848,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -12923,7 +12907,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -12980,7 +12964,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13017,7 +13001,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13074,7 +13058,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13133,7 +13117,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13190,7 +13174,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13247,7 +13231,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13304,7 +13288,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13361,7 +13345,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13421,7 +13405,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13478,7 +13462,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13514,7 +13498,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13577,7 +13561,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13615,7 +13599,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13669,7 +13653,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13732,7 +13716,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13793,7 +13777,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13852,7 +13836,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -13911,7 +13895,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -13970,7 +13954,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14031,7 +14015,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14092,7 +14076,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14151,7 +14135,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14210,7 +14194,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14269,7 +14253,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14330,7 +14314,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14391,7 +14375,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14450,7 +14434,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14507,7 +14491,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14566,7 +14550,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14627,7 +14611,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14688,7 +14672,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14747,7 +14731,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14806,7 +14790,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14865,7 +14849,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -14928,7 +14912,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -14987,7 +14971,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15044,7 +15028,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15101,7 +15085,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15158,7 +15142,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15217,7 +15201,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15274,7 +15258,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15331,7 +15315,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15388,7 +15372,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15445,7 +15429,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15504,7 +15488,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15561,7 +15545,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15618,7 +15602,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15675,7 +15659,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15732,7 +15716,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15791,7 +15775,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15848,7 +15832,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -15905,7 +15889,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -15962,7 +15946,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16019,7 +16003,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16054,7 +16038,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16114,7 +16098,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16184,7 +16168,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16254,7 +16238,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16289,7 +16273,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16340,7 +16324,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16403,7 +16387,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16466,7 +16450,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16523,7 +16507,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16582,7 +16566,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16641,7 +16625,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16702,7 +16686,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16763,7 +16747,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16820,7 +16804,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -16877,7 +16861,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -16934,7 +16918,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -16993,7 +16977,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17052,7 +17036,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17109,7 +17093,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17166,7 +17150,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17223,7 +17207,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17282,7 +17266,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17341,7 +17325,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17398,7 +17382,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17455,7 +17439,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17512,7 +17496,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17582,7 +17566,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17649,7 +17633,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17712,7 +17696,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17775,7 +17759,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17842,7 +17826,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -17911,7 +17895,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -17978,7 +17962,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18045,7 +18029,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18112,7 +18096,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18179,7 +18163,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18248,7 +18232,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18315,7 +18299,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18382,7 +18366,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18449,7 +18433,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18516,7 +18500,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18585,7 +18569,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18652,7 +18636,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18719,7 +18703,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18786,7 +18770,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18853,7 +18837,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -18914,7 +18898,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -18971,7 +18955,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19028,7 +19012,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19085,7 +19069,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19142,7 +19126,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19211,7 +19195,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19278,7 +19262,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19345,7 +19329,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19412,7 +19396,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19479,7 +19463,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19538,7 +19522,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19600,7 +19584,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19661,7 +19645,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19721,7 +19705,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19788,7 +19772,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19853,7 +19837,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -19915,7 +19899,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -19975,7 +19959,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20032,7 +20016,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20099,7 +20083,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20132,7 +20116,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20188,7 +20172,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20241,7 +20225,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20294,7 +20278,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20329,7 +20313,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20379,7 +20363,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20437,7 +20421,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20495,7 +20479,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20548,7 +20532,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20600,7 +20584,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20655,7 +20639,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20709,7 +20693,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20763,7 +20747,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20813,7 +20797,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20863,7 +20847,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -20916,7 +20900,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -20970,7 +20954,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21024,7 +21008,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21074,7 +21058,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21124,7 +21108,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21177,7 +21161,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21229,7 +21213,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21281,7 +21265,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21330,7 +21314,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21377,7 +21361,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21430,7 +21414,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21463,7 +21447,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21496,7 +21480,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21531,7 +21515,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21564,7 +21548,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21597,7 +21581,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21630,7 +21614,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21663,7 +21647,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21698,7 +21682,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21731,7 +21715,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21768,7 +21752,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21807,7 +21791,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21840,7 +21824,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -21873,7 +21857,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -21906,7 +21890,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -21939,7 +21923,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -21982,7 +21966,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22017,7 +22001,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22050,7 +22034,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22087,7 +22071,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22122,7 +22106,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22169,7 +22153,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22208,7 +22192,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22249,7 +22233,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22291,7 +22275,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22334,7 +22318,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22377,7 +22361,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22418,7 +22402,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22466,7 +22450,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22517,7 +22501,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22562,7 +22546,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22607,7 +22591,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22652,7 +22636,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22697,7 +22681,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22742,7 +22726,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22783,7 +22767,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22824,7 +22808,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -22859,7 +22843,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -22894,7 +22878,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -22929,7 +22913,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -22974,7 +22958,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23021,7 +23005,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23073,7 +23057,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23123,7 +23107,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23172,7 +23156,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76"/>
@@ -23216,7 +23200,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23255,7 +23239,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23294,7 +23278,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23335,7 +23319,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76"/>
@@ -23376,7 +23360,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76"/>
@@ -23406,7 +23390,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23441,7 +23425,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23482,7 +23466,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23525,7 +23509,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23573,7 +23557,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76"/>
@@ -23617,7 +23601,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23662,7 +23646,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23695,7 +23679,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23730,7 +23714,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76">
@@ -23765,7 +23749,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -23800,7 +23784,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -23835,7 +23819,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -23870,7 +23854,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -23911,7 +23895,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76"/>
@@ -23965,7 +23949,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24026,7 +24010,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24079,7 +24063,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24132,7 +24116,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76"/>
@@ -24162,7 +24146,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24197,7 +24181,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24230,7 +24214,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="35"/>
       <c r="C370" s="79">
@@ -24265,7 +24249,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24298,7 +24282,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24331,7 +24315,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="69"/>
@@ -24361,7 +24345,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="69"/>
@@ -24391,7 +24375,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="69"/>
@@ -24421,7 +24405,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="69"/>
@@ -24451,7 +24435,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="69"/>
@@ -24481,7 +24465,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="69"/>
@@ -24511,7 +24495,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
@@ -24646,22 +24630,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -24693,7 +24677,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -24728,7 +24712,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -24763,7 +24747,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -24800,7 +24784,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -24877,7 +24861,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -24917,7 +24901,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -24958,7 +24942,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -24993,7 +24977,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25028,7 +25012,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25063,7 +25047,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25098,7 +25082,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25137,7 +25121,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25174,7 +25158,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25209,7 +25193,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25248,7 +25232,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25285,7 +25269,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25322,7 +25306,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25363,7 +25347,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25398,7 +25382,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25433,7 +25417,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25474,7 +25458,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -25509,7 +25493,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -25544,7 +25528,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -25581,7 +25565,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -25618,7 +25602,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -25667,7 +25651,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -25706,7 +25690,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -25745,7 +25729,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -25784,7 +25768,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -25823,7 +25807,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -25860,7 +25844,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -25897,7 +25881,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -25958,7 +25942,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26023,7 +26007,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26058,7 +26042,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26093,7 +26077,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26128,7 +26112,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26165,7 +26149,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26200,7 +26184,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26237,7 +26221,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26272,7 +26256,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26307,7 +26291,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26339,7 +26323,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26371,7 +26355,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26403,7 +26387,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26435,7 +26419,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26467,7 +26451,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -26499,7 +26483,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8D2B4-8F1B-4C40-9B7A-A91DA7F6E9BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8E2AF-A616-4EC6-BEBC-DECA72AA4C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="30150" yWindow="450" windowWidth="24675" windowHeight="12840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="i_d_pos">Stock!$I$56</definedName>
     <definedName name="i_date_assetvalue" localSheetId="0">General!$I$67</definedName>
     <definedName name="i_density_n0">Stock!$K$328</definedName>
-    <definedName name="i_density_n1">Stock!$M$328:$M$329</definedName>
+    <definedName name="i_density_n1">Stock!$M$328:$M$330</definedName>
     <definedName name="i_density_n3">Stock!$Q$328:$Q$330</definedName>
     <definedName name="i_dvp_mask_f1">Stock!$J$343:$O$343</definedName>
     <definedName name="i_dvp_mask_f3">Stock!$J$355:$M$355</definedName>
@@ -105,7 +105,7 @@
     <definedName name="i_n3_matrix_len">Stock!$P$326</definedName>
     <definedName name="i_numbers_min_b1">Stock!$L$163:$V$163</definedName>
     <definedName name="i_nut_spread_n0">Stock!$J$328</definedName>
-    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$329</definedName>
+    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$330</definedName>
     <definedName name="i_nut_spread_n3">Stock!$P$328:$P$330</definedName>
     <definedName name="i_p_pos">Stock!$I$64</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$74</definedName>
@@ -1905,18 +1905,6 @@
     <t>sheep pools</t>
   </si>
   <si>
-    <t>pool0</t>
-  </si>
-  <si>
-    <t>pool1</t>
-  </si>
-  <si>
-    <t>pool2</t>
-  </si>
-  <si>
-    <t>pool3</t>
-  </si>
-  <si>
     <t>FVP0</t>
   </si>
   <si>
@@ -2026,6 +2014,18 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>ev0</t>
+  </si>
+  <si>
+    <t>ev1</t>
+  </si>
+  <si>
+    <t>ev2</t>
+  </si>
+  <si>
+    <t>ev3</t>
   </si>
 </sst>
 </file>
@@ -4186,8 +4186,8 @@
   </sheetPr>
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -6354,16 +6354,16 @@
         <v>250</v>
       </c>
       <c r="I61" s="108" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="J61" s="108" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="K61" s="108" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="L61" s="108" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7157,8 +7157,8 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="O344" sqref="O344"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="M343" sqref="M343:N343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -16307,7 +16307,7 @@
         <v>134</v>
       </c>
       <c r="I213" s="55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J213" s="55" t="s">
         <v>116</v>
@@ -22146,7 +22146,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22231,7 +22231,7 @@
       </c>
       <c r="K322" s="126"/>
       <c r="L322" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M322" s="126"/>
       <c r="N322" s="2"/>
@@ -22270,7 +22270,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -22435,13 +22435,13 @@
       <c r="H327" s="2"/>
       <c r="I327" s="56"/>
       <c r="J327" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K327" s="2" t="s">
         <v>115</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M327" s="2" t="s">
         <v>115</v>
@@ -22449,7 +22449,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q327" s="2" t="s">
         <v>115</v>
@@ -22584,10 +22584,10 @@
       </c>
       <c r="J330" s="54"/>
       <c r="K330" s="54"/>
-      <c r="L330" s="54">
+      <c r="L330" s="31">
         <v>-1</v>
       </c>
-      <c r="M330" s="54">
+      <c r="M330" s="31">
         <v>1.5</v>
       </c>
       <c r="N330" s="2"/>
@@ -22909,7 +22909,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="4"/>
       <c r="H338" s="107" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -22946,22 +22946,22 @@
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
       <c r="J339" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L339" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
@@ -22991,26 +22991,26 @@
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
       <c r="J340" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L340" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M340" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N340" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K340" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L340" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M340" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="N340" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="O340" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
@@ -23036,10 +23036,10 @@
       <c r="F341" s="5"/>
       <c r="G341" s="4"/>
       <c r="H341" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J341" s="31" t="b">
         <v>0</v>
@@ -23054,7 +23054,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23085,7 +23085,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="4"/>
       <c r="H342" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
@@ -23106,11 +23106,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -23138,10 +23138,10 @@
       <c r="F343" s="5"/>
       <c r="G343" s="4"/>
       <c r="H343" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J343" s="31" t="b">
         <v>0</v>
@@ -23156,7 +23156,7 @@
         <v>1</v>
       </c>
       <c r="N343" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O343" s="31" t="b">
         <v>0</v>
@@ -23184,7 +23184,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="4"/>
       <c r="H344" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="31" t="b">
@@ -23231,10 +23231,10 @@
       <c r="F345" s="5"/>
       <c r="G345" s="4"/>
       <c r="H345" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
@@ -23244,9 +23244,7 @@
       <c r="O345" s="166">
         <v>43784</v>
       </c>
-      <c r="P345" s="189">
-        <v>43784</v>
-      </c>
+      <c r="P345" s="189"/>
       <c r="Q345" s="2"/>
       <c r="R345" s="2"/>
       <c r="S345" s="2"/>
@@ -23275,7 +23273,7 @@
       <c r="G346" s="4"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
@@ -23283,11 +23281,9 @@
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="166">
-        <v>43818</v>
-      </c>
-      <c r="P346" s="189">
         <v>43480</v>
       </c>
+      <c r="P346" s="189"/>
       <c r="Q346" s="2"/>
       <c r="R346" s="2"/>
       <c r="S346" s="2"/>
@@ -23317,13 +23313,13 @@
       <c r="H347" s="2"/>
       <c r="I347" s="171"/>
       <c r="J347" s="172" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K347" s="172" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L347" s="172" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -23351,7 +23347,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="4"/>
       <c r="H348" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I348" s="171"/>
       <c r="J348" s="31">
@@ -23425,7 +23421,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="4"/>
       <c r="H350" s="107" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -23462,16 +23458,16 @@
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
       <c r="J351" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -23503,22 +23499,22 @@
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
       <c r="J352" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
@@ -23544,10 +23540,10 @@
       <c r="F353" s="5"/>
       <c r="G353" s="4"/>
       <c r="H353" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J353" s="31" t="b">
         <v>0</v>
@@ -23589,7 +23585,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="4"/>
       <c r="H354" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="132">
@@ -23636,10 +23632,10 @@
       <c r="F355" s="5"/>
       <c r="G355" s="4"/>
       <c r="H355" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J355" s="31" t="b">
         <v>0</v>
@@ -23929,42 +23925,42 @@
       <c r="H363" s="2"/>
       <c r="I363" s="149"/>
       <c r="J363" s="107" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K363" s="107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L363" s="107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M363" s="107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N363" s="2"/>
       <c r="O363" s="107" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P363" s="107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q363" s="107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R363" s="107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="S363" s="2"/>
       <c r="T363" s="107" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U363" s="107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="V363" s="107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W363" s="107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="X363" s="4"/>
       <c r="Y363" s="16"/>
@@ -23986,7 +23982,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="4"/>
       <c r="H364" s="61" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I364" s="149"/>
       <c r="J364" s="162">
@@ -24047,7 +24043,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="4"/>
       <c r="H365" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I365" s="149"/>
       <c r="J365" s="149"/>
@@ -24100,7 +24096,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="4"/>
       <c r="H366" s="61" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I366" s="149"/>
       <c r="J366" s="149"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9009EBE-3316-4969-85AD-3B4E47FE101C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2AA69-6822-4750-A892-1A4AE9B63071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="225" yWindow="240" windowWidth="28305" windowHeight="14595" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -1902,18 +1902,6 @@
     <t>sheep pools</t>
   </si>
   <si>
-    <t>pool0</t>
-  </si>
-  <si>
-    <t>pool1</t>
-  </si>
-  <si>
-    <t>pool2</t>
-  </si>
-  <si>
-    <t>pool3</t>
-  </si>
-  <si>
     <t>FVP0</t>
   </si>
   <si>
@@ -2023,6 +2011,18 @@
   </si>
   <si>
     <t>R2</t>
+  </si>
+  <si>
+    <t>ev0</t>
+  </si>
+  <si>
+    <t>ev1</t>
+  </si>
+  <si>
+    <t>ev2</t>
+  </si>
+  <si>
+    <t>ev3</t>
   </si>
 </sst>
 </file>
@@ -4167,8 +4167,8 @@
   </sheetPr>
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -6335,16 +6335,16 @@
         <v>250</v>
       </c>
       <c r="I61" s="108" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="J61" s="108" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="K61" s="108" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="L61" s="108" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7138,7 +7138,7 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+    <sheetView topLeftCell="A323" workbookViewId="0">
       <selection activeCell="Q341" sqref="Q341"/>
     </sheetView>
   </sheetViews>
@@ -16288,7 +16288,7 @@
         <v>134</v>
       </c>
       <c r="I213" s="55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J213" s="55" t="s">
         <v>116</v>
@@ -22416,13 +22416,13 @@
       <c r="H327" s="2"/>
       <c r="I327" s="56"/>
       <c r="J327" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K327" s="2" t="s">
         <v>115</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M327" s="2" t="s">
         <v>115</v>
@@ -22430,7 +22430,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q327" s="2" t="s">
         <v>115</v>
@@ -22890,7 +22890,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="4"/>
       <c r="H338" s="107" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -22927,22 +22927,22 @@
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
       <c r="J339" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L339" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
@@ -22972,26 +22972,26 @@
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
       <c r="J340" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K340" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L340" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M340" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N340" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K340" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="L340" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="M340" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="N340" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="O340" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
@@ -23017,10 +23017,10 @@
       <c r="F341" s="5"/>
       <c r="G341" s="4"/>
       <c r="H341" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J341" s="31" t="b">
         <v>0</v>
@@ -23066,7 +23066,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="4"/>
       <c r="H342" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
@@ -23119,10 +23119,10 @@
       <c r="F343" s="5"/>
       <c r="G343" s="4"/>
       <c r="H343" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J343" s="31" t="b">
         <v>0</v>
@@ -23165,7 +23165,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="4"/>
       <c r="H344" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="31" t="b">
@@ -23212,10 +23212,10 @@
       <c r="F345" s="5"/>
       <c r="G345" s="4"/>
       <c r="H345" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
@@ -23254,7 +23254,7 @@
       <c r="G346" s="4"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
@@ -23294,13 +23294,13 @@
       <c r="H347" s="2"/>
       <c r="I347" s="171"/>
       <c r="J347" s="172" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K347" s="172" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L347" s="172" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -23328,7 +23328,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="4"/>
       <c r="H348" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="I348" s="171"/>
       <c r="J348" s="31">
@@ -23402,7 +23402,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="4"/>
       <c r="H350" s="107" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -23439,16 +23439,16 @@
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
       <c r="J351" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L351" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M351" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -23480,22 +23480,22 @@
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
       <c r="J352" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L352" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M352" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
@@ -23521,10 +23521,10 @@
       <c r="F353" s="5"/>
       <c r="G353" s="4"/>
       <c r="H353" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J353" s="31" t="b">
         <v>0</v>
@@ -23566,7 +23566,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="4"/>
       <c r="H354" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="132">
@@ -23613,10 +23613,10 @@
       <c r="F355" s="5"/>
       <c r="G355" s="4"/>
       <c r="H355" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J355" s="31" t="b">
         <v>0</v>
@@ -23906,42 +23906,42 @@
       <c r="H363" s="2"/>
       <c r="I363" s="149"/>
       <c r="J363" s="107" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K363" s="107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L363" s="107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M363" s="107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N363" s="2"/>
       <c r="O363" s="107" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P363" s="107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q363" s="107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="R363" s="107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="S363" s="2"/>
       <c r="T363" s="107" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U363" s="107" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="V363" s="107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W363" s="107" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="X363" s="4"/>
       <c r="Y363" s="16"/>
@@ -23963,7 +23963,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="4"/>
       <c r="H364" s="61" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I364" s="149"/>
       <c r="J364" s="162">
@@ -24024,7 +24024,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="4"/>
       <c r="H365" s="61" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="I365" s="149"/>
       <c r="J365" s="149"/>
@@ -24077,7 +24077,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="4"/>
       <c r="H366" s="61" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I366" s="149"/>
       <c r="J366" s="149"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2AA69-6822-4750-A892-1A4AE9B63071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FED8A1-3120-4969-8A8F-3CF5A6A6407E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -4167,7 +4167,7 @@
   </sheetPr>
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I61" sqref="I61:L61"/>
     </sheetView>
   </sheetViews>
@@ -7138,8 +7138,8 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="Q341" sqref="Q341"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="O341" sqref="N341:O341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -22127,7 +22127,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22251,7 +22251,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -23035,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23087,11 +23087,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2AA69-6822-4750-A892-1A4AE9B63071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3BBF6A-521B-46DF-A619-A42367226690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -4167,29 +4167,29 @@
   </sheetPr>
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I61" sqref="I61:L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="155"/>
-    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.7109375" style="155"/>
+    <col min="1" max="1" width="4.7265625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="155"/>
+    <col min="28" max="28" width="46.1796875" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4219,7 +4219,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4252,7 +4252,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4285,7 +4285,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4320,7 +4320,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4391,7 +4391,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4429,7 +4429,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4468,7 +4468,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4501,7 +4501,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4534,7 +4534,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4567,7 +4567,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4600,7 +4600,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4637,7 +4637,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4672,7 +4672,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4705,7 +4705,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4738,7 +4738,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4775,7 +4775,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4810,7 +4810,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4849,7 +4849,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4882,7 +4882,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -4915,7 +4915,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -4954,7 +4954,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -4987,7 +4987,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5020,7 +5020,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5055,7 +5055,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5090,7 +5090,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5137,7 +5137,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5174,7 +5174,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5211,7 +5211,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5248,7 +5248,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5285,7 +5285,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5320,7 +5320,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5353,7 +5353,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5388,7 +5388,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5421,7 +5421,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5454,7 +5454,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5487,7 +5487,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5520,7 +5520,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5555,7 +5555,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5588,7 +5588,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5625,7 +5625,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5664,7 +5664,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5697,7 +5697,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5730,7 +5730,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5763,7 +5763,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5796,7 +5796,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -5829,7 +5829,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5864,7 +5864,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -5897,7 +5897,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -5934,7 +5934,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -5969,7 +5969,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76"/>
@@ -6007,7 +6007,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -6037,7 +6037,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -6073,7 +6073,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -6103,7 +6103,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -6141,7 +6141,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -6179,7 +6179,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -6215,7 +6215,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -6255,7 +6255,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -6293,7 +6293,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -6323,7 +6323,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -6363,7 +6363,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -6393,7 +6393,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -6427,7 +6427,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -6457,7 +6457,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76"/>
@@ -6491,7 +6491,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76"/>
@@ -6521,7 +6521,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6577,7 +6577,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76"/>
@@ -6638,7 +6638,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76"/>
@@ -6685,7 +6685,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76"/>
@@ -6732,7 +6732,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6767,7 +6767,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6800,7 +6800,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6835,7 +6835,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -6868,7 +6868,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -6901,7 +6901,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -6934,7 +6934,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -6964,7 +6964,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -6994,7 +6994,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7024,7 +7024,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7054,7 +7054,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7084,7 +7084,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7114,7 +7114,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7138,27 +7138,27 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="Q341" sqref="Q341"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="O341" sqref="N341:O341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7188,7 +7188,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7221,7 +7221,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7254,7 +7254,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7289,7 +7289,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7360,7 +7360,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7398,7 +7398,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7437,7 +7437,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7470,7 +7470,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7503,7 +7503,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7536,7 +7536,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7569,7 +7569,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7606,7 +7606,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7641,7 +7641,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7674,7 +7674,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7707,7 +7707,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7744,7 +7744,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7779,7 +7779,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7818,7 +7818,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7851,7 +7851,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -7884,7 +7884,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -7923,7 +7923,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -7956,7 +7956,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -7989,7 +7989,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8024,7 +8024,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8059,7 +8059,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8106,7 +8106,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8143,7 +8143,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8180,7 +8180,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8217,7 +8217,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8254,7 +8254,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8289,7 +8289,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8322,7 +8322,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8357,7 +8357,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8390,7 +8390,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8423,7 +8423,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8456,7 +8456,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8489,7 +8489,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8524,7 +8524,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8557,7 +8557,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8594,7 +8594,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8633,7 +8633,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8666,7 +8666,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8699,7 +8699,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8732,7 +8732,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8765,7 +8765,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8808,7 +8808,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8843,7 +8843,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -8876,7 +8876,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -8913,7 +8913,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -8948,7 +8948,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -8983,7 +8983,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9017,7 +9017,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9051,7 +9051,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9085,7 +9085,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9119,7 +9119,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9153,7 +9153,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9187,7 +9187,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9221,7 +9221,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9255,7 +9255,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9289,7 +9289,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9323,7 +9323,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9357,7 +9357,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9391,7 +9391,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9425,7 +9425,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9464,7 +9464,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9501,7 +9501,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9538,7 +9538,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9575,7 +9575,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9608,7 +9608,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9645,7 +9645,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9686,7 +9686,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9725,7 +9725,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9755,7 +9755,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9791,7 +9791,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9821,7 +9821,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -9856,7 +9856,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -9897,7 +9897,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -9938,7 +9938,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -9971,7 +9971,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10008,7 +10008,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10041,7 +10041,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10076,7 +10076,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10109,7 +10109,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10144,7 +10144,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10177,7 +10177,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10210,7 +10210,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10243,7 +10243,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10276,7 +10276,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10311,7 +10311,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10344,7 +10344,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10381,7 +10381,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10420,7 +10420,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10453,7 +10453,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10486,7 +10486,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10519,7 +10519,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10558,7 +10558,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10607,7 +10607,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10642,7 +10642,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10675,7 +10675,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10712,7 +10712,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10747,7 +10747,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10800,7 +10800,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10851,7 +10851,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -10902,7 +10902,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -10935,7 +10935,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -10986,7 +10986,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11035,7 +11035,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11084,7 +11084,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11133,7 +11133,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11166,7 +11166,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11217,7 +11217,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11266,7 +11266,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11315,7 +11315,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11364,7 +11364,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11397,7 +11397,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11448,7 +11448,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11497,7 +11497,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11546,7 +11546,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11595,7 +11595,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11628,7 +11628,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11663,7 +11663,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11704,7 +11704,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11752,7 +11752,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11798,7 +11798,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11841,7 +11841,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -11874,7 +11874,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -11921,7 +11921,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -11966,7 +11966,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12009,7 +12009,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12042,7 +12042,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12077,7 +12077,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12110,7 +12110,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12145,7 +12145,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12178,7 +12178,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12211,7 +12211,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12244,7 +12244,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12277,7 +12277,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12312,7 +12312,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12345,7 +12345,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12382,7 +12382,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12421,7 +12421,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12454,7 +12454,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12487,7 +12487,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12522,7 +12522,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12557,7 +12557,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12612,7 +12612,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12647,7 +12647,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12702,7 +12702,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12739,7 +12739,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12774,7 +12774,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12809,7 +12809,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12848,7 +12848,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -12907,7 +12907,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -12964,7 +12964,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13001,7 +13001,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13058,7 +13058,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13117,7 +13117,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13174,7 +13174,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13231,7 +13231,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13288,7 +13288,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13345,7 +13345,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13405,7 +13405,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13462,7 +13462,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13498,7 +13498,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13561,7 +13561,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13599,7 +13599,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13653,7 +13653,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13716,7 +13716,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13777,7 +13777,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13836,7 +13836,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -13895,7 +13895,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -13954,7 +13954,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14015,7 +14015,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14076,7 +14076,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14135,7 +14135,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14194,7 +14194,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14253,7 +14253,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14314,7 +14314,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14375,7 +14375,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14434,7 +14434,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14491,7 +14491,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14550,7 +14550,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14611,7 +14611,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14672,7 +14672,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14731,7 +14731,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14790,7 +14790,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14849,7 +14849,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -14912,7 +14912,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -14971,7 +14971,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15028,7 +15028,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15085,7 +15085,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15142,7 +15142,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15201,7 +15201,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15258,7 +15258,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15315,7 +15315,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15372,7 +15372,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15429,7 +15429,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15488,7 +15488,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15545,7 +15545,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15602,7 +15602,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15659,7 +15659,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15716,7 +15716,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15775,7 +15775,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15832,7 +15832,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -15889,7 +15889,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -15946,7 +15946,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16003,7 +16003,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16038,7 +16038,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16098,7 +16098,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16168,7 +16168,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16238,7 +16238,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16273,7 +16273,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16324,7 +16324,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16387,7 +16387,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16450,7 +16450,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16507,7 +16507,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16566,7 +16566,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16625,7 +16625,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16686,7 +16686,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16747,7 +16747,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16804,7 +16804,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -16861,7 +16861,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -16918,7 +16918,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -16977,7 +16977,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17036,7 +17036,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17093,7 +17093,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17150,7 +17150,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17207,7 +17207,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17266,7 +17266,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17325,7 +17325,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17382,7 +17382,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17439,7 +17439,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17496,7 +17496,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17566,7 +17566,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17633,7 +17633,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17696,7 +17696,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17759,7 +17759,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17826,7 +17826,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -17895,7 +17895,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -17962,7 +17962,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18029,7 +18029,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18096,7 +18096,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18163,7 +18163,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18232,7 +18232,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18299,7 +18299,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18366,7 +18366,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18433,7 +18433,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18500,7 +18500,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18569,7 +18569,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18636,7 +18636,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18703,7 +18703,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18770,7 +18770,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18837,7 +18837,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -18898,7 +18898,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -18955,7 +18955,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19012,7 +19012,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19069,7 +19069,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19126,7 +19126,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19195,7 +19195,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19262,7 +19262,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19329,7 +19329,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19396,7 +19396,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19463,7 +19463,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19522,7 +19522,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19584,7 +19584,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19645,7 +19645,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19705,7 +19705,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19772,7 +19772,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19837,7 +19837,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -19899,7 +19899,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -19959,7 +19959,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20016,7 +20016,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20083,7 +20083,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20116,7 +20116,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20172,7 +20172,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20225,7 +20225,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20278,7 +20278,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20313,7 +20313,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20363,7 +20363,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20421,7 +20421,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20479,7 +20479,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20532,7 +20532,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20584,7 +20584,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20639,7 +20639,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20693,7 +20693,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20747,7 +20747,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20797,7 +20797,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20847,7 +20847,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -20900,7 +20900,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -20954,7 +20954,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21008,7 +21008,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21058,7 +21058,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21108,7 +21108,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21161,7 +21161,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21213,7 +21213,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21265,7 +21265,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21314,7 +21314,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21361,7 +21361,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21414,7 +21414,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21447,7 +21447,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21480,7 +21480,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21515,7 +21515,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21548,7 +21548,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21581,7 +21581,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21614,7 +21614,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21647,7 +21647,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21682,7 +21682,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21715,7 +21715,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21752,7 +21752,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21791,7 +21791,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21824,7 +21824,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -21857,7 +21857,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -21890,7 +21890,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -21923,7 +21923,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -21966,7 +21966,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22001,7 +22001,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22034,7 +22034,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22071,7 +22071,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22106,7 +22106,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22127,7 +22127,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22153,7 +22153,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22192,7 +22192,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22233,7 +22233,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22251,7 +22251,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -22275,7 +22275,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22318,7 +22318,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22361,7 +22361,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22402,7 +22402,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22450,7 +22450,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22501,7 +22501,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22546,7 +22546,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22591,7 +22591,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22636,7 +22636,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22681,7 +22681,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22726,7 +22726,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22767,7 +22767,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22808,7 +22808,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -22843,7 +22843,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -22878,7 +22878,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -22913,7 +22913,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -22958,7 +22958,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23005,7 +23005,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23035,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23057,7 +23057,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23087,11 +23087,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -23107,7 +23107,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23156,7 +23156,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76"/>
@@ -23200,7 +23200,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23239,7 +23239,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23278,7 +23278,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23319,7 +23319,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76"/>
@@ -23360,7 +23360,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76"/>
@@ -23390,7 +23390,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23425,7 +23425,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23466,7 +23466,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23509,7 +23509,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23557,7 +23557,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76"/>
@@ -23601,7 +23601,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23646,7 +23646,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23679,7 +23679,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23714,7 +23714,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76">
@@ -23749,7 +23749,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -23784,7 +23784,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -23819,7 +23819,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -23854,7 +23854,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -23895,7 +23895,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76"/>
@@ -23949,7 +23949,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24010,7 +24010,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24063,7 +24063,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24116,7 +24116,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76"/>
@@ -24146,7 +24146,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24181,7 +24181,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24214,7 +24214,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="35"/>
       <c r="C370" s="79">
@@ -24249,7 +24249,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24282,7 +24282,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24315,7 +24315,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="69"/>
@@ -24345,7 +24345,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="69"/>
@@ -24375,7 +24375,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="69"/>
@@ -24405,7 +24405,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="69"/>
@@ -24435,7 +24435,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="69"/>
@@ -24465,7 +24465,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="69"/>
@@ -24495,7 +24495,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
@@ -24630,22 +24630,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="26" max="26" width="1.7265625" customWidth="1"/>
+    <col min="27" max="28" width="4.7265625" customWidth="1"/>
+    <col min="30" max="30" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -24677,7 +24677,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -24712,7 +24712,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -24747,7 +24747,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -24784,7 +24784,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -24861,7 +24861,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -24901,7 +24901,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -24942,7 +24942,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -24977,7 +24977,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25012,7 +25012,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25047,7 +25047,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25082,7 +25082,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25121,7 +25121,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25158,7 +25158,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25193,7 +25193,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25232,7 +25232,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25269,7 +25269,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25306,7 +25306,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25347,7 +25347,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25382,7 +25382,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25417,7 +25417,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25458,7 +25458,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -25493,7 +25493,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -25528,7 +25528,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -25565,7 +25565,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -25602,7 +25602,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -25651,7 +25651,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -25690,7 +25690,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -25729,7 +25729,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -25768,7 +25768,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -25807,7 +25807,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -25844,7 +25844,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -25881,7 +25881,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -25942,7 +25942,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26007,7 +26007,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26042,7 +26042,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26077,7 +26077,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26112,7 +26112,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26149,7 +26149,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26184,7 +26184,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26221,7 +26221,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26256,7 +26256,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26291,7 +26291,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26323,7 +26323,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26355,7 +26355,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26387,7 +26387,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26419,7 +26419,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26451,7 +26451,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -26483,7 +26483,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3BBF6A-521B-46DF-A619-A42367226690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371F758-829D-4EDF-B2BF-E47173A73BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -899,7 +899,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Typically this is prejoining.</t>
+fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Currently this must be prejoining (lw_dist doesn’t handle them to be different).</t>
         </r>
       </text>
     </comment>
@@ -7139,7 +7139,7 @@
   <dimension ref="A1:AE379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="O341" sqref="N341:O341"/>
+      <selection activeCell="R349" sqref="R349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -22127,7 +22127,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22251,7 +22251,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -23035,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23087,11 +23087,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michael\Work\AFO - local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371F758-829D-4EDF-B2BF-E47173A73BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA57DD8-866E-4F62-8D78-43FE5C34F4FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -899,7 +899,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. Currently this must be prejoining (lw_dist doesn’t handle them to be different).</t>
+fvp type when LW is condensed back to the starting number (eg 3). This fvp must also be a dvp. ATM this must be equal to prejoining (if you want to change this lw_distribution will need modification)</t>
         </r>
       </text>
     </comment>
@@ -4171,25 +4171,25 @@
       <selection activeCell="I61" sqref="I61:L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="155"/>
-    <col min="28" max="28" width="46.1796875" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="155"/>
+    <col min="1" max="1" width="4.6640625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.6640625" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.6640625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.33203125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.88671875" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.6640625" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.6640625" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="155"/>
+    <col min="28" max="28" width="46.109375" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.6640625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4219,7 +4219,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4252,7 +4252,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4285,7 +4285,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4320,7 +4320,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4391,7 +4391,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4429,7 +4429,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4468,7 +4468,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4501,7 +4501,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4534,7 +4534,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4567,7 +4567,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4600,7 +4600,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4637,7 +4637,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4672,7 +4672,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4705,7 +4705,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4738,7 +4738,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4775,7 +4775,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4810,7 +4810,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4849,7 +4849,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4882,7 +4882,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -4915,7 +4915,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -4954,7 +4954,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -4987,7 +4987,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5020,7 +5020,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5055,7 +5055,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5090,7 +5090,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5137,7 +5137,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5174,7 +5174,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5211,7 +5211,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5248,7 +5248,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5285,7 +5285,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5320,7 +5320,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5353,7 +5353,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5388,7 +5388,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5421,7 +5421,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5454,7 +5454,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5487,7 +5487,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5520,7 +5520,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5555,7 +5555,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5588,7 +5588,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5625,7 +5625,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5664,7 +5664,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5697,7 +5697,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5730,7 +5730,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5763,7 +5763,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5796,7 +5796,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -5829,7 +5829,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5864,7 +5864,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -5897,7 +5897,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -5934,7 +5934,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -5969,7 +5969,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76"/>
@@ -6007,7 +6007,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -6037,7 +6037,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -6073,7 +6073,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -6103,7 +6103,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -6141,7 +6141,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -6179,7 +6179,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -6215,7 +6215,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -6255,7 +6255,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -6293,7 +6293,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -6323,7 +6323,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -6363,7 +6363,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -6393,7 +6393,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -6427,7 +6427,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -6457,7 +6457,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76"/>
@@ -6491,7 +6491,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76"/>
@@ -6521,7 +6521,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6577,7 +6577,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76"/>
@@ -6638,7 +6638,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76"/>
@@ -6685,7 +6685,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76"/>
@@ -6732,7 +6732,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6767,7 +6767,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6800,7 +6800,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6835,7 +6835,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -6868,7 +6868,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -6901,7 +6901,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -6934,7 +6934,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -6964,7 +6964,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -6994,7 +6994,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7024,7 +7024,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7054,7 +7054,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7084,7 +7084,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7114,7 +7114,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7138,27 +7138,27 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="R349" sqref="R349"/>
+    <sheetView tabSelected="1" topLeftCell="H322" workbookViewId="0">
+      <selection activeCell="Q340" sqref="Q340"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="23" width="10.88671875" customWidth="1"/>
+    <col min="24" max="24" width="1.6640625" customWidth="1"/>
+    <col min="25" max="26" width="4.6640625" customWidth="1"/>
+    <col min="28" max="28" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7188,7 +7188,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7221,7 +7221,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7254,7 +7254,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7289,7 +7289,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7360,7 +7360,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7398,7 +7398,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7437,7 +7437,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7470,7 +7470,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7503,7 +7503,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7536,7 +7536,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7569,7 +7569,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7606,7 +7606,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7641,7 +7641,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7674,7 +7674,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7707,7 +7707,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7744,7 +7744,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7779,7 +7779,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7818,7 +7818,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7851,7 +7851,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -7884,7 +7884,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -7923,7 +7923,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -7956,7 +7956,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -7989,7 +7989,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8024,7 +8024,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8059,7 +8059,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8106,7 +8106,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8143,7 +8143,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8180,7 +8180,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8217,7 +8217,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8254,7 +8254,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8289,7 +8289,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8322,7 +8322,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8357,7 +8357,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8390,7 +8390,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8423,7 +8423,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8456,7 +8456,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8489,7 +8489,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8524,7 +8524,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8557,7 +8557,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8594,7 +8594,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8633,7 +8633,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8666,7 +8666,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8699,7 +8699,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8732,7 +8732,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8765,7 +8765,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8808,7 +8808,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8843,7 +8843,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -8876,7 +8876,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -8913,7 +8913,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -8948,7 +8948,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -8983,7 +8983,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9017,7 +9017,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9051,7 +9051,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9085,7 +9085,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9119,7 +9119,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9153,7 +9153,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9187,7 +9187,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9221,7 +9221,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9255,7 +9255,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9289,7 +9289,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9323,7 +9323,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9357,7 +9357,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9391,7 +9391,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9425,7 +9425,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9464,7 +9464,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9501,7 +9501,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9538,7 +9538,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9575,7 +9575,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9608,7 +9608,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9645,7 +9645,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9686,7 +9686,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9725,7 +9725,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9755,7 +9755,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9791,7 +9791,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9821,7 +9821,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -9856,7 +9856,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -9897,7 +9897,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -9938,7 +9938,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -9971,7 +9971,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10008,7 +10008,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10041,7 +10041,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10076,7 +10076,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10109,7 +10109,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10144,7 +10144,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10177,7 +10177,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10210,7 +10210,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10243,7 +10243,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10276,7 +10276,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10311,7 +10311,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10344,7 +10344,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10381,7 +10381,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10420,7 +10420,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10453,7 +10453,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10486,7 +10486,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10519,7 +10519,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10558,7 +10558,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10607,7 +10607,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10642,7 +10642,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10675,7 +10675,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10712,7 +10712,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10747,7 +10747,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10800,7 +10800,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10851,7 +10851,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -10902,7 +10902,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -10935,7 +10935,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -10986,7 +10986,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11035,7 +11035,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11084,7 +11084,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11133,7 +11133,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11166,7 +11166,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11217,7 +11217,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11266,7 +11266,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11315,7 +11315,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11364,7 +11364,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11397,7 +11397,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11448,7 +11448,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11497,7 +11497,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11546,7 +11546,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11595,7 +11595,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11628,7 +11628,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11663,7 +11663,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11704,7 +11704,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11752,7 +11752,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11798,7 +11798,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11841,7 +11841,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -11874,7 +11874,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -11921,7 +11921,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -11966,7 +11966,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12009,7 +12009,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12042,7 +12042,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12077,7 +12077,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12110,7 +12110,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12145,7 +12145,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12178,7 +12178,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12211,7 +12211,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12244,7 +12244,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12277,7 +12277,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12312,7 +12312,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12345,7 +12345,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12382,7 +12382,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12421,7 +12421,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12454,7 +12454,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12487,7 +12487,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12522,7 +12522,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12557,7 +12557,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12612,7 +12612,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12647,7 +12647,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12702,7 +12702,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12739,7 +12739,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12774,7 +12774,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12809,7 +12809,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12848,7 +12848,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -12907,7 +12907,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -12964,7 +12964,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13001,7 +13001,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13058,7 +13058,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13117,7 +13117,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13174,7 +13174,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13231,7 +13231,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13288,7 +13288,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13345,7 +13345,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13405,7 +13405,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13462,7 +13462,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13498,7 +13498,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13561,7 +13561,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13599,7 +13599,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13653,7 +13653,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13716,7 +13716,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13777,7 +13777,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13836,7 +13836,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -13895,7 +13895,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -13954,7 +13954,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14015,7 +14015,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14076,7 +14076,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14135,7 +14135,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14194,7 +14194,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14253,7 +14253,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14314,7 +14314,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14375,7 +14375,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14434,7 +14434,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14491,7 +14491,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14550,7 +14550,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14611,7 +14611,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14672,7 +14672,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14731,7 +14731,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14790,7 +14790,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14849,7 +14849,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -14912,7 +14912,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -14971,7 +14971,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15028,7 +15028,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15085,7 +15085,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15142,7 +15142,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15201,7 +15201,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15258,7 +15258,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15315,7 +15315,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15372,7 +15372,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15429,7 +15429,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15488,7 +15488,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15545,7 +15545,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15602,7 +15602,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15659,7 +15659,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15716,7 +15716,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15775,7 +15775,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15832,7 +15832,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -15889,7 +15889,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -15946,7 +15946,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16003,7 +16003,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16038,7 +16038,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16098,7 +16098,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16168,7 +16168,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16238,7 +16238,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16273,7 +16273,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16324,7 +16324,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16387,7 +16387,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16450,7 +16450,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16507,7 +16507,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16566,7 +16566,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16625,7 +16625,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16686,7 +16686,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16747,7 +16747,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16804,7 +16804,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -16861,7 +16861,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -16918,7 +16918,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -16977,7 +16977,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17036,7 +17036,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17093,7 +17093,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17150,7 +17150,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17207,7 +17207,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17266,7 +17266,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17325,7 +17325,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17382,7 +17382,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17439,7 +17439,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17496,7 +17496,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17566,7 +17566,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17633,7 +17633,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17696,7 +17696,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17759,7 +17759,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17826,7 +17826,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -17895,7 +17895,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -17962,7 +17962,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18029,7 +18029,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18096,7 +18096,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18163,7 +18163,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18232,7 +18232,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18299,7 +18299,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18366,7 +18366,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18433,7 +18433,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18500,7 +18500,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18569,7 +18569,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18636,7 +18636,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18703,7 +18703,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18770,7 +18770,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18837,7 +18837,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -18898,7 +18898,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -18955,7 +18955,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19012,7 +19012,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19069,7 +19069,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19126,7 +19126,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19195,7 +19195,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19262,7 +19262,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19329,7 +19329,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19396,7 +19396,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19463,7 +19463,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19522,7 +19522,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19584,7 +19584,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19645,7 +19645,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19705,7 +19705,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19772,7 +19772,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19837,7 +19837,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -19899,7 +19899,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -19959,7 +19959,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20016,7 +20016,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20083,7 +20083,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20116,7 +20116,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20172,7 +20172,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20225,7 +20225,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20278,7 +20278,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20313,7 +20313,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20363,7 +20363,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20421,7 +20421,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20479,7 +20479,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20532,7 +20532,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20584,7 +20584,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20639,7 +20639,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20693,7 +20693,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20747,7 +20747,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20797,7 +20797,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20847,7 +20847,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -20900,7 +20900,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -20954,7 +20954,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21008,7 +21008,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21058,7 +21058,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21108,7 +21108,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21161,7 +21161,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21213,7 +21213,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21265,7 +21265,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21314,7 +21314,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21361,7 +21361,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21414,7 +21414,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21447,7 +21447,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21480,7 +21480,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21515,7 +21515,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21548,7 +21548,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21581,7 +21581,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21614,7 +21614,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21647,7 +21647,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21682,7 +21682,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21715,7 +21715,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21752,7 +21752,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21791,7 +21791,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21824,7 +21824,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -21857,7 +21857,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -21890,7 +21890,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -21923,7 +21923,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -21966,7 +21966,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22001,7 +22001,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22034,7 +22034,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22071,7 +22071,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22106,7 +22106,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22127,7 +22127,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22153,7 +22153,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22192,7 +22192,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22233,7 +22233,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22251,7 +22251,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -22275,7 +22275,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22318,7 +22318,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22361,7 +22361,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22402,7 +22402,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22450,7 +22450,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22501,7 +22501,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22546,7 +22546,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22591,7 +22591,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22636,7 +22636,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22681,7 +22681,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22726,7 +22726,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22767,7 +22767,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22808,7 +22808,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -22843,7 +22843,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -22878,7 +22878,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -22913,7 +22913,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -22958,7 +22958,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23005,7 +23005,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23035,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O341" s="31" t="b">
         <v>0</v>
@@ -23057,7 +23057,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23087,11 +23087,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -23107,7 +23107,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23156,7 +23156,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76"/>
@@ -23200,7 +23200,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23239,7 +23239,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23278,7 +23278,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23319,7 +23319,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76"/>
@@ -23360,7 +23360,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76"/>
@@ -23390,7 +23390,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23425,7 +23425,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23466,7 +23466,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23509,7 +23509,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23557,7 +23557,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76"/>
@@ -23601,7 +23601,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23646,7 +23646,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23679,7 +23679,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23714,7 +23714,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76">
@@ -23749,7 +23749,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -23784,7 +23784,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -23819,7 +23819,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -23854,7 +23854,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -23895,7 +23895,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76"/>
@@ -23949,7 +23949,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24010,7 +24010,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24063,7 +24063,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24116,7 +24116,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76"/>
@@ -24146,7 +24146,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24181,7 +24181,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24214,7 +24214,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="35"/>
       <c r="C370" s="79">
@@ -24249,7 +24249,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24282,7 +24282,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24315,7 +24315,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="69"/>
@@ -24345,7 +24345,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="69"/>
@@ -24375,7 +24375,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="69"/>
@@ -24405,7 +24405,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="69"/>
@@ -24435,7 +24435,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="69"/>
@@ -24465,7 +24465,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="69"/>
@@ -24495,7 +24495,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
       <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
@@ -24630,22 +24630,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="26" max="26" width="1.6640625" customWidth="1"/>
+    <col min="27" max="28" width="4.6640625" customWidth="1"/>
+    <col min="30" max="30" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -24677,7 +24677,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -24712,7 +24712,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -24747,7 +24747,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -24784,7 +24784,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -24861,7 +24861,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -24901,7 +24901,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -24942,7 +24942,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -24977,7 +24977,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25012,7 +25012,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25047,7 +25047,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25082,7 +25082,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="27.6" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25121,7 +25121,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25158,7 +25158,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25193,7 +25193,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25232,7 +25232,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25269,7 +25269,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25306,7 +25306,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25347,7 +25347,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25382,7 +25382,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25417,7 +25417,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25458,7 +25458,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -25493,7 +25493,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -25528,7 +25528,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -25565,7 +25565,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -25602,7 +25602,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -25651,7 +25651,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -25690,7 +25690,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -25729,7 +25729,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -25768,7 +25768,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -25807,7 +25807,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -25844,7 +25844,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -25881,7 +25881,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -25942,7 +25942,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26007,7 +26007,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26042,7 +26042,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26077,7 +26077,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26112,7 +26112,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26149,7 +26149,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26184,7 +26184,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26221,7 +26221,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26256,7 +26256,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26291,7 +26291,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26323,7 +26323,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26355,7 +26355,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26387,7 +26387,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26419,7 +26419,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26451,7 +26451,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -26483,7 +26483,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Michael\Work\AFO - local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA57DD8-866E-4F62-8D78-43FE5C34F4FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD37AC-C3AC-4F1D-86EF-B56978FEE413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="495" yWindow="1170" windowWidth="28305" windowHeight="14565" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -156,18 +156,10 @@
     <definedName name="ZA.WidthCol" localSheetId="2">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="2">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1124,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="292">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -3170,7 +3162,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -3643,6 +3635,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="11" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4167,29 +4162,29 @@
   </sheetPr>
   <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61:L61"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.6640625" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.6640625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.33203125" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.88671875" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.6640625" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.6640625" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" style="155"/>
-    <col min="28" max="28" width="46.109375" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.6640625" style="155"/>
+    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="155"/>
+    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4219,7 +4214,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4252,7 +4247,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4285,7 +4280,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4320,7 +4315,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4391,7 +4386,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4429,7 +4424,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4468,7 +4463,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4501,7 +4496,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4534,7 +4529,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4567,7 +4562,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4600,7 +4595,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4637,7 +4632,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4672,7 +4667,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4705,7 +4700,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4738,7 +4733,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4775,7 +4770,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4810,7 +4805,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4849,7 +4844,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4882,7 +4877,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -4915,7 +4910,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -4954,7 +4949,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -4987,7 +4982,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5020,7 +5015,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5055,7 +5050,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5090,7 +5085,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5137,7 +5132,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5174,7 +5169,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5211,7 +5206,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5248,7 +5243,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5285,7 +5280,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5320,7 +5315,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5353,7 +5348,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5388,7 +5383,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5421,7 +5416,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5454,7 +5449,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5487,7 +5482,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5520,7 +5515,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5555,12 +5550,12 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
         <f>INT(MAX($C$50:$C$71))+1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -5588,7 +5583,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5625,7 +5620,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5664,7 +5659,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5697,12 +5692,12 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
-        <f>INT($C$40)+2</f>
-        <v>3</v>
+        <f>INT($C$40)+3</f>
+        <v>4</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="5"/>
@@ -5730,12 +5725,12 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
-        <f>INT($C$40)+2</f>
-        <v>3</v>
+        <f t="shared" ref="C44:C46" si="0">INT($C$40)+3</f>
+        <v>4</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="5"/>
@@ -5763,12 +5758,12 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
-        <f>INT($C$40)+2</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="5"/>
@@ -5796,12 +5791,12 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
-        <f>INT($C$40)+2</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="5"/>
@@ -5829,7 +5824,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5864,12 +5859,12 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
         <f>$C$39</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
@@ -5897,14 +5892,14 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="76">
         <f>$C$39</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>45</v>
@@ -5934,7 +5929,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -5969,10 +5964,13 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
-      <c r="C51" s="76"/>
+      <c r="C51" s="76">
+        <f t="shared" ref="C51:C70" si="1">INT($C$40)+2</f>
+        <v>3</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -6007,10 +6005,13 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
-      <c r="C52" s="76"/>
+      <c r="C52" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -6037,10 +6038,13 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
-      <c r="C53" s="76"/>
+      <c r="C53" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -6073,10 +6077,13 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
-      <c r="C54" s="76"/>
+      <c r="C54" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -6103,10 +6110,13 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
-      <c r="C55" s="76"/>
+      <c r="C55" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -6141,10 +6151,13 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
-      <c r="C56" s="76"/>
+      <c r="C56" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -6179,10 +6192,13 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
-      <c r="C57" s="76"/>
+      <c r="C57" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -6215,10 +6231,13 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
-      <c r="C58" s="76"/>
+      <c r="C58" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -6255,10 +6274,13 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
-      <c r="C59" s="76"/>
+      <c r="C59" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -6293,10 +6315,13 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
-      <c r="C60" s="76"/>
+      <c r="C60" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -6323,10 +6348,13 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
-      <c r="C61" s="76"/>
+      <c r="C61" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -6363,10 +6391,13 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
-      <c r="C62" s="76"/>
+      <c r="C62" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -6393,10 +6424,13 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
-      <c r="C63" s="76"/>
+      <c r="C63" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -6427,10 +6461,13 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
-      <c r="C64" s="76"/>
+      <c r="C64" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -6457,10 +6494,13 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
-      <c r="C65" s="76"/>
+      <c r="C65" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -6491,10 +6531,13 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
-      <c r="C66" s="76"/>
+      <c r="C66" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -6521,12 +6564,12 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
-        <f>INT($C$40)+3</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
@@ -6577,10 +6620,13 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
-      <c r="C68" s="76"/>
+      <c r="C68" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6638,10 +6684,13 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
-      <c r="C69" s="76"/>
+      <c r="C69" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -6685,10 +6734,13 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
-      <c r="C70" s="76"/>
+      <c r="C70" s="76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -6732,12 +6784,12 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
-        <f>INT($C$40)+3.005</f>
-        <v>4.0049999999999999</v>
+        <f>INT($C$40)+2.005</f>
+        <v>3.0049999999999999</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -6767,7 +6819,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6800,7 +6852,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6835,7 +6887,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -6868,7 +6920,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -6901,7 +6953,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -6934,7 +6986,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -6964,7 +7016,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -6994,7 +7046,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7024,7 +7076,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7054,7 +7106,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7084,7 +7136,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7114,7 +7166,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7138,27 +7190,27 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H322" workbookViewId="0">
-      <selection activeCell="Q340" sqref="Q340"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="O345" sqref="O345:O346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="6" width="9.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="23" width="10.88671875" customWidth="1"/>
-    <col min="24" max="24" width="1.6640625" customWidth="1"/>
-    <col min="25" max="26" width="4.6640625" customWidth="1"/>
-    <col min="28" max="28" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7188,7 +7240,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7221,7 +7273,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7254,7 +7306,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7289,7 +7341,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7360,7 +7412,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7398,7 +7450,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7437,7 +7489,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7470,7 +7522,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7503,7 +7555,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7536,7 +7588,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7569,7 +7621,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7606,7 +7658,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7641,7 +7693,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7674,7 +7726,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7707,7 +7759,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7744,7 +7796,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7779,7 +7831,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7818,7 +7870,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7851,7 +7903,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -7884,7 +7936,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -7923,7 +7975,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -7956,7 +8008,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -7989,7 +8041,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8024,7 +8076,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8059,7 +8111,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8106,7 +8158,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8143,7 +8195,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8180,7 +8232,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8217,7 +8269,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8254,7 +8306,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8289,7 +8341,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8322,7 +8374,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8357,7 +8409,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8390,7 +8442,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8423,7 +8475,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8456,7 +8508,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8489,7 +8541,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8524,7 +8576,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8557,7 +8609,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8594,7 +8646,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8633,7 +8685,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8666,7 +8718,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8699,7 +8751,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8732,7 +8784,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8765,7 +8817,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8808,7 +8860,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8843,7 +8895,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -8876,7 +8928,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -8913,7 +8965,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -8948,7 +9000,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -8983,7 +9035,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9017,7 +9069,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9051,7 +9103,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9085,7 +9137,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9119,7 +9171,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9153,7 +9205,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9187,7 +9239,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9221,7 +9273,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9255,7 +9307,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9289,7 +9341,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9323,7 +9375,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9357,7 +9409,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9391,7 +9443,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9425,7 +9477,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9464,7 +9516,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9501,7 +9553,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9538,7 +9590,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9575,7 +9627,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9608,7 +9660,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9645,7 +9697,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9686,7 +9738,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9725,7 +9777,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9755,7 +9807,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9791,7 +9843,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9821,7 +9873,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -9856,7 +9908,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -9897,7 +9949,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -9938,7 +9990,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -9971,7 +10023,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10008,7 +10060,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10041,7 +10093,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10076,7 +10128,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10109,7 +10161,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10144,7 +10196,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10177,7 +10229,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10210,7 +10262,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10243,7 +10295,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10276,7 +10328,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10311,7 +10363,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10344,7 +10396,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10381,7 +10433,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10420,7 +10472,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10453,7 +10505,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10486,7 +10538,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10519,7 +10571,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10558,7 +10610,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10607,7 +10659,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10642,7 +10694,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10675,7 +10727,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10712,7 +10764,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10747,7 +10799,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10800,7 +10852,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10851,7 +10903,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -10902,7 +10954,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -10935,7 +10987,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -10986,7 +11038,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11035,7 +11087,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11084,7 +11136,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11133,7 +11185,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11166,7 +11218,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11217,7 +11269,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11266,7 +11318,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11315,7 +11367,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11364,7 +11416,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11397,7 +11449,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11448,7 +11500,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11497,7 +11549,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11546,7 +11598,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11595,7 +11647,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11628,7 +11680,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11663,7 +11715,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11704,7 +11756,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11752,7 +11804,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11798,7 +11850,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11841,7 +11893,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -11874,7 +11926,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -11921,7 +11973,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -11966,7 +12018,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12009,7 +12061,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12042,7 +12094,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12077,7 +12129,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12110,7 +12162,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12145,7 +12197,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12178,7 +12230,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12211,7 +12263,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12244,7 +12296,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12277,7 +12329,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12312,7 +12364,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12345,7 +12397,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12382,7 +12434,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12421,7 +12473,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12454,7 +12506,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12487,7 +12539,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12522,7 +12574,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12557,7 +12609,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12612,7 +12664,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12647,7 +12699,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12702,7 +12754,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12739,7 +12791,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12774,7 +12826,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12809,7 +12861,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12848,7 +12900,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -12907,7 +12959,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -12964,7 +13016,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13001,7 +13053,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13058,7 +13110,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13117,7 +13169,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13174,7 +13226,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13231,7 +13283,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13288,7 +13340,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13345,7 +13397,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13405,7 +13457,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13462,7 +13514,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13498,7 +13550,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13561,7 +13613,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13599,7 +13651,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13653,7 +13705,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13716,7 +13768,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13777,7 +13829,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13836,7 +13888,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -13895,7 +13947,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -13954,7 +14006,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14015,7 +14067,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14076,7 +14128,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14135,7 +14187,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14194,7 +14246,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14253,7 +14305,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14314,7 +14366,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14375,7 +14427,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14434,7 +14486,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14491,7 +14543,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14550,7 +14602,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14611,7 +14663,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14672,7 +14724,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14731,7 +14783,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14790,7 +14842,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14849,7 +14901,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -14912,7 +14964,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -14971,7 +15023,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15028,7 +15080,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15085,7 +15137,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15142,7 +15194,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15201,7 +15253,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15258,7 +15310,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15315,7 +15367,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15372,7 +15424,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15429,7 +15481,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15488,7 +15540,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15545,7 +15597,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15602,7 +15654,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15659,7 +15711,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15716,7 +15768,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15775,7 +15827,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15832,7 +15884,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -15889,7 +15941,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -15946,7 +15998,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16003,7 +16055,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16038,7 +16090,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16098,7 +16150,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16168,7 +16220,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16238,7 +16290,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16273,7 +16325,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16324,7 +16376,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16387,7 +16439,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16450,7 +16502,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16507,7 +16559,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16566,7 +16618,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16625,7 +16677,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16686,7 +16738,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16747,7 +16799,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16804,7 +16856,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -16861,7 +16913,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -16918,7 +16970,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -16977,7 +17029,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17036,7 +17088,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17093,7 +17145,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17150,7 +17202,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17207,7 +17259,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17266,7 +17318,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17325,7 +17377,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17382,7 +17434,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17439,7 +17491,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17496,7 +17548,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17566,7 +17618,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17633,7 +17685,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17696,7 +17748,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17759,7 +17811,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17826,7 +17878,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -17895,7 +17947,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -17962,7 +18014,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18029,7 +18081,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18096,7 +18148,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18163,7 +18215,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18232,7 +18284,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18299,7 +18351,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18366,7 +18418,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18433,7 +18485,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18500,7 +18552,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18569,7 +18621,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18636,7 +18688,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18703,7 +18755,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18770,7 +18822,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18837,7 +18889,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -18898,7 +18950,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -18955,7 +19007,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19012,7 +19064,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19069,7 +19121,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19126,7 +19178,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19195,7 +19247,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19262,7 +19314,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19329,7 +19381,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19396,7 +19448,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19463,7 +19515,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19522,7 +19574,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19584,7 +19636,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19645,7 +19697,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19705,7 +19757,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19772,7 +19824,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19837,7 +19889,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -19899,7 +19951,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -19959,7 +20011,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20016,7 +20068,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20083,7 +20135,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20116,7 +20168,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20172,7 +20224,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20225,7 +20277,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20278,7 +20330,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20313,7 +20365,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20363,7 +20415,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20421,7 +20473,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20479,7 +20531,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20532,7 +20584,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20584,7 +20636,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20639,7 +20691,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20693,7 +20745,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20747,7 +20799,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20797,7 +20849,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20847,7 +20899,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -20900,7 +20952,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -20954,7 +21006,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21008,7 +21060,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21058,7 +21110,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21108,7 +21160,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21161,7 +21213,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21213,7 +21265,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21265,7 +21317,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21314,7 +21366,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21361,7 +21413,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21414,7 +21466,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21447,7 +21499,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21480,7 +21532,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21515,7 +21567,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21548,7 +21600,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21581,7 +21633,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21614,7 +21666,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21647,7 +21699,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21682,7 +21734,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21715,7 +21767,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21752,7 +21804,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21791,7 +21843,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21824,7 +21876,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -21857,7 +21909,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -21870,14 +21922,20 @@
       <c r="G313" s="3"/>
       <c r="H313" s="29"/>
       <c r="I313" s="29"/>
-      <c r="J313" s="29"/>
-      <c r="K313" s="29"/>
-      <c r="L313" s="29"/>
-      <c r="M313" s="29"/>
+      <c r="J313" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="K313" s="189"/>
+      <c r="L313" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="M313" s="189"/>
       <c r="N313" s="29"/>
       <c r="O313" s="29"/>
-      <c r="P313" s="29"/>
-      <c r="Q313" s="29"/>
+      <c r="P313" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q313" s="189"/>
       <c r="R313" s="29"/>
       <c r="S313" s="29"/>
       <c r="T313" s="29"/>
@@ -21890,7 +21948,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -21903,14 +21961,20 @@
       <c r="G314" s="3"/>
       <c r="H314" s="29"/>
       <c r="I314" s="29"/>
-      <c r="J314" s="29"/>
-      <c r="K314" s="29"/>
-      <c r="L314" s="29"/>
-      <c r="M314" s="29"/>
+      <c r="J314" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="K314" s="189"/>
+      <c r="L314" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="M314" s="189"/>
       <c r="N314" s="29"/>
       <c r="O314" s="29"/>
-      <c r="P314" s="29"/>
-      <c r="Q314" s="29"/>
+      <c r="P314" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q314" s="189"/>
       <c r="R314" s="29"/>
       <c r="S314" s="29"/>
       <c r="T314" s="29"/>
@@ -21923,7 +21987,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="27.6" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -21936,24 +22000,24 @@
       <c r="G315" s="3"/>
       <c r="H315" s="29"/>
       <c r="I315" s="29"/>
-      <c r="J315" s="29" t="s">
+      <c r="J315" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="K315" s="29"/>
-      <c r="L315" s="29" t="s">
+      <c r="K315" s="189"/>
+      <c r="L315" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="M315" s="29"/>
+      <c r="M315" s="189"/>
       <c r="N315" s="29" t="s">
         <v>112</v>
       </c>
       <c r="O315" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="P315" s="29" t="s">
+      <c r="P315" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="Q315" s="29"/>
+      <c r="Q315" s="189"/>
       <c r="R315" s="29"/>
       <c r="S315" s="29"/>
       <c r="T315" s="29"/>
@@ -21966,7 +22030,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.4" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -21981,14 +22045,20 @@
       <c r="G316" s="3"/>
       <c r="H316" s="29"/>
       <c r="I316" s="29"/>
-      <c r="J316" s="29"/>
-      <c r="K316" s="29"/>
-      <c r="L316" s="29"/>
-      <c r="M316" s="29"/>
+      <c r="J316" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="K316" s="189"/>
+      <c r="L316" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="M316" s="189"/>
       <c r="N316" s="29"/>
       <c r="O316" s="29"/>
-      <c r="P316" s="29"/>
-      <c r="Q316" s="29"/>
+      <c r="P316" s="189" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q316" s="189"/>
       <c r="R316" s="29"/>
       <c r="S316" s="29"/>
       <c r="T316" s="29"/>
@@ -22001,7 +22071,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.9" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22034,7 +22104,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22071,7 +22141,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22106,7 +22176,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22127,7 +22197,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>81</v>
+        <v>729</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22153,7 +22223,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22192,7 +22262,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22233,7 +22303,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22251,7 +22321,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -22275,7 +22345,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22318,7 +22388,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22361,7 +22431,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22402,7 +22472,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22450,7 +22520,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22501,7 +22571,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22546,7 +22616,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22591,7 +22661,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22636,7 +22706,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22681,7 +22751,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22726,7 +22796,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22767,7 +22837,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22808,7 +22878,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -22843,7 +22913,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -22878,7 +22948,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -22913,7 +22983,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -22958,7 +23028,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23005,7 +23075,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23035,10 +23105,10 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O341" s="31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" s="31">
@@ -23057,7 +23127,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23087,11 +23157,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -23107,7 +23177,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23156,7 +23226,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76"/>
@@ -23200,7 +23270,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23223,7 +23293,7 @@
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
       <c r="O345" s="166">
-        <v>43784</v>
+        <v>43762</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
@@ -23239,7 +23309,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23262,7 +23332,7 @@
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="166">
-        <v>43480</v>
+        <v>43823</v>
       </c>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
@@ -23278,7 +23348,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23319,7 +23389,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76"/>
@@ -23360,7 +23430,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76"/>
@@ -23390,7 +23460,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23425,7 +23495,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23466,7 +23536,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23509,7 +23579,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23557,7 +23627,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76"/>
@@ -23601,7 +23671,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23646,7 +23716,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23679,7 +23749,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23714,7 +23784,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76">
@@ -23749,7 +23819,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -23784,7 +23854,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -23819,7 +23889,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -23854,7 +23924,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -23895,7 +23965,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76"/>
@@ -23949,7 +24019,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24010,7 +24080,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24063,7 +24133,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24116,7 +24186,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76"/>
@@ -24146,7 +24216,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24181,7 +24251,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24214,7 +24284,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="35"/>
       <c r="C370" s="79">
@@ -24249,7 +24319,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24282,7 +24352,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24315,7 +24385,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="69"/>
@@ -24345,7 +24415,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="69"/>
@@ -24375,7 +24445,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="69"/>
@@ -24405,7 +24475,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="69"/>
@@ -24435,7 +24505,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="69"/>
@@ -24465,7 +24535,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="69"/>
@@ -24495,7 +24565,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
@@ -24630,22 +24700,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
-    <col min="26" max="26" width="1.6640625" customWidth="1"/>
-    <col min="27" max="28" width="4.6640625" customWidth="1"/>
-    <col min="30" max="30" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -24677,7 +24747,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -24712,7 +24782,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -24747,7 +24817,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -24784,7 +24854,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -24861,7 +24931,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -24901,7 +24971,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -24942,7 +25012,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -24977,7 +25047,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25012,7 +25082,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25047,7 +25117,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25082,7 +25152,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="27.6" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25121,7 +25191,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.4" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25158,7 +25228,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25193,7 +25263,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25232,7 +25302,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25269,7 +25339,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25306,7 +25376,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25347,7 +25417,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25382,7 +25452,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25417,7 +25487,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25458,7 +25528,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -25493,7 +25563,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -25528,7 +25598,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -25565,7 +25635,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -25602,7 +25672,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -25651,7 +25721,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -25690,7 +25760,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -25729,7 +25799,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -25768,7 +25838,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -25807,7 +25877,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -25844,7 +25914,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -25881,7 +25951,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -25942,7 +26012,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26007,7 +26077,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26042,7 +26112,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26077,7 +26147,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26112,7 +26182,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26149,7 +26219,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26184,7 +26254,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26221,7 +26291,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26256,7 +26326,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26291,7 +26361,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26323,7 +26393,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26355,7 +26425,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26387,7 +26457,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26419,7 +26489,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26451,7 +26521,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -26483,7 +26553,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD37AC-C3AC-4F1D-86EF-B56978FEE413}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F3E92-044F-45FF-904F-313D7232E427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1170" windowWidth="28305" windowHeight="14565" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -160,6 +160,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -796,6 +804,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="H321" authorId="0" shapeId="0" xr:uid="{162C0A10-415E-45EF-8FAC-F37D2A09086C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+these inputs cant be changed without modifying the condense formula.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L321" authorId="0" shapeId="0" xr:uid="{957206BF-28F7-4DCB-855B-7955BBC3DD41}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+these inputs cant be changed without modifying the condense formula.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P321" authorId="0" shapeId="0" xr:uid="{D3F3BA59-396C-4A97-891A-8BB313E15EEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Young (21512438):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+these inputs cant be changed without modifying the condense formula.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K327" authorId="1" shapeId="0" xr:uid="{005FD0BF-93E3-4FBB-A906-3821FCD6128C}">
       <text>
         <r>
@@ -2024,7 +2104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,6 +2301,19 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3585,6 +3678,9 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="25" xfId="3" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="11" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="38" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3635,9 +3731,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="11" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4166,25 +4259,25 @@
       <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="155"/>
-    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.7109375" style="155"/>
+    <col min="1" max="1" width="4.7265625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="155"/>
+    <col min="28" max="28" width="46.1796875" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7265625" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4214,7 +4307,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4247,7 +4340,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4280,7 +4373,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4315,7 +4408,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4386,7 +4479,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4424,7 +4517,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4463,7 +4556,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4496,7 +4589,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4529,7 +4622,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4562,7 +4655,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4595,7 +4688,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4632,7 +4725,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4667,7 +4760,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4700,7 +4793,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4733,7 +4826,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4770,7 +4863,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4805,7 +4898,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4822,19 +4915,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="173" t="s">
+      <c r="J18" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="176"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -4844,7 +4937,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4877,7 +4970,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -4910,7 +5003,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -4927,19 +5020,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="176" t="s">
+      <c r="J21" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -4949,7 +5042,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -4982,7 +5075,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5015,7 +5108,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5050,7 +5143,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5085,7 +5178,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5132,7 +5225,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5169,7 +5262,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5206,7 +5299,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5243,7 +5336,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5280,7 +5373,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5315,7 +5408,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5348,7 +5441,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5383,7 +5476,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5416,7 +5509,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5449,7 +5542,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5482,7 +5575,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5515,7 +5608,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5550,7 +5643,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5583,7 +5676,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5620,7 +5713,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5659,7 +5752,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5692,7 +5785,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5725,7 +5818,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5758,7 +5851,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5791,7 +5884,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -5824,7 +5917,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5859,7 +5952,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -5892,7 +5985,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -5929,7 +6022,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -5964,7 +6057,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -6005,7 +6098,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76">
@@ -6038,7 +6131,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76">
@@ -6077,7 +6170,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76">
@@ -6110,7 +6203,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76">
@@ -6151,7 +6244,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76">
@@ -6192,7 +6285,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76">
@@ -6231,7 +6324,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76">
@@ -6274,7 +6367,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76">
@@ -6315,7 +6408,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76">
@@ -6348,7 +6441,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76">
@@ -6391,7 +6484,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76">
@@ -6424,7 +6517,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76">
@@ -6461,7 +6554,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76">
@@ -6494,7 +6587,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -6531,7 +6624,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -6564,7 +6657,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6620,7 +6713,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -6684,7 +6777,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -6734,7 +6827,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -6784,7 +6877,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6819,7 +6912,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6852,7 +6945,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6887,7 +6980,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -6920,7 +7013,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -6953,7 +7046,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -6986,7 +7079,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -7016,7 +7109,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -7046,7 +7139,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7076,7 +7169,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7106,7 +7199,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7136,7 +7229,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7166,7 +7259,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7190,27 +7283,27 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="O345" sqref="O345:O346"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="S330" sqref="S330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="26" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="23" width="10.81640625" customWidth="1"/>
+    <col min="24" max="24" width="1.7265625" customWidth="1"/>
+    <col min="25" max="26" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7240,7 +7333,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7273,7 +7366,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7306,7 +7399,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7341,7 +7434,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7412,7 +7505,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7450,7 +7543,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7489,7 +7582,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7522,7 +7615,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7555,7 +7648,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7588,7 +7681,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7621,7 +7714,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7658,7 +7751,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7693,7 +7786,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7726,7 +7819,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7759,7 +7852,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7796,7 +7889,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7831,7 +7924,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7848,19 +7941,19 @@
       <c r="I18" s="31">
         <v>2</v>
       </c>
-      <c r="J18" s="173" t="s">
+      <c r="J18" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="176"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
@@ -7870,7 +7963,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7903,7 +7996,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -7936,7 +8029,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -7953,19 +8046,19 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="176" t="s">
+      <c r="J21" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -7975,7 +8068,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -8008,7 +8101,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -8041,7 +8134,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8076,7 +8169,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8111,7 +8204,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8158,7 +8251,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8195,7 +8288,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8232,7 +8325,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8269,7 +8362,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8306,7 +8399,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8341,7 +8434,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8374,7 +8467,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8409,7 +8502,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8442,7 +8535,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8475,7 +8568,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8508,7 +8601,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8541,7 +8634,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8576,7 +8669,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8609,7 +8702,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8646,7 +8739,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8685,7 +8778,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8718,7 +8811,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8751,7 +8844,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8784,7 +8877,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8817,7 +8910,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8860,7 +8953,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8895,7 +8988,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -8928,7 +9021,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -8965,7 +9058,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -9000,7 +9093,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -9035,7 +9128,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9069,7 +9162,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9103,7 +9196,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9137,7 +9230,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9171,7 +9264,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9205,7 +9298,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9239,7 +9332,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9273,7 +9366,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9307,7 +9400,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9341,7 +9434,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9375,7 +9468,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9409,7 +9502,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9443,7 +9536,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9477,7 +9570,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9516,7 +9609,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9553,7 +9646,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9590,7 +9683,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9627,7 +9720,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9660,7 +9753,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9697,7 +9790,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9738,7 +9831,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9777,7 +9870,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9807,7 +9900,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9843,7 +9936,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9873,7 +9966,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -9908,7 +10001,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -9949,7 +10042,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -9990,7 +10083,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -10023,7 +10116,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10060,7 +10153,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10093,7 +10186,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10128,7 +10221,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10161,7 +10254,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10196,7 +10289,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10229,7 +10322,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10262,7 +10355,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10295,7 +10388,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10328,7 +10421,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10363,7 +10456,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10396,7 +10489,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10433,7 +10526,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10472,7 +10565,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10505,7 +10598,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10538,7 +10631,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10571,7 +10664,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10610,7 +10703,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10659,7 +10752,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10694,7 +10787,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10727,7 +10820,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10764,7 +10857,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10799,7 +10892,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10852,7 +10945,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10903,7 +10996,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -10954,7 +11047,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -10987,7 +11080,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -11038,7 +11131,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11087,7 +11180,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11136,7 +11229,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11185,7 +11278,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11218,7 +11311,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11269,7 +11362,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11318,7 +11411,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11367,7 +11460,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11416,7 +11509,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11449,7 +11542,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11500,7 +11593,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11549,7 +11642,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11598,7 +11691,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11647,7 +11740,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11680,7 +11773,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11715,7 +11808,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11756,7 +11849,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11804,7 +11897,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11850,7 +11943,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11893,7 +11986,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -11926,7 +12019,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -11973,7 +12066,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -12018,7 +12111,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12061,7 +12154,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12094,7 +12187,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12129,7 +12222,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12162,7 +12255,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12197,7 +12290,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12230,7 +12323,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12263,7 +12356,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12296,7 +12389,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12329,7 +12422,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12364,7 +12457,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12397,7 +12490,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12434,7 +12527,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12473,7 +12566,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12506,7 +12599,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12539,7 +12632,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12574,7 +12667,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12609,7 +12702,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12664,7 +12757,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12699,7 +12792,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12754,7 +12847,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12791,7 +12884,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12826,7 +12919,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12861,7 +12954,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12900,7 +12993,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -12959,7 +13052,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -13016,7 +13109,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13053,7 +13146,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13110,7 +13203,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13169,7 +13262,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13226,7 +13319,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13283,7 +13376,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13340,7 +13433,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13397,7 +13490,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13457,7 +13550,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13514,7 +13607,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13550,7 +13643,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13613,7 +13706,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13651,7 +13744,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13705,7 +13798,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13768,7 +13861,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13829,7 +13922,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13888,7 +13981,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -13947,7 +14040,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -14006,7 +14099,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14067,7 +14160,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14128,7 +14221,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14187,7 +14280,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14246,7 +14339,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14305,7 +14398,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14366,7 +14459,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14427,7 +14520,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14486,7 +14579,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14543,7 +14636,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14602,7 +14695,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14663,7 +14756,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14724,7 +14817,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14783,7 +14876,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14842,7 +14935,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14901,7 +14994,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -14964,7 +15057,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -15023,7 +15116,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15080,7 +15173,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15137,7 +15230,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15194,7 +15287,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15253,7 +15346,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15310,7 +15403,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15367,7 +15460,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15424,7 +15517,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15481,7 +15574,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15540,7 +15633,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15597,7 +15690,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15654,7 +15747,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15711,7 +15804,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15768,7 +15861,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15827,7 +15920,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15884,7 +15977,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -15941,7 +16034,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -15998,7 +16091,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16055,7 +16148,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16090,7 +16183,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16150,7 +16243,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16220,7 +16313,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16290,7 +16383,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16325,7 +16418,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16376,7 +16469,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16439,7 +16532,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16502,7 +16595,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16559,7 +16652,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16618,7 +16711,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16677,7 +16770,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16738,7 +16831,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16799,7 +16892,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16856,7 +16949,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -16913,7 +17006,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -16970,7 +17063,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -17029,7 +17122,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17088,7 +17181,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17145,7 +17238,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17202,7 +17295,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17259,7 +17352,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17318,7 +17411,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17377,7 +17470,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17434,7 +17527,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17491,7 +17584,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17548,7 +17641,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17618,7 +17711,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17685,7 +17778,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17748,7 +17841,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17811,7 +17904,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17878,7 +17971,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -17947,7 +18040,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -18014,7 +18107,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18081,7 +18174,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18148,7 +18241,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18215,7 +18308,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18284,7 +18377,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18351,7 +18444,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18418,7 +18511,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18485,7 +18578,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18552,7 +18645,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18621,7 +18714,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18688,7 +18781,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18755,7 +18848,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18822,7 +18915,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18889,7 +18982,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -18950,7 +19043,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -19007,7 +19100,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19064,7 +19157,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19121,7 +19214,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19178,7 +19271,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19247,7 +19340,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19314,7 +19407,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19381,7 +19474,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19448,7 +19541,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19515,7 +19608,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19574,7 +19667,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19636,7 +19729,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19697,7 +19790,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19757,7 +19850,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19824,7 +19917,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19889,7 +19982,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -19951,7 +20044,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -20011,7 +20104,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20068,7 +20161,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20135,7 +20228,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20168,7 +20261,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20224,7 +20317,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20277,7 +20370,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20330,7 +20423,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20365,7 +20458,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20415,7 +20508,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20473,7 +20566,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20531,7 +20624,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20584,7 +20677,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20636,7 +20729,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20691,7 +20784,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20745,7 +20838,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20799,7 +20892,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20849,7 +20942,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20899,7 +20992,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -20952,7 +21045,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -21006,7 +21099,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21060,7 +21153,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21110,7 +21203,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21160,7 +21253,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21213,7 +21306,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21265,7 +21358,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21317,7 +21410,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21366,7 +21459,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21413,7 +21506,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21466,7 +21559,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21499,7 +21592,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21532,7 +21625,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21567,7 +21660,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21600,7 +21693,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21633,7 +21726,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21666,7 +21759,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21699,7 +21792,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21734,7 +21827,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21767,7 +21860,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21804,7 +21897,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21843,7 +21936,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21876,7 +21969,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -21909,7 +22002,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -21922,20 +22015,20 @@
       <c r="G313" s="3"/>
       <c r="H313" s="29"/>
       <c r="I313" s="29"/>
-      <c r="J313" s="189" t="s">
+      <c r="J313" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="K313" s="189"/>
-      <c r="L313" s="189" t="s">
+      <c r="K313" s="173"/>
+      <c r="L313" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="M313" s="189"/>
+      <c r="M313" s="173"/>
       <c r="N313" s="29"/>
       <c r="O313" s="29"/>
-      <c r="P313" s="189" t="s">
+      <c r="P313" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="Q313" s="189"/>
+      <c r="Q313" s="173"/>
       <c r="R313" s="29"/>
       <c r="S313" s="29"/>
       <c r="T313" s="29"/>
@@ -21948,7 +22041,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -21961,20 +22054,20 @@
       <c r="G314" s="3"/>
       <c r="H314" s="29"/>
       <c r="I314" s="29"/>
-      <c r="J314" s="189" t="s">
+      <c r="J314" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="K314" s="189"/>
-      <c r="L314" s="189" t="s">
+      <c r="K314" s="173"/>
+      <c r="L314" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="M314" s="189"/>
+      <c r="M314" s="173"/>
       <c r="N314" s="29"/>
       <c r="O314" s="29"/>
-      <c r="P314" s="189" t="s">
+      <c r="P314" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="Q314" s="189"/>
+      <c r="Q314" s="173"/>
       <c r="R314" s="29"/>
       <c r="S314" s="29"/>
       <c r="T314" s="29"/>
@@ -21987,7 +22080,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -22000,24 +22093,24 @@
       <c r="G315" s="3"/>
       <c r="H315" s="29"/>
       <c r="I315" s="29"/>
-      <c r="J315" s="189" t="s">
+      <c r="J315" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="K315" s="189"/>
-      <c r="L315" s="189" t="s">
+      <c r="K315" s="173"/>
+      <c r="L315" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="M315" s="189"/>
+      <c r="M315" s="173"/>
       <c r="N315" s="29" t="s">
         <v>112</v>
       </c>
       <c r="O315" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="P315" s="189" t="s">
+      <c r="P315" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="Q315" s="189"/>
+      <c r="Q315" s="173"/>
       <c r="R315" s="29"/>
       <c r="S315" s="29"/>
       <c r="T315" s="29"/>
@@ -22030,7 +22123,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22045,20 +22138,20 @@
       <c r="G316" s="3"/>
       <c r="H316" s="29"/>
       <c r="I316" s="29"/>
-      <c r="J316" s="189" t="s">
+      <c r="J316" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="K316" s="189"/>
-      <c r="L316" s="189" t="s">
+      <c r="K316" s="173"/>
+      <c r="L316" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="M316" s="189"/>
+      <c r="M316" s="173"/>
       <c r="N316" s="29"/>
       <c r="O316" s="29"/>
-      <c r="P316" s="189" t="s">
+      <c r="P316" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="Q316" s="189"/>
+      <c r="Q316" s="173"/>
       <c r="R316" s="29"/>
       <c r="S316" s="29"/>
       <c r="T316" s="29"/>
@@ -22071,7 +22164,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22104,7 +22197,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22141,7 +22234,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22176,7 +22269,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22223,7 +22316,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22262,7 +22355,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22303,7 +22396,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22331,21 +22424,21 @@
         <v>3</v>
       </c>
       <c r="Q323" s="126"/>
-      <c r="R323" s="178" t="s">
+      <c r="R323" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="S323" s="179"/>
-      <c r="T323" s="179"/>
-      <c r="U323" s="179"/>
-      <c r="V323" s="179"/>
-      <c r="W323" s="180"/>
+      <c r="S323" s="180"/>
+      <c r="T323" s="180"/>
+      <c r="U323" s="180"/>
+      <c r="V323" s="180"/>
+      <c r="W323" s="181"/>
       <c r="X323" s="4"/>
       <c r="Y323" s="16"/>
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22376,19 +22469,19 @@
         <v>1</v>
       </c>
       <c r="Q324" s="2"/>
-      <c r="R324" s="181"/>
-      <c r="S324" s="182"/>
-      <c r="T324" s="182"/>
-      <c r="U324" s="182"/>
-      <c r="V324" s="182"/>
-      <c r="W324" s="183"/>
+      <c r="R324" s="182"/>
+      <c r="S324" s="183"/>
+      <c r="T324" s="183"/>
+      <c r="U324" s="183"/>
+      <c r="V324" s="183"/>
+      <c r="W324" s="184"/>
       <c r="X324" s="4"/>
       <c r="Y324" s="16"/>
       <c r="Z324" s="1"/>
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22419,19 +22512,19 @@
         <v>1</v>
       </c>
       <c r="Q325" s="2"/>
-      <c r="R325" s="181"/>
-      <c r="S325" s="182"/>
-      <c r="T325" s="182"/>
-      <c r="U325" s="182"/>
-      <c r="V325" s="182"/>
-      <c r="W325" s="183"/>
+      <c r="R325" s="182"/>
+      <c r="S325" s="183"/>
+      <c r="T325" s="183"/>
+      <c r="U325" s="183"/>
+      <c r="V325" s="183"/>
+      <c r="W325" s="184"/>
       <c r="X325" s="4"/>
       <c r="Y325" s="16"/>
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22472,7 +22565,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22520,7 +22613,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22571,7 +22664,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22616,7 +22709,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22661,7 +22754,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22706,7 +22799,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22751,7 +22844,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22796,7 +22889,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22837,7 +22930,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22878,7 +22971,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -22913,7 +23006,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -22948,7 +23041,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -22983,7 +23076,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -23028,7 +23121,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23075,7 +23168,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23127,7 +23220,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23177,7 +23270,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23226,7 +23319,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76"/>
@@ -23270,7 +23363,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23309,7 +23402,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23348,7 +23441,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23389,7 +23482,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76"/>
@@ -23430,7 +23523,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76"/>
@@ -23460,7 +23553,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23495,7 +23588,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23536,7 +23629,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23579,7 +23672,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23627,7 +23720,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76"/>
@@ -23671,7 +23764,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23716,7 +23809,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23749,7 +23842,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23784,7 +23877,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76">
@@ -23806,20 +23899,20 @@
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
       <c r="P358" s="2"/>
-      <c r="Q358" s="184"/>
-      <c r="R358" s="185"/>
-      <c r="S358" s="185"/>
-      <c r="T358" s="185"/>
-      <c r="U358" s="185"/>
-      <c r="V358" s="185"/>
-      <c r="W358" s="186"/>
+      <c r="Q358" s="185"/>
+      <c r="R358" s="186"/>
+      <c r="S358" s="186"/>
+      <c r="T358" s="186"/>
+      <c r="U358" s="186"/>
+      <c r="V358" s="186"/>
+      <c r="W358" s="187"/>
       <c r="X358" s="4"/>
       <c r="Y358" s="16"/>
       <c r="Z358" s="1"/>
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -23854,7 +23947,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -23889,7 +23982,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -23924,7 +24017,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -23965,7 +24058,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76"/>
@@ -24019,7 +24112,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24080,7 +24173,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24133,7 +24226,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24186,7 +24279,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76"/>
@@ -24216,7 +24309,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24251,7 +24344,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24284,7 +24377,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A370" s="1"/>
       <c r="B370" s="35"/>
       <c r="C370" s="79">
@@ -24319,7 +24412,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24352,7 +24445,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24385,7 +24478,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="69"/>
@@ -24415,7 +24508,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="69"/>
@@ -24445,7 +24538,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="69"/>
@@ -24475,7 +24568,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="69"/>
@@ -24505,7 +24598,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="69"/>
@@ -24535,7 +24628,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="69"/>
@@ -24565,7 +24658,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
@@ -24700,22 +24793,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="26" max="26" width="1.7109375" customWidth="1"/>
-    <col min="27" max="28" width="4.7109375" customWidth="1"/>
-    <col min="30" max="30" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
+    <col min="26" max="26" width="1.7265625" customWidth="1"/>
+    <col min="27" max="28" width="4.7265625" customWidth="1"/>
+    <col min="30" max="30" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -24747,7 +24840,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -24782,7 +24875,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -24817,7 +24910,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -24854,7 +24947,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -24931,7 +25024,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -24971,7 +25064,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -25012,7 +25105,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -25047,7 +25140,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25082,7 +25175,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25117,7 +25210,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25152,7 +25245,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25191,7 +25284,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25228,7 +25321,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25263,7 +25356,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25302,7 +25395,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25339,7 +25432,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25376,7 +25469,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25393,23 +25486,23 @@
       <c r="I18" s="31">
         <v>1</v>
       </c>
-      <c r="J18" s="187" t="s">
+      <c r="J18" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="187"/>
-      <c r="P18" s="187"/>
-      <c r="Q18" s="187"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="188"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="16"/>
@@ -25417,7 +25510,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25452,7 +25545,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25487,7 +25580,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25504,23 +25597,23 @@
       <c r="I21" s="23">
         <v>1</v>
       </c>
-      <c r="J21" s="176" t="s">
+      <c r="J21" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="177"/>
-      <c r="W21" s="177"/>
-      <c r="X21" s="188"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="178"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="189"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="16"/>
@@ -25528,7 +25621,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -25563,7 +25656,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -25598,7 +25691,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -25635,7 +25728,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -25672,7 +25765,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -25721,7 +25814,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -25760,7 +25853,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -25799,7 +25892,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -25838,7 +25931,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -25877,7 +25970,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -25914,7 +26007,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -25951,7 +26044,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -26012,7 +26105,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26077,7 +26170,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26112,7 +26205,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26147,7 +26240,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26182,7 +26275,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26219,7 +26312,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26254,7 +26347,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26291,7 +26384,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26326,7 +26419,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26361,7 +26454,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26393,7 +26486,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26425,7 +26518,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26457,7 +26550,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26489,7 +26582,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26521,7 +26614,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -26553,7 +26646,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0F3E92-044F-45FF-904F-313D7232E427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3F5D0-24BD-48BE-964A-2F624F4DFB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="315" yWindow="450" windowWidth="28305" windowHeight="14565" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -160,14 +160,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -848,7 +840,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-these inputs cant be changed without modifying the condense formula.</t>
+these inputs can't be changed without modifying the condense formula.</t>
         </r>
       </text>
     </comment>
@@ -872,7 +864,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-these inputs cant be changed without modifying the condense formula.</t>
+these inputs can't be changed without modifying the condense formula.</t>
         </r>
       </text>
     </comment>
@@ -1047,6 +1039,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="O345" authorId="1" shapeId="0" xr:uid="{03367603-CB1F-4742-BCDF-5211165287E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is halfway between weaning and joining</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O346" authorId="1" shapeId="0" xr:uid="{761F5DAF-21A6-4C21-AD86-8FC68528E34C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is halfway between weaning and joining</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J347" authorId="0" shapeId="0" xr:uid="{E29AB565-A991-45ED-AD8D-42E00F440CFF}">
       <text>
         <r>
@@ -1196,7 +1236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="293">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -1782,9 +1822,6 @@
     <t>Is this required? Or just index_b1&gt;0</t>
   </si>
   <si>
-    <t>Note: This is from 1 Jan</t>
-  </si>
-  <si>
     <t>Maximum years to simulate</t>
   </si>
   <si>
@@ -2095,6 +2132,12 @@
   </si>
   <si>
     <t>ev3</t>
+  </si>
+  <si>
+    <t>Note: These is from 1 Jan not from birth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Therefore think about the final sale date relative to 1 Jan, rather than the age of the animal</t>
   </si>
 </sst>
 </file>
@@ -4259,25 +4302,25 @@
       <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="155" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="155" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" style="155" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" style="155" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" style="155" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" style="155" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="155" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" style="155" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" style="155" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" style="155" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="155"/>
-    <col min="28" max="28" width="46.1796875" style="155" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="155"/>
+    <col min="1" max="1" width="4.7109375" style="155" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="155" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="155" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" style="155" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" style="155" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="155" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" style="155" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" style="155" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" style="155" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="155"/>
+    <col min="28" max="28" width="46.140625" style="155" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="155"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -4307,7 +4350,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -4340,7 +4383,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -4373,7 +4416,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4408,7 +4451,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -4479,7 +4522,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -4517,7 +4560,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -4556,7 +4599,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -4589,7 +4632,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -4622,7 +4665,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -4655,7 +4698,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -4688,7 +4731,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -4725,7 +4768,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4760,7 +4803,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -4793,7 +4836,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -4826,7 +4869,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4863,7 +4906,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -4898,7 +4941,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -4937,7 +4980,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -4970,7 +5013,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -5003,7 +5046,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -5042,7 +5085,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -5075,7 +5118,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -5108,7 +5151,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -5143,7 +5186,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -5178,7 +5221,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -5225,7 +5268,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -5262,7 +5305,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -5299,7 +5342,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -5336,7 +5379,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -5373,7 +5416,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -5408,7 +5451,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -5441,7 +5484,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -5476,7 +5519,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -5509,7 +5552,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -5542,7 +5585,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -5575,7 +5618,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -5608,7 +5651,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5643,7 +5686,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -5676,7 +5719,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -5713,7 +5756,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -5752,7 +5795,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -5785,7 +5828,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -5818,7 +5861,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -5851,7 +5894,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -5884,7 +5927,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -5917,7 +5960,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5952,7 +5995,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -5985,7 +6028,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -6022,7 +6065,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -6057,7 +6100,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -6069,16 +6112,16 @@
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
       <c r="H51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="108" t="s">
+      <c r="J51" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="J51" s="108" t="s">
+      <c r="K51" s="108" t="s">
         <v>211</v>
-      </c>
-      <c r="K51" s="108" t="s">
-        <v>212</v>
       </c>
       <c r="L51" s="157"/>
       <c r="M51" s="2"/>
@@ -6098,7 +6141,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76">
@@ -6131,7 +6174,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76">
@@ -6143,13 +6186,13 @@
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="108" t="s">
+      <c r="J53" s="108" t="s">
         <v>214</v>
-      </c>
-      <c r="J53" s="108" t="s">
-        <v>215</v>
       </c>
       <c r="K53" s="157"/>
       <c r="L53" s="157"/>
@@ -6170,7 +6213,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76">
@@ -6203,7 +6246,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76">
@@ -6215,16 +6258,16 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I55" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="J55" s="108" t="s">
+      <c r="K55" s="108" t="s">
         <v>222</v>
-      </c>
-      <c r="K55" s="108" t="s">
-        <v>223</v>
       </c>
       <c r="L55" s="157"/>
       <c r="M55" s="2"/>
@@ -6244,7 +6287,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76">
@@ -6256,7 +6299,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I56" s="108" t="b">
         <v>1</v>
@@ -6285,7 +6328,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76">
@@ -6297,13 +6340,13 @@
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
       <c r="H57" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I57" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="J57" s="108" t="s">
         <v>224</v>
-      </c>
-      <c r="J57" s="108" t="s">
-        <v>225</v>
       </c>
       <c r="K57" s="157"/>
       <c r="L57" s="157"/>
@@ -6324,7 +6367,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76">
@@ -6336,19 +6379,19 @@
       <c r="F58" s="5"/>
       <c r="G58" s="4"/>
       <c r="H58" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I58" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="J58" s="108" t="s">
         <v>226</v>
       </c>
-      <c r="J58" s="108" t="s">
+      <c r="K58" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="K58" s="108" t="s">
+      <c r="L58" s="108" t="s">
         <v>228</v>
-      </c>
-      <c r="L58" s="108" t="s">
-        <v>229</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6367,7 +6410,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76">
@@ -6379,16 +6422,16 @@
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
       <c r="H59" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I59" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="108" t="s">
+      <c r="K59" s="108" t="s">
         <v>231</v>
-      </c>
-      <c r="K59" s="108" t="s">
-        <v>232</v>
       </c>
       <c r="L59" s="157"/>
       <c r="M59" s="2"/>
@@ -6408,7 +6451,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76">
@@ -6441,7 +6484,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76">
@@ -6453,19 +6496,19 @@
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
       <c r="H61" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I61" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="J61" s="108" t="s">
         <v>288</v>
       </c>
-      <c r="J61" s="108" t="s">
+      <c r="K61" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="K61" s="108" t="s">
+      <c r="L61" s="108" t="s">
         <v>290</v>
-      </c>
-      <c r="L61" s="108" t="s">
-        <v>291</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -6484,7 +6527,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76">
@@ -6517,7 +6560,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76">
@@ -6529,7 +6572,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="4"/>
       <c r="H63" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I63" s="108">
         <v>6</v>
@@ -6554,7 +6597,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76">
@@ -6587,7 +6630,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -6599,7 +6642,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="4"/>
       <c r="H65" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I65" s="108">
         <v>1</v>
@@ -6624,7 +6667,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -6657,7 +6700,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -6713,7 +6756,7 @@
       <c r="AS67" s="1"/>
       <c r="AT67" s="1"/>
     </row>
-    <row r="68" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -6725,25 +6768,25 @@
       <c r="F68" s="5"/>
       <c r="G68" s="4"/>
       <c r="H68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="I68" s="153" t="s">
+      <c r="J68" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="J68" s="153" t="s">
+      <c r="K68" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="K68" s="153" t="s">
+      <c r="L68" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="L68" s="153" t="s">
+      <c r="M68" s="153" t="s">
         <v>206</v>
       </c>
-      <c r="M68" s="153" t="s">
+      <c r="N68" s="153" t="s">
         <v>207</v>
-      </c>
-      <c r="N68" s="153" t="s">
-        <v>208</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -6777,7 +6820,7 @@
       <c r="AS68" s="1"/>
       <c r="AT68" s="1"/>
     </row>
-    <row r="69" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -6827,7 +6870,7 @@
       <c r="AS69" s="1"/>
       <c r="AT69" s="1"/>
     </row>
-    <row r="70" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -6877,7 +6920,7 @@
       <c r="AS70" s="1"/>
       <c r="AT70" s="1"/>
     </row>
-    <row r="71" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -6912,7 +6955,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:46" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -6945,7 +6988,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:46" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:46" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="35"/>
       <c r="C73" s="79">
@@ -6980,7 +7023,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:46" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:46" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="19"/>
       <c r="C74" s="80">
@@ -7013,7 +7056,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="76">
@@ -7046,7 +7089,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:46" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="76">
@@ -7079,7 +7122,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="69"/>
@@ -7109,7 +7152,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="69"/>
@@ -7139,7 +7182,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="69"/>
@@ -7169,7 +7212,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="69"/>
@@ -7199,7 +7242,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="69"/>
@@ -7229,7 +7272,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="69"/>
@@ -7259,7 +7302,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C83" s="75" t="s">
         <v>4</v>
       </c>
@@ -7283,27 +7326,27 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="S330" sqref="S330"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="O346" sqref="O346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" customWidth="1"/>
-    <col min="28" max="28" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7333,7 +7376,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7366,7 +7409,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -7399,7 +7442,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7434,7 +7477,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7505,7 +7548,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -7543,7 +7586,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7582,7 +7625,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7615,7 +7658,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7648,7 +7691,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7681,7 +7724,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7714,7 +7757,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7751,7 +7794,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7786,7 +7829,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7819,7 +7862,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7852,7 +7895,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -7889,7 +7932,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -7924,7 +7967,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7963,7 +8006,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -7996,7 +8039,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -8029,7 +8072,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -8068,7 +8111,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -8101,7 +8144,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -8134,7 +8177,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8169,7 +8212,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8204,7 +8247,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8251,7 +8294,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8288,7 +8331,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8325,7 +8368,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8362,7 +8405,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8399,7 +8442,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8434,7 +8477,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8467,7 +8510,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="73">
@@ -8502,7 +8545,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8535,7 +8578,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8568,7 +8611,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8601,7 +8644,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="77">
@@ -8634,7 +8677,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8669,7 +8712,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8702,7 +8745,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="76">
@@ -8739,7 +8782,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8754,9 +8797,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="H41" s="8"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
@@ -8778,7 +8819,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8811,7 +8852,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8844,7 +8885,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8877,7 +8918,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8910,7 +8951,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8953,7 +8994,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -8988,7 +9029,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -9021,7 +9062,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -9058,7 +9099,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -9093,7 +9134,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -9128,7 +9169,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9137,7 +9178,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I52" s="31">
         <v>-6</v>
@@ -9162,7 +9203,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9171,7 +9212,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I53" s="31">
         <v>-14</v>
@@ -9196,7 +9237,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9205,7 +9246,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="H54" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I54" s="31">
         <v>-4</v>
@@ -9230,7 +9271,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9239,7 +9280,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I55" s="31">
         <v>-12</v>
@@ -9264,7 +9305,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9273,7 +9314,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="H56" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I56" s="31">
         <v>-7</v>
@@ -9298,7 +9339,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9307,7 +9348,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
       <c r="H57" s="144" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I57" s="31">
         <v>-5</v>
@@ -9332,7 +9373,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9341,7 +9382,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="4"/>
       <c r="H58" s="144" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I58" s="31">
         <v>-13</v>
@@ -9366,7 +9407,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9375,7 +9416,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
       <c r="H59" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I59" s="31">
         <v>-8</v>
@@ -9400,7 +9441,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9434,7 +9475,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9468,7 +9509,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9502,7 +9543,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9511,7 +9552,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="4"/>
       <c r="H63" s="144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I63" s="31">
         <v>-11</v>
@@ -9536,7 +9577,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9545,7 +9586,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="4"/>
       <c r="H64" s="144" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I64" s="31">
         <v>-15</v>
@@ -9570,7 +9611,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:28" s="113" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9582,7 +9623,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="4"/>
       <c r="H65" s="144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I65" s="31">
         <v>-10</v>
@@ -9609,7 +9650,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:28" s="105" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9621,7 +9662,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="4"/>
       <c r="H66" s="144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I66" s="31">
         <v>-3</v>
@@ -9646,7 +9687,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:28" s="105" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9658,7 +9699,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="4"/>
       <c r="H67" s="144" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I67" s="31">
         <v>-2</v>
@@ -9683,7 +9724,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:28" s="129" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9695,7 +9736,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="4"/>
       <c r="H68" s="144" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I68" s="31">
         <v>-9</v>
@@ -9720,7 +9761,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:28" s="145" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9753,7 +9794,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:28" s="109" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9790,7 +9831,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9802,16 +9843,16 @@
       <c r="F71" s="5"/>
       <c r="G71" s="4"/>
       <c r="H71" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I71" s="31">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>89</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>187</v>
+        <v>291</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -9831,7 +9872,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:28" s="154" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9843,15 +9884,17 @@
       <c r="F72" s="5"/>
       <c r="G72" s="4"/>
       <c r="H72" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I72" s="31">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9870,7 +9913,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9900,7 +9943,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9909,7 +9952,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I74" s="31">
         <v>8</v>
@@ -9936,7 +9979,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9966,7 +10009,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -10001,7 +10044,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -10042,7 +10085,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -10083,7 +10126,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -10116,7 +10159,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10153,7 +10196,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:28" s="152" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10186,7 +10229,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10221,7 +10264,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10254,7 +10297,7 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
     </row>
-    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="35"/>
       <c r="C84" s="79">
@@ -10289,7 +10332,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10322,7 +10365,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10355,7 +10398,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10388,7 +10431,7 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
     </row>
-    <row r="88" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="20"/>
       <c r="C88" s="77">
@@ -10421,7 +10464,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10456,7 +10499,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10489,7 +10532,7 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
     </row>
-    <row r="91" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="33"/>
       <c r="C91" s="76">
@@ -10526,7 +10569,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10541,9 +10584,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="13"/>
-      <c r="H92" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="H92" s="8"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
@@ -10565,7 +10606,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10598,7 +10639,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10631,7 +10672,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10664,7 +10705,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10703,7 +10744,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10752,7 +10793,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10787,7 +10828,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10820,7 +10861,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10857,7 +10898,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10892,7 +10933,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10945,7 +10986,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -10957,7 +10998,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="4"/>
       <c r="H103" s="127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2" t="s">
@@ -10996,7 +11037,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -11008,7 +11049,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="4"/>
       <c r="H104" s="127" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2" t="s">
@@ -11047,7 +11088,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -11080,7 +11121,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -11131,7 +11172,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11180,7 +11221,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11229,7 +11270,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11278,7 +11319,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11311,7 +11352,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11362,7 +11403,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11411,7 +11452,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11460,7 +11501,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11509,7 +11550,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11542,7 +11583,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11593,7 +11634,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11642,7 +11683,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11691,7 +11732,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11740,7 +11781,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11773,7 +11814,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11808,7 +11849,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11849,7 +11890,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11897,7 +11938,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11943,7 +11984,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -11986,7 +12027,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -12019,7 +12060,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -12066,7 +12107,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -12111,7 +12152,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12154,7 +12195,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12187,7 +12228,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12222,7 +12263,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12255,7 +12296,7 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
     </row>
-    <row r="133" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="35"/>
       <c r="C133" s="79">
@@ -12290,7 +12331,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12323,7 +12364,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12356,7 +12397,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12389,7 +12430,7 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
     </row>
-    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="20"/>
       <c r="C137" s="77">
@@ -12422,7 +12463,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12457,7 +12498,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12490,7 +12531,7 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
     </row>
-    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="33"/>
       <c r="C140" s="76">
@@ -12527,7 +12568,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12542,9 +12583,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="H141" s="8"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
@@ -12566,7 +12605,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12599,7 +12638,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12632,7 +12671,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12667,7 +12706,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12702,7 +12741,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12757,7 +12796,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12792,7 +12831,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12847,7 +12886,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12884,7 +12923,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12919,7 +12958,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12954,7 +12993,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -12993,7 +13032,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -13052,7 +13091,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -13109,7 +13148,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13146,7 +13185,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13203,7 +13242,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:28" s="150" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13262,7 +13301,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:28" s="124" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13319,7 +13358,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:28" s="124" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13376,7 +13415,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13433,7 +13472,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:31" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13490,7 +13529,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13550,7 +13589,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:31" s="146" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13607,7 +13646,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13643,7 +13682,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13706,7 +13745,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13744,7 +13783,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13798,7 +13837,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13861,7 +13900,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13877,7 +13916,7 @@
       </c>
       <c r="I169" s="110"/>
       <c r="J169" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K169" s="58">
         <v>1</v>
@@ -13922,7 +13961,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -13981,7 +14020,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -14040,7 +14079,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -14099,7 +14138,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14160,7 +14199,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14176,7 +14215,7 @@
       </c>
       <c r="I174" s="82"/>
       <c r="J174" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K174" s="58">
         <v>1</v>
@@ -14221,7 +14260,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14280,7 +14319,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14339,7 +14378,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14398,7 +14437,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14459,7 +14498,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14520,7 +14559,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14579,7 +14618,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14636,7 +14675,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14695,7 +14734,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14756,7 +14795,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14772,7 +14811,7 @@
       </c>
       <c r="I184" s="82"/>
       <c r="J184" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K184" s="58">
         <v>1</v>
@@ -14817,7 +14856,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14876,7 +14915,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14935,7 +14974,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -14994,7 +15033,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -15057,7 +15096,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -15116,7 +15155,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15173,7 +15212,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15230,7 +15269,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15287,7 +15326,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15346,7 +15385,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15403,7 +15442,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15460,7 +15499,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15517,7 +15556,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15574,7 +15613,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15633,7 +15672,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15690,7 +15729,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15747,7 +15786,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15804,7 +15843,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15861,7 +15900,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15920,7 +15959,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -15977,7 +16016,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -16034,7 +16073,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -16091,7 +16130,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16148,7 +16187,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16183,7 +16222,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16243,7 +16282,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16313,7 +16352,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16383,7 +16422,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16418,7 +16457,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16433,7 +16472,7 @@
         <v>134</v>
       </c>
       <c r="I213" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J213" s="55" t="s">
         <v>116</v>
@@ -16469,7 +16508,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16532,7 +16571,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16547,10 +16586,10 @@
         <v>157</v>
       </c>
       <c r="I215" s="110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J215" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K215" s="58">
         <v>1</v>
@@ -16595,7 +16634,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16652,7 +16691,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16711,7 +16750,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16770,7 +16809,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16831,7 +16870,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16847,7 +16886,7 @@
       </c>
       <c r="I220" s="82"/>
       <c r="J220" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K220" s="58">
         <v>1</v>
@@ -16892,7 +16931,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16949,7 +16988,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -17006,7 +17045,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -17063,7 +17102,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -17122,7 +17161,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17181,7 +17220,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17238,7 +17277,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17295,7 +17334,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17352,7 +17391,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17411,7 +17450,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17425,7 +17464,7 @@
       <c r="H230" s="26"/>
       <c r="I230" s="82"/>
       <c r="J230" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K230" s="58">
         <v>1</v>
@@ -17470,7 +17509,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17527,7 +17566,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17584,7 +17623,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17641,7 +17680,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17711,7 +17750,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17724,7 +17763,7 @@
       <c r="G235" s="4"/>
       <c r="H235" s="26"/>
       <c r="I235" s="110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J235" s="110"/>
       <c r="K235" s="58">
@@ -17778,7 +17817,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17841,7 +17880,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17904,7 +17943,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17971,7 +18010,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -18040,7 +18079,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -18107,7 +18146,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18174,7 +18213,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18241,7 +18280,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18308,7 +18347,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18377,7 +18416,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18444,7 +18483,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18511,7 +18550,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18578,7 +18617,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18645,7 +18684,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18714,7 +18753,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18781,7 +18820,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18848,7 +18887,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18915,7 +18954,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -18982,7 +19021,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -19043,7 +19082,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -19100,7 +19139,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19157,7 +19196,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19214,7 +19253,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19271,7 +19310,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19340,7 +19379,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19407,7 +19446,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19474,7 +19513,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19541,7 +19580,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19608,7 +19647,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19667,7 +19706,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19729,7 +19768,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19790,7 +19829,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19850,7 +19889,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19917,7 +19956,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -19982,7 +20021,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -20044,7 +20083,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -20104,7 +20143,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20161,7 +20200,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20228,7 +20267,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20261,7 +20300,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20317,7 +20356,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20370,7 +20409,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20423,7 +20462,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20458,7 +20497,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20508,7 +20547,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20523,7 +20562,7 @@
         <v>158</v>
       </c>
       <c r="I280" s="134" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J280" s="59">
         <v>0</v>
@@ -20566,7 +20605,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20581,10 +20620,10 @@
         <v>159</v>
       </c>
       <c r="I281" s="110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J281" s="110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K281" s="58">
         <v>1</v>
@@ -20624,7 +20663,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20637,7 +20676,7 @@
       <c r="G282" s="4"/>
       <c r="H282" s="67"/>
       <c r="I282" s="110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J282" s="110"/>
       <c r="K282" s="58">
@@ -20677,7 +20716,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20690,7 +20729,7 @@
       <c r="G283" s="4"/>
       <c r="H283" s="67"/>
       <c r="I283" s="110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J283" s="110"/>
       <c r="K283" s="58">
@@ -20729,7 +20768,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20742,7 +20781,7 @@
       <c r="G284" s="4"/>
       <c r="H284" s="67"/>
       <c r="I284" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J284" s="110"/>
       <c r="K284" s="66">
@@ -20784,7 +20823,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20838,7 +20877,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20852,7 +20891,7 @@
       <c r="H286" s="123"/>
       <c r="I286" s="82"/>
       <c r="J286" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K286" s="58">
         <v>1</v>
@@ -20892,7 +20931,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20942,7 +20981,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -20992,7 +21031,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -21045,7 +21084,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -21099,7 +21138,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21153,7 +21192,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21203,7 +21242,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21253,7 +21292,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21306,7 +21345,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21358,7 +21397,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21372,7 +21411,7 @@
       <c r="H296" s="123"/>
       <c r="I296" s="82"/>
       <c r="J296" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K296" s="58">
         <v>1</v>
@@ -21410,7 +21449,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21459,7 +21498,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21506,7 +21545,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21559,7 +21598,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21592,7 +21631,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21625,7 +21664,7 @@
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
     </row>
-    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="35"/>
       <c r="C302" s="79">
@@ -21660,7 +21699,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21693,7 +21732,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21726,7 +21765,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21759,7 +21798,7 @@
       <c r="AA305" s="1"/>
       <c r="AB305" s="1"/>
     </row>
-    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="20"/>
       <c r="C306" s="77">
@@ -21792,7 +21831,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21827,7 +21866,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -21860,7 +21899,7 @@
       <c r="AA308" s="1"/>
       <c r="AB308" s="1"/>
     </row>
-    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="33"/>
       <c r="C309" s="76">
@@ -21897,7 +21936,7 @@
       <c r="AA309" s="1"/>
       <c r="AB309" s="1"/>
     </row>
-    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:28" s="101" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="33"/>
       <c r="C310" s="76">
@@ -21912,9 +21951,7 @@
         <v>1</v>
       </c>
       <c r="G310" s="13"/>
-      <c r="H310" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="H310" s="8"/>
       <c r="I310" s="7"/>
       <c r="J310" s="7"/>
       <c r="K310" s="7"/>
@@ -21936,7 +21973,7 @@
       <c r="AA310" s="1"/>
       <c r="AB310" s="1"/>
     </row>
-    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="33"/>
       <c r="C311" s="76">
@@ -21969,7 +22006,7 @@
       <c r="AA311" s="1"/>
       <c r="AB311" s="1"/>
     </row>
-    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="33"/>
       <c r="C312" s="76">
@@ -22002,7 +22039,7 @@
       <c r="AA312" s="1"/>
       <c r="AB312" s="1"/>
     </row>
-    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="33"/>
       <c r="C313" s="76">
@@ -22041,7 +22078,7 @@
       <c r="AA313" s="1"/>
       <c r="AB313" s="1"/>
     </row>
-    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="33"/>
       <c r="C314" s="76">
@@ -22080,7 +22117,7 @@
       <c r="AA314" s="1"/>
       <c r="AB314" s="1"/>
     </row>
-    <row r="315" spans="1:28" s="101" customFormat="1" ht="28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:28" s="101" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="33"/>
       <c r="C315" s="76">
@@ -22123,7 +22160,7 @@
       <c r="AA315" s="1"/>
       <c r="AB315" s="1"/>
     </row>
-    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.5" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:28" s="101" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="33" t="s">
         <v>20</v>
@@ -22164,7 +22201,7 @@
       <c r="AA316" s="1"/>
       <c r="AB316" s="1"/>
     </row>
-    <row r="317" spans="1:28" s="101" customFormat="1" ht="13" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:28" s="101" customFormat="1" ht="12.95" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="33"/>
       <c r="C317" s="76">
@@ -22197,7 +22234,7 @@
       <c r="AA317" s="1"/>
       <c r="AB317" s="1"/>
     </row>
-    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.5" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:28" s="101" customFormat="1" ht="8.4499999999999993" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="33" t="s">
         <v>19</v>
@@ -22234,7 +22271,7 @@
       <c r="AA318" s="1"/>
       <c r="AB318" s="1"/>
     </row>
-    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="33"/>
       <c r="C319" s="76">
@@ -22269,7 +22306,7 @@
       <c r="AA319" s="1"/>
       <c r="AB319" s="1"/>
     </row>
-    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="33"/>
       <c r="C320" s="76">
@@ -22316,7 +22353,7 @@
       <c r="AA320" s="1"/>
       <c r="AB320" s="1"/>
     </row>
-    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:31" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="33"/>
       <c r="C321" s="76"/>
@@ -22355,7 +22392,7 @@
       <c r="AA321" s="1"/>
       <c r="AB321" s="1"/>
     </row>
-    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="33"/>
       <c r="C322" s="76">
@@ -22396,7 +22433,7 @@
       <c r="AA322" s="1"/>
       <c r="AB322" s="1"/>
     </row>
-    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:31" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="33"/>
       <c r="C323" s="76"/>
@@ -22438,7 +22475,7 @@
       <c r="AA323" s="1"/>
       <c r="AB323" s="1"/>
     </row>
-    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:31" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="33"/>
       <c r="C324" s="76">
@@ -22481,7 +22518,7 @@
       <c r="AA324" s="1"/>
       <c r="AB324" s="1"/>
     </row>
-    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="33"/>
       <c r="C325" s="76">
@@ -22524,7 +22561,7 @@
       <c r="AA325" s="1"/>
       <c r="AB325" s="1"/>
     </row>
-    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:31" s="131" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="33"/>
       <c r="C326" s="76">
@@ -22565,7 +22602,7 @@
       <c r="AA326" s="1"/>
       <c r="AB326" s="1"/>
     </row>
-    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:31" s="125" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="33"/>
       <c r="C327" s="76">
@@ -22579,13 +22616,13 @@
       <c r="H327" s="2"/>
       <c r="I327" s="56"/>
       <c r="J327" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K327" s="2" t="s">
         <v>115</v>
       </c>
       <c r="L327" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M327" s="2" t="s">
         <v>115</v>
@@ -22593,7 +22630,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
       <c r="P327" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q327" s="2" t="s">
         <v>115</v>
@@ -22613,7 +22650,7 @@
       <c r="AD327" s="130"/>
       <c r="AE327" s="130"/>
     </row>
-    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="33"/>
       <c r="C328" s="76">
@@ -22664,7 +22701,7 @@
       <c r="AA328" s="1"/>
       <c r="AB328" s="1"/>
     </row>
-    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="33"/>
       <c r="C329" s="76">
@@ -22709,7 +22746,7 @@
       <c r="AA329" s="1"/>
       <c r="AB329" s="1"/>
     </row>
-    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="33"/>
       <c r="C330" s="76">
@@ -22754,7 +22791,7 @@
       <c r="AA330" s="1"/>
       <c r="AB330" s="1"/>
     </row>
-    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="33"/>
       <c r="C331" s="76">
@@ -22799,7 +22836,7 @@
       <c r="AA331" s="1"/>
       <c r="AB331" s="1"/>
     </row>
-    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="33"/>
       <c r="C332" s="76">
@@ -22844,7 +22881,7 @@
       <c r="AA332" s="1"/>
       <c r="AB332" s="1"/>
     </row>
-    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="33"/>
       <c r="C333" s="76">
@@ -22889,7 +22926,7 @@
       <c r="AA333" s="1"/>
       <c r="AB333" s="1"/>
     </row>
-    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="33"/>
       <c r="C334" s="76">
@@ -22930,7 +22967,7 @@
       <c r="AA334" s="1"/>
       <c r="AB334" s="1"/>
     </row>
-    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:31" s="111" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="33"/>
       <c r="C335" s="76">
@@ -22971,7 +23008,7 @@
       <c r="AA335" s="1"/>
       <c r="AB335" s="1"/>
     </row>
-    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:31" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="33"/>
       <c r="C336" s="76">
@@ -23006,7 +23043,7 @@
       <c r="AA336" s="1"/>
       <c r="AB336" s="1"/>
     </row>
-    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="33"/>
       <c r="C337" s="76">
@@ -23041,7 +23078,7 @@
       <c r="AA337" s="1"/>
       <c r="AB337" s="1"/>
     </row>
-    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="33"/>
       <c r="C338" s="76">
@@ -23053,7 +23090,7 @@
       <c r="F338" s="5"/>
       <c r="G338" s="4"/>
       <c r="H338" s="107" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I338" s="2"/>
       <c r="J338" s="2"/>
@@ -23076,7 +23113,7 @@
       <c r="AA338" s="1"/>
       <c r="AB338" s="1"/>
     </row>
-    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="33"/>
       <c r="C339" s="76">
@@ -23090,22 +23127,22 @@
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
       <c r="J339" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K339" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="K339" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="L339" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N339" s="2" t="s">
         <v>102</v>
       </c>
       <c r="O339" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
@@ -23121,7 +23158,7 @@
       <c r="AA339" s="1"/>
       <c r="AB339" s="1"/>
     </row>
-    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="33"/>
       <c r="C340" s="76">
@@ -23135,26 +23172,26 @@
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
       <c r="J340" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K340" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K340" s="2" t="s">
+      <c r="L340" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L340" s="2" t="s">
+      <c r="M340" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M340" s="2" t="s">
+      <c r="N340" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="N340" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="O340" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P340" s="2"/>
       <c r="Q340" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
@@ -23168,7 +23205,7 @@
       <c r="AA340" s="1"/>
       <c r="AB340" s="1"/>
     </row>
-    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="33"/>
       <c r="C341" s="76">
@@ -23180,10 +23217,10 @@
       <c r="F341" s="5"/>
       <c r="G341" s="4"/>
       <c r="H341" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J341" s="31" t="b">
         <v>0</v>
@@ -23220,7 +23257,7 @@
       <c r="AA341" s="1"/>
       <c r="AB341" s="1"/>
     </row>
-    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="33"/>
       <c r="C342" s="76"/>
@@ -23229,7 +23266,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="4"/>
       <c r="H342" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I342" s="2"/>
       <c r="J342" s="132">
@@ -23270,7 +23307,7 @@
       <c r="AA342" s="1"/>
       <c r="AB342" s="1"/>
     </row>
-    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="33"/>
       <c r="C343" s="76">
@@ -23282,10 +23319,10 @@
       <c r="F343" s="5"/>
       <c r="G343" s="4"/>
       <c r="H343" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I343" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="I343" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="J343" s="31" t="b">
         <v>0</v>
@@ -23319,7 +23356,7 @@
       <c r="AA343" s="1"/>
       <c r="AB343" s="1"/>
     </row>
-    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="33"/>
       <c r="C344" s="76"/>
@@ -23328,7 +23365,7 @@
       <c r="F344" s="5"/>
       <c r="G344" s="4"/>
       <c r="H344" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I344" s="2"/>
       <c r="J344" s="31" t="b">
@@ -23363,7 +23400,7 @@
       <c r="AA344" s="1"/>
       <c r="AB344" s="1"/>
     </row>
-    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="33"/>
       <c r="C345" s="76">
@@ -23375,10 +23412,10 @@
       <c r="F345" s="5"/>
       <c r="G345" s="4"/>
       <c r="H345" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
@@ -23386,7 +23423,7 @@
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
       <c r="O345" s="166">
-        <v>43762</v>
+        <v>43755</v>
       </c>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
@@ -23402,7 +23439,7 @@
       <c r="AA345" s="1"/>
       <c r="AB345" s="1"/>
     </row>
-    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="33"/>
       <c r="C346" s="76">
@@ -23417,7 +23454,7 @@
       <c r="G346" s="4"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
@@ -23425,7 +23462,7 @@
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
       <c r="O346" s="166">
-        <v>43823</v>
+        <v>43826</v>
       </c>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
@@ -23441,7 +23478,7 @@
       <c r="AA346" s="1"/>
       <c r="AB346" s="1"/>
     </row>
-    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="33"/>
       <c r="C347" s="76">
@@ -23457,13 +23494,13 @@
       <c r="H347" s="2"/>
       <c r="I347" s="171"/>
       <c r="J347" s="172" t="s">
+        <v>284</v>
+      </c>
+      <c r="K347" s="172" t="s">
         <v>285</v>
       </c>
-      <c r="K347" s="172" t="s">
+      <c r="L347" s="172" t="s">
         <v>286</v>
-      </c>
-      <c r="L347" s="172" t="s">
-        <v>287</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -23482,7 +23519,7 @@
       <c r="AA347" s="1"/>
       <c r="AB347" s="1"/>
     </row>
-    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="33"/>
       <c r="C348" s="76"/>
@@ -23491,7 +23528,7 @@
       <c r="F348" s="5"/>
       <c r="G348" s="4"/>
       <c r="H348" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I348" s="171"/>
       <c r="J348" s="31">
@@ -23523,7 +23560,7 @@
       <c r="AA348" s="1"/>
       <c r="AB348" s="1"/>
     </row>
-    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="33"/>
       <c r="C349" s="76"/>
@@ -23553,7 +23590,7 @@
       <c r="AA349" s="1"/>
       <c r="AB349" s="1"/>
     </row>
-    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="33"/>
       <c r="C350" s="76">
@@ -23565,7 +23602,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="4"/>
       <c r="H350" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I350" s="2"/>
       <c r="J350" s="2"/>
@@ -23588,7 +23625,7 @@
       <c r="AA350" s="1"/>
       <c r="AB350" s="1"/>
     </row>
-    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="33"/>
       <c r="C351" s="76">
@@ -23602,16 +23639,16 @@
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
       <c r="J351" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K351" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L351" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="L351" s="2" t="s">
+      <c r="M351" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="M351" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="N351" s="2"/>
       <c r="O351" s="2"/>
@@ -23629,7 +23666,7 @@
       <c r="AA351" s="1"/>
       <c r="AB351" s="1"/>
     </row>
-    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="33"/>
       <c r="C352" s="76">
@@ -23643,22 +23680,22 @@
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
       <c r="J352" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K352" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="K352" s="2" t="s">
+      <c r="L352" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L352" s="2" t="s">
+      <c r="M352" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="M352" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
@@ -23672,7 +23709,7 @@
       <c r="AA352" s="1"/>
       <c r="AB352" s="1"/>
     </row>
-    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="33"/>
       <c r="C353" s="76">
@@ -23684,10 +23721,10 @@
       <c r="F353" s="5"/>
       <c r="G353" s="4"/>
       <c r="H353" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J353" s="31" t="b">
         <v>0</v>
@@ -23720,7 +23757,7 @@
       <c r="AA353" s="1"/>
       <c r="AB353" s="1"/>
     </row>
-    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="33"/>
       <c r="C354" s="76"/>
@@ -23729,7 +23766,7 @@
       <c r="F354" s="5"/>
       <c r="G354" s="4"/>
       <c r="H354" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I354" s="2"/>
       <c r="J354" s="132">
@@ -23764,7 +23801,7 @@
       <c r="AA354" s="1"/>
       <c r="AB354" s="1"/>
     </row>
-    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="33"/>
       <c r="C355" s="76">
@@ -23776,10 +23813,10 @@
       <c r="F355" s="5"/>
       <c r="G355" s="4"/>
       <c r="H355" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I355" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="J355" s="31" t="b">
         <v>0</v>
@@ -23809,7 +23846,7 @@
       <c r="AA355" s="1"/>
       <c r="AB355" s="1"/>
     </row>
-    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="33"/>
       <c r="C356" s="76">
@@ -23842,7 +23879,7 @@
       <c r="AA356" s="1"/>
       <c r="AB356" s="1"/>
     </row>
-    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="33"/>
       <c r="C357" s="76">
@@ -23877,7 +23914,7 @@
       <c r="AA357" s="1"/>
       <c r="AB357" s="1"/>
     </row>
-    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="33"/>
       <c r="C358" s="76">
@@ -23912,7 +23949,7 @@
       <c r="AA358" s="1"/>
       <c r="AB358" s="1"/>
     </row>
-    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:28" s="155" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="33"/>
       <c r="C359" s="76">
@@ -23947,7 +23984,7 @@
       <c r="AA359" s="1"/>
       <c r="AB359" s="1"/>
     </row>
-    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:28" s="155" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="33"/>
       <c r="C360" s="76">
@@ -23982,7 +24019,7 @@
       <c r="AA360" s="1"/>
       <c r="AB360" s="1"/>
     </row>
-    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="33"/>
       <c r="C361" s="76">
@@ -24017,7 +24054,7 @@
       <c r="AA361" s="1"/>
       <c r="AB361" s="1"/>
     </row>
-    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="33"/>
       <c r="C362" s="76">
@@ -24058,7 +24095,7 @@
       <c r="AA362" s="1"/>
       <c r="AB362" s="1"/>
     </row>
-    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="33"/>
       <c r="C363" s="76"/>
@@ -24069,42 +24106,42 @@
       <c r="H363" s="2"/>
       <c r="I363" s="149"/>
       <c r="J363" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="K363" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="K363" s="107" t="s">
+      <c r="L363" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="L363" s="107" t="s">
+      <c r="M363" s="107" t="s">
         <v>271</v>
-      </c>
-      <c r="M363" s="107" t="s">
-        <v>272</v>
       </c>
       <c r="N363" s="2"/>
       <c r="O363" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="P363" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="P363" s="107" t="s">
+      <c r="Q363" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="Q363" s="107" t="s">
+      <c r="R363" s="107" t="s">
         <v>271</v>
-      </c>
-      <c r="R363" s="107" t="s">
-        <v>272</v>
       </c>
       <c r="S363" s="2"/>
       <c r="T363" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="U363" s="107" t="s">
         <v>269</v>
       </c>
-      <c r="U363" s="107" t="s">
+      <c r="V363" s="107" t="s">
         <v>270</v>
       </c>
-      <c r="V363" s="107" t="s">
+      <c r="W363" s="107" t="s">
         <v>271</v>
-      </c>
-      <c r="W363" s="107" t="s">
-        <v>272</v>
       </c>
       <c r="X363" s="4"/>
       <c r="Y363" s="16"/>
@@ -24112,7 +24149,7 @@
       <c r="AA363" s="1"/>
       <c r="AB363" s="1"/>
     </row>
-    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:28" s="102" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="33"/>
       <c r="C364" s="76">
@@ -24126,7 +24163,7 @@
       <c r="F364" s="5"/>
       <c r="G364" s="4"/>
       <c r="H364" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I364" s="149"/>
       <c r="J364" s="162">
@@ -24173,7 +24210,7 @@
       <c r="AA364" s="1"/>
       <c r="AB364" s="1"/>
     </row>
-    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="33"/>
       <c r="C365" s="76">
@@ -24187,7 +24224,7 @@
       <c r="F365" s="5"/>
       <c r="G365" s="4"/>
       <c r="H365" s="61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I365" s="149"/>
       <c r="J365" s="149"/>
@@ -24226,7 +24263,7 @@
       <c r="AA365" s="1"/>
       <c r="AB365" s="1"/>
     </row>
-    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:28" s="130" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="33"/>
       <c r="C366" s="76">
@@ -24240,7 +24277,7 @@
       <c r="F366" s="5"/>
       <c r="G366" s="4"/>
       <c r="H366" s="61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I366" s="149"/>
       <c r="J366" s="149"/>
@@ -24279,7 +24316,7 @@
       <c r="AA366" s="1"/>
       <c r="AB366" s="1"/>
     </row>
-    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="33"/>
       <c r="C367" s="76"/>
@@ -24309,7 +24346,7 @@
       <c r="AA367" s="1"/>
       <c r="AB367" s="1"/>
     </row>
-    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:28" s="102" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="33"/>
       <c r="C368" s="76">
@@ -24344,7 +24381,7 @@
       <c r="AA368" s="1"/>
       <c r="AB368" s="1"/>
     </row>
-    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="33"/>
       <c r="C369" s="76">
@@ -24377,7 +24414,7 @@
       <c r="AA369" s="1"/>
       <c r="AB369" s="1"/>
     </row>
-    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="35"/>
       <c r="C370" s="79">
@@ -24412,7 +24449,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24445,7 +24482,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24478,7 +24515,7 @@
       <c r="AA372" s="1"/>
       <c r="AB372" s="1"/>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="69"/>
@@ -24508,7 +24545,7 @@
       <c r="AA373" s="1"/>
       <c r="AB373" s="1"/>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="69"/>
@@ -24538,7 +24575,7 @@
       <c r="AA374" s="1"/>
       <c r="AB374" s="1"/>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="69"/>
@@ -24568,7 +24605,7 @@
       <c r="AA375" s="1"/>
       <c r="AB375" s="1"/>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="69"/>
@@ -24598,7 +24635,7 @@
       <c r="AA376" s="1"/>
       <c r="AB376" s="1"/>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="69"/>
@@ -24628,7 +24665,7 @@
       <c r="AA377" s="1"/>
       <c r="AB377" s="1"/>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="69"/>
@@ -24658,7 +24695,7 @@
       <c r="AA378" s="1"/>
       <c r="AB378" s="1"/>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C379" s="75" t="s">
         <v>4</v>
       </c>
@@ -24793,22 +24830,22 @@
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" customWidth="1"/>
-    <col min="26" max="26" width="1.7265625" customWidth="1"/>
-    <col min="27" max="28" width="4.7265625" customWidth="1"/>
-    <col min="30" max="30" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="26" max="26" width="1.7109375" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -24840,7 +24877,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -24875,7 +24912,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="71">
@@ -24910,7 +24947,7 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -24947,7 +24984,7 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -25024,7 +25061,7 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="70">
@@ -25064,7 +25101,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -25105,7 +25142,7 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -25140,7 +25177,7 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -25175,7 +25212,7 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -25210,7 +25247,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -25245,7 +25282,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:30" ht="28" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -25284,7 +25321,7 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:30" ht="11.5" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -25321,7 +25358,7 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -25356,7 +25393,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33" t="s">
         <v>19</v>
@@ -25395,7 +25432,7 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33"/>
       <c r="C16" s="70">
@@ -25432,7 +25469,7 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
     </row>
-    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="70">
@@ -25469,7 +25506,7 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
     </row>
-    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -25510,7 +25547,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -25545,7 +25582,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -25580,7 +25617,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -25621,7 +25658,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -25656,7 +25693,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -25691,7 +25728,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -25728,7 +25765,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -25765,7 +25802,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -25814,7 +25851,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -25853,7 +25890,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -25892,7 +25929,7 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -25931,7 +25968,7 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
     </row>
-    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -25970,7 +26007,7 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
     </row>
-    <row r="31" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -26007,7 +26044,7 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -26044,7 +26081,7 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="33"/>
       <c r="C33" s="70">
@@ -26105,7 +26142,7 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="33"/>
       <c r="C34" s="70">
@@ -26170,7 +26207,7 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="33"/>
       <c r="C35" s="70">
@@ -26205,7 +26242,7 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="33"/>
       <c r="C36" s="70">
@@ -26240,7 +26277,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="33"/>
       <c r="C37" s="70">
@@ -26275,7 +26312,7 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" ht="5.15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="33"/>
       <c r="C38" s="70">
@@ -26312,7 +26349,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="70">
@@ -26347,7 +26384,7 @@
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="35"/>
       <c r="C40" s="73">
@@ -26384,7 +26421,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
       <c r="C41" s="74">
@@ -26419,7 +26456,7 @@
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="70">
@@ -26454,7 +26491,7 @@
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="69"/>
@@ -26486,7 +26523,7 @@
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="69"/>
@@ -26518,7 +26555,7 @@
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="69"/>
@@ -26550,7 +26587,7 @@
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="69"/>
@@ -26582,7 +26619,7 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="69"/>
@@ -26614,7 +26651,7 @@
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="69"/>
@@ -26646,7 +26683,7 @@
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="75" t="s">
         <v>4</v>
       </c>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3F5D0-24BD-48BE-964A-2F624F4DFB95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876BE77F-477E-4922-901A-72E8EA25B174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="450" windowWidth="28305" windowHeight="14565" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -156,7 +156,7 @@
     <definedName name="ZA.WidthCol" localSheetId="2">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="2">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -804,7 +804,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -813,7 +813,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 these inputs cant be changed without modifying the condense formula.</t>
@@ -828,7 +828,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -837,7 +837,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 these inputs can't be changed without modifying the condense formula.</t>
@@ -852,7 +852,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Michael Young (21512438):</t>
         </r>
@@ -861,7 +861,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 these inputs can't be changed without modifying the condense formula.</t>
@@ -2147,7 +2147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2344,19 +2344,6 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -7327,7 +7314,7 @@
   <dimension ref="A1:AE379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="O346" sqref="O346"/>
+      <selection activeCell="L329" sqref="L329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -22721,7 +22708,7 @@
       <c r="J329" s="54"/>
       <c r="K329" s="54"/>
       <c r="L329" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M329" s="31">
         <v>0.5</v>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876BE77F-477E-4922-901A-72E8EA25B174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BC0B00-E229-475B-BBCF-417BEF2FE239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <definedName name="i_n3_matrix_len">Stock!$P$326</definedName>
     <definedName name="i_numbers_min_b1">Stock!$L$163:$V$163</definedName>
     <definedName name="i_nut_spread_n0">Stock!$J$328</definedName>
-    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$330</definedName>
+    <definedName name="i_nut_spread_n1">Stock!$L$328:$L$329</definedName>
     <definedName name="i_nut_spread_n3">Stock!$P$328:$P$330</definedName>
     <definedName name="i_p_pos">Stock!$I$64</definedName>
     <definedName name="i_prejoin_offset">Stock!$I$74</definedName>
@@ -156,7 +156,7 @@
     <definedName name="ZA.WidthCol" localSheetId="2">Admin!$L$26</definedName>
     <definedName name="ZA.ZoomSheet" localSheetId="2">Admin!$O$26</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="1" calcOnSave="0"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="294">
   <si>
     <t>Controls for this worksheet</t>
   </si>
@@ -2138,6 +2138,10 @@
   </si>
   <si>
     <t xml:space="preserve">         Therefore think about the final sale date relative to 1 Jan, rather than the age of the animal</t>
+  </si>
+  <si>
+    <t>22Mar21: Alter the initial weight &amp; wool spread for the weaners
+1: 1Apr19-Blank worksheet</t>
   </si>
 </sst>
 </file>
@@ -3285,7 +3289,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="3">
@@ -3762,6 +3766,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="25" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Accent2" xfId="33" builtinId="33" customBuiltin="1"/>
@@ -3808,7 +3816,21 @@
     <cellStyle name="Warning Text" xfId="21" builtinId="11" customBuiltin="1"/>
     <cellStyle name="WorksheetBackground" xfId="38" xr:uid="{D9586848-0E78-42E2-92FA-4C5FBD9E7440}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7313,8 +7335,8 @@
   </sheetPr>
   <dimension ref="A1:AE379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="L329" sqref="L329"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="O364" sqref="O364:R366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
@@ -7333,7 +7355,7 @@
     <col min="28" max="28" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="69"/>
@@ -7363,7 +7385,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="70">
@@ -7429,7 +7451,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -7464,7 +7486,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="70">
@@ -7573,7 +7595,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="70">
@@ -7612,7 +7634,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="70">
@@ -7645,7 +7667,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="70">
@@ -7678,7 +7700,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="70">
@@ -7711,7 +7733,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="70">
@@ -7744,7 +7766,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="70">
@@ -7781,7 +7803,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="11.45" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -7816,7 +7838,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="70">
@@ -7849,7 +7871,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="70">
@@ -7954,7 +7976,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="70">
@@ -7993,7 +8015,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="70">
@@ -8026,7 +8048,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="70">
@@ -8059,7 +8081,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="70">
@@ -8073,11 +8095,11 @@
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="23">
-        <v>1</v>
+      <c r="I21" s="190">
+        <v>44277</v>
       </c>
       <c r="J21" s="177" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="K21" s="178"/>
       <c r="L21" s="178"/>
@@ -8098,7 +8120,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="70">
@@ -8131,7 +8153,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="70">
@@ -8164,7 +8186,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="70">
@@ -8199,7 +8221,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="70">
@@ -8234,7 +8256,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="70">
@@ -8281,7 +8303,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="70">
@@ -8318,7 +8340,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="70">
@@ -8355,7 +8377,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="70">
@@ -8392,7 +8414,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="70">
@@ -8429,7 +8451,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="70">
@@ -8464,7 +8486,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="70">
@@ -8532,7 +8554,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="74">
@@ -8565,7 +8587,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="70">
@@ -8598,7 +8620,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="76">
@@ -8664,7 +8686,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -8699,7 +8721,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="76">
@@ -8769,7 +8791,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" s="142" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="76">
@@ -8806,7 +8828,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="76">
@@ -8839,7 +8861,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="76">
@@ -8872,7 +8894,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="76">
@@ -8905,7 +8927,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="76">
@@ -8938,7 +8960,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" s="142" customFormat="1" ht="30" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="76">
@@ -8981,7 +9003,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" s="142" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -9016,7 +9038,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="76">
@@ -9049,7 +9071,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="142" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -9086,7 +9108,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="76">
@@ -9121,7 +9143,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="76">
@@ -9156,7 +9178,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="76"/>
@@ -9190,7 +9212,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="76"/>
@@ -9224,7 +9246,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="76"/>
@@ -9258,7 +9280,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="76"/>
@@ -9292,7 +9314,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="33"/>
       <c r="C56" s="76"/>
@@ -9326,7 +9348,7 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
     </row>
-    <row r="57" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="33"/>
       <c r="C57" s="76"/>
@@ -9360,7 +9382,7 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
     </row>
-    <row r="58" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="33"/>
       <c r="C58" s="76"/>
@@ -9394,7 +9416,7 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
     </row>
-    <row r="59" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="33"/>
       <c r="C59" s="76"/>
@@ -9428,7 +9450,7 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="33"/>
       <c r="C60" s="76"/>
@@ -9462,7 +9484,7 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
     </row>
-    <row r="61" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="33"/>
       <c r="C61" s="76"/>
@@ -9496,7 +9518,7 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
     </row>
-    <row r="62" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="33"/>
       <c r="C62" s="76"/>
@@ -9530,7 +9552,7 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="33"/>
       <c r="C63" s="76"/>
@@ -9564,7 +9586,7 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
     </row>
-    <row r="64" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="33"/>
       <c r="C64" s="76"/>
@@ -9598,7 +9620,7 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" s="113" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" s="113" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="33"/>
       <c r="C65" s="76">
@@ -9637,7 +9659,7 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
     </row>
-    <row r="66" spans="1:28" s="105" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="33"/>
       <c r="C66" s="76">
@@ -9674,7 +9696,7 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
     </row>
-    <row r="67" spans="1:28" s="105" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="105" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="33"/>
       <c r="C67" s="76">
@@ -9711,7 +9733,7 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" s="129" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" s="129" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="33"/>
       <c r="C68" s="76">
@@ -9748,7 +9770,7 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
     </row>
-    <row r="69" spans="1:28" s="145" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" s="145" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="33"/>
       <c r="C69" s="76">
@@ -9781,7 +9803,7 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
     </row>
-    <row r="70" spans="1:28" s="109" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" s="109" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="33"/>
       <c r="C70" s="76">
@@ -9818,7 +9840,7 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
     </row>
-    <row r="71" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="33"/>
       <c r="C71" s="76">
@@ -9859,7 +9881,7 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
     </row>
-    <row r="72" spans="1:28" s="154" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" s="154" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="33"/>
       <c r="C72" s="76">
@@ -9900,7 +9922,7 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
     </row>
-    <row r="73" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="33"/>
       <c r="C73" s="76"/>
@@ -9930,7 +9952,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
     </row>
-    <row r="74" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="33"/>
       <c r="C74" s="76"/>
@@ -9966,7 +9988,7 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
     </row>
-    <row r="75" spans="1:28" s="155" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" s="155" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="33"/>
       <c r="C75" s="76"/>
@@ -9996,7 +10018,7 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
     </row>
-    <row r="76" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="33"/>
       <c r="C76" s="76">
@@ -10031,7 +10053,7 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
     </row>
-    <row r="77" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="33"/>
       <c r="C77" s="76">
@@ -10072,7 +10094,7 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
     </row>
-    <row r="78" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="33"/>
       <c r="C78" s="76">
@@ -10113,7 +10135,7 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
     </row>
-    <row r="79" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="101" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="33"/>
       <c r="C79" s="76">
@@ -10146,7 +10168,7 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
     </row>
-    <row r="80" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="33"/>
       <c r="C80" s="76">
@@ -10183,7 +10205,7 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
     </row>
-    <row r="81" spans="1:28" s="152" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" s="152" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="33"/>
       <c r="C81" s="76">
@@ -10216,7 +10238,7 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
     </row>
-    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="33"/>
       <c r="C82" s="76">
@@ -10251,7 +10273,7 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
     </row>
-    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="33"/>
       <c r="C83" s="76">
@@ -10319,7 +10341,7 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
     </row>
-    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="19"/>
       <c r="C85" s="80">
@@ -10352,7 +10374,7 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
     </row>
-    <row r="86" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="76">
@@ -10385,7 +10407,7 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
     </row>
-    <row r="87" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="76">
@@ -10451,7 +10473,7 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
     </row>
-    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="34" t="s">
         <v>21</v>
@@ -10486,7 +10508,7 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
     </row>
-    <row r="90" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="33"/>
       <c r="C90" s="76">
@@ -10556,7 +10578,7 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
     </row>
-    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="33"/>
       <c r="C92" s="76">
@@ -10593,7 +10615,7 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
     </row>
-    <row r="93" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="33"/>
       <c r="C93" s="76">
@@ -10626,7 +10648,7 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
     </row>
-    <row r="94" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="33"/>
       <c r="C94" s="76">
@@ -10659,7 +10681,7 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
     </row>
-    <row r="95" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="33"/>
       <c r="C95" s="76">
@@ -10692,7 +10714,7 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
     </row>
-    <row r="96" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="33"/>
       <c r="C96" s="76">
@@ -10731,7 +10753,7 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
     </row>
-    <row r="97" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="33"/>
       <c r="C97" s="76">
@@ -10780,7 +10802,7 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
     </row>
-    <row r="98" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="33" t="s">
         <v>20</v>
@@ -10815,7 +10837,7 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
     </row>
-    <row r="99" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="33"/>
       <c r="C99" s="76">
@@ -10848,7 +10870,7 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
     </row>
-    <row r="100" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="33" t="s">
         <v>19</v>
@@ -10885,7 +10907,7 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
     </row>
-    <row r="101" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="33"/>
       <c r="C101" s="76">
@@ -10920,7 +10942,7 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
     </row>
-    <row r="102" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="33"/>
       <c r="C102" s="76">
@@ -10973,7 +10995,7 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
     </row>
-    <row r="103" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="33"/>
       <c r="C103" s="76">
@@ -11024,7 +11046,7 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
     </row>
-    <row r="104" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="33"/>
       <c r="C104" s="76">
@@ -11075,7 +11097,7 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
     </row>
-    <row r="105" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="33"/>
       <c r="C105" s="76">
@@ -11108,7 +11130,7 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
     </row>
-    <row r="106" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="33"/>
       <c r="C106" s="76">
@@ -11159,7 +11181,7 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
     </row>
-    <row r="107" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="33"/>
       <c r="C107" s="76">
@@ -11208,7 +11230,7 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
     </row>
-    <row r="108" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="33"/>
       <c r="C108" s="76">
@@ -11257,7 +11279,7 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
     </row>
-    <row r="109" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="33"/>
       <c r="C109" s="76">
@@ -11306,7 +11328,7 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
     </row>
-    <row r="110" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="33"/>
       <c r="C110" s="76">
@@ -11339,7 +11361,7 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
     </row>
-    <row r="111" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="33"/>
       <c r="C111" s="76">
@@ -11390,7 +11412,7 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
     </row>
-    <row r="112" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="33"/>
       <c r="C112" s="76">
@@ -11439,7 +11461,7 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
     </row>
-    <row r="113" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="33"/>
       <c r="C113" s="76">
@@ -11488,7 +11510,7 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
     </row>
-    <row r="114" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="33"/>
       <c r="C114" s="76">
@@ -11537,7 +11559,7 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
     </row>
-    <row r="115" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="33"/>
       <c r="C115" s="76">
@@ -11570,7 +11592,7 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
     </row>
-    <row r="116" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="33"/>
       <c r="C116" s="76">
@@ -11621,7 +11643,7 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
     </row>
-    <row r="117" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="33"/>
       <c r="C117" s="76">
@@ -11670,7 +11692,7 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
     </row>
-    <row r="118" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="33"/>
       <c r="C118" s="76">
@@ -11719,7 +11741,7 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
     </row>
-    <row r="119" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="33"/>
       <c r="C119" s="76">
@@ -11768,7 +11790,7 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
     </row>
-    <row r="120" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="33"/>
       <c r="C120" s="76">
@@ -11801,7 +11823,7 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
     </row>
-    <row r="121" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="33"/>
       <c r="C121" s="76">
@@ -11836,7 +11858,7 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
     </row>
-    <row r="122" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="33"/>
       <c r="C122" s="76">
@@ -11877,7 +11899,7 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
     </row>
-    <row r="123" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="33"/>
       <c r="C123" s="76">
@@ -11925,7 +11947,7 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
     </row>
-    <row r="124" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="33"/>
       <c r="C124" s="76">
@@ -11971,7 +11993,7 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
     </row>
-    <row r="125" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="33"/>
       <c r="C125" s="76">
@@ -12014,7 +12036,7 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
     </row>
-    <row r="126" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="33"/>
       <c r="C126" s="76">
@@ -12047,7 +12069,7 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
     </row>
-    <row r="127" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="33"/>
       <c r="C127" s="76">
@@ -12094,7 +12116,7 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
     </row>
-    <row r="128" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" s="151" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="33"/>
       <c r="C128" s="76">
@@ -12139,7 +12161,7 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
     </row>
-    <row r="129" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="33"/>
       <c r="C129" s="76">
@@ -12182,7 +12204,7 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
     </row>
-    <row r="130" spans="1:28" s="151" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" s="151" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="33"/>
       <c r="C130" s="76">
@@ -12215,7 +12237,7 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
     </row>
-    <row r="131" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="33"/>
       <c r="C131" s="76">
@@ -12250,7 +12272,7 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
     </row>
-    <row r="132" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="33"/>
       <c r="C132" s="76">
@@ -12318,7 +12340,7 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
     </row>
-    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="19"/>
       <c r="C134" s="80">
@@ -12351,7 +12373,7 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
     </row>
-    <row r="135" spans="1:28" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="76">
@@ -12384,7 +12406,7 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
     </row>
-    <row r="136" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="76">
@@ -12450,7 +12472,7 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
     </row>
-    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="34" t="s">
         <v>21</v>
@@ -12485,7 +12507,7 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
     </row>
-    <row r="139" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="33"/>
       <c r="C139" s="76">
@@ -12555,7 +12577,7 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
     </row>
-    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="33"/>
       <c r="C141" s="76">
@@ -12592,7 +12614,7 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
     </row>
-    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="33"/>
       <c r="C142" s="76">
@@ -12625,7 +12647,7 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
     </row>
-    <row r="143" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="33"/>
       <c r="C143" s="76">
@@ -12658,7 +12680,7 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
     </row>
-    <row r="144" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="33"/>
       <c r="C144" s="76">
@@ -12693,7 +12715,7 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
     </row>
-    <row r="145" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="33"/>
       <c r="C145" s="76">
@@ -12728,7 +12750,7 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
     </row>
-    <row r="146" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="33"/>
       <c r="C146" s="76">
@@ -12783,7 +12805,7 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
     </row>
-    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" s="99" customFormat="1" ht="11.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="33" t="s">
         <v>20</v>
@@ -12818,7 +12840,7 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
     </row>
-    <row r="148" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="33"/>
       <c r="C148" s="76">
@@ -12873,7 +12895,7 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
     </row>
-    <row r="149" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" s="99" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="33" t="s">
         <v>19</v>
@@ -12910,7 +12932,7 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
     </row>
-    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="33"/>
       <c r="C150" s="76">
@@ -12945,7 +12967,7 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
     </row>
-    <row r="151" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="33"/>
       <c r="C151" s="76">
@@ -12980,7 +13002,7 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
     </row>
-    <row r="152" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="33"/>
       <c r="C152" s="76">
@@ -13019,7 +13041,7 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
     </row>
-    <row r="153" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="33"/>
       <c r="C153" s="76">
@@ -13078,7 +13100,7 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
     </row>
-    <row r="154" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="33"/>
       <c r="C154" s="76">
@@ -13135,7 +13157,7 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
     </row>
-    <row r="155" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="33"/>
       <c r="C155" s="76">
@@ -13172,7 +13194,7 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
     </row>
-    <row r="156" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="33"/>
       <c r="C156" s="76">
@@ -13229,7 +13251,7 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
     </row>
-    <row r="157" spans="1:28" s="150" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" s="150" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="33"/>
       <c r="C157" s="76">
@@ -13288,7 +13310,7 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
     </row>
-    <row r="158" spans="1:28" s="124" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="33"/>
       <c r="C158" s="76">
@@ -13345,7 +13367,7 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
     </row>
-    <row r="159" spans="1:28" s="124" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" s="124" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="33"/>
       <c r="C159" s="76">
@@ -13402,7 +13424,7 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
     </row>
-    <row r="160" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="33"/>
       <c r="C160" s="76">
@@ -13459,7 +13481,7 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
     </row>
-    <row r="161" spans="1:31" s="99" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:31" s="99" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="33"/>
       <c r="C161" s="76">
@@ -13516,7 +13538,7 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
     </row>
-    <row r="162" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="33"/>
       <c r="C162" s="76">
@@ -13576,7 +13598,7 @@
       <c r="AD162" s="130"/>
       <c r="AE162" s="130"/>
     </row>
-    <row r="163" spans="1:31" s="146" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:31" s="146" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="33"/>
       <c r="C163" s="76">
@@ -13633,7 +13655,7 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
     </row>
-    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="33"/>
       <c r="C164" s="76">
@@ -13669,7 +13691,7 @@
       <c r="AD164" s="130"/>
       <c r="AE164" s="130"/>
     </row>
-    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:31" s="113" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="33"/>
       <c r="C165" s="76">
@@ -13732,7 +13754,7 @@
       <c r="AD165" s="130"/>
       <c r="AE165" s="130"/>
     </row>
-    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:31" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="33"/>
       <c r="C166" s="76">
@@ -13770,7 +13792,7 @@
       <c r="AD166" s="130"/>
       <c r="AE166" s="130"/>
     </row>
-    <row r="167" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:31" s="112" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="33"/>
       <c r="C167" s="76">
@@ -13824,7 +13846,7 @@
       <c r="AD167" s="130"/>
       <c r="AE167" s="130"/>
     </row>
-    <row r="168" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="33"/>
       <c r="C168" s="76">
@@ -13887,7 +13909,7 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
     </row>
-    <row r="169" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="33"/>
       <c r="C169" s="76">
@@ -13948,7 +13970,7 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
     </row>
-    <row r="170" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="33"/>
       <c r="C170" s="76">
@@ -14007,7 +14029,7 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
     </row>
-    <row r="171" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="33"/>
       <c r="C171" s="76">
@@ -14066,7 +14088,7 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
     </row>
-    <row r="172" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="33"/>
       <c r="C172" s="76">
@@ -14125,7 +14147,7 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
     </row>
-    <row r="173" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="33"/>
       <c r="C173" s="76">
@@ -14186,7 +14208,7 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
     </row>
-    <row r="174" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="33"/>
       <c r="C174" s="76">
@@ -14247,7 +14269,7 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
     </row>
-    <row r="175" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="33"/>
       <c r="C175" s="76">
@@ -14306,7 +14328,7 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
     </row>
-    <row r="176" spans="1:31" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:31" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="33"/>
       <c r="C176" s="76">
@@ -14365,7 +14387,7 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
     </row>
-    <row r="177" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="33"/>
       <c r="C177" s="76">
@@ -14424,7 +14446,7 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
     </row>
-    <row r="178" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="33"/>
       <c r="C178" s="76">
@@ -14485,7 +14507,7 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
     </row>
-    <row r="179" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="33"/>
       <c r="C179" s="76">
@@ -14546,7 +14568,7 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
     </row>
-    <row r="180" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="33"/>
       <c r="C180" s="76">
@@ -14605,7 +14627,7 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
     </row>
-    <row r="181" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="33"/>
       <c r="C181" s="76">
@@ -14662,7 +14684,7 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
     </row>
-    <row r="182" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="33"/>
       <c r="C182" s="76">
@@ -14721,7 +14743,7 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
     </row>
-    <row r="183" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="33"/>
       <c r="C183" s="76">
@@ -14782,7 +14804,7 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
     </row>
-    <row r="184" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="33"/>
       <c r="C184" s="76">
@@ -14843,7 +14865,7 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
     </row>
-    <row r="185" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="33"/>
       <c r="C185" s="76">
@@ -14902,7 +14924,7 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
     </row>
-    <row r="186" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="33"/>
       <c r="C186" s="76">
@@ -14961,7 +14983,7 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
     </row>
-    <row r="187" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="33"/>
       <c r="C187" s="76">
@@ -15020,7 +15042,7 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
     </row>
-    <row r="188" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="33"/>
       <c r="C188" s="76">
@@ -15083,7 +15105,7 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
     </row>
-    <row r="189" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="33"/>
       <c r="C189" s="76">
@@ -15142,7 +15164,7 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
     </row>
-    <row r="190" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="33"/>
       <c r="C190" s="76">
@@ -15199,7 +15221,7 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
     </row>
-    <row r="191" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="33"/>
       <c r="C191" s="76">
@@ -15256,7 +15278,7 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
     </row>
-    <row r="192" spans="1:28" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="33"/>
       <c r="C192" s="76">
@@ -15313,7 +15335,7 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
     </row>
-    <row r="193" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="33"/>
       <c r="C193" s="76">
@@ -15372,7 +15394,7 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
     </row>
-    <row r="194" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="33"/>
       <c r="C194" s="76">
@@ -15429,7 +15451,7 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
     </row>
-    <row r="195" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="33"/>
       <c r="C195" s="76">
@@ -15486,7 +15508,7 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
     </row>
-    <row r="196" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="33"/>
       <c r="C196" s="76">
@@ -15543,7 +15565,7 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
     </row>
-    <row r="197" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="33"/>
       <c r="C197" s="76">
@@ -15600,7 +15622,7 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
     </row>
-    <row r="198" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="33"/>
       <c r="C198" s="76">
@@ -15659,7 +15681,7 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
     </row>
-    <row r="199" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="33"/>
       <c r="C199" s="76">
@@ -15716,7 +15738,7 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
     </row>
-    <row r="200" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="33"/>
       <c r="C200" s="76">
@@ -15773,7 +15795,7 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
     </row>
-    <row r="201" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="33"/>
       <c r="C201" s="76">
@@ -15830,7 +15852,7 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
     </row>
-    <row r="202" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="33"/>
       <c r="C202" s="76">
@@ -15887,7 +15909,7 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
     </row>
-    <row r="203" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="33"/>
       <c r="C203" s="76">
@@ -15946,7 +15968,7 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
     </row>
-    <row r="204" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="33"/>
       <c r="C204" s="76">
@@ -16003,7 +16025,7 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
     </row>
-    <row r="205" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="33"/>
       <c r="C205" s="76">
@@ -16060,7 +16082,7 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
     </row>
-    <row r="206" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="33"/>
       <c r="C206" s="76">
@@ -16117,7 +16139,7 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
     </row>
-    <row r="207" spans="1:30" s="112" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" s="112" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="33"/>
       <c r="C207" s="76">
@@ -16174,7 +16196,7 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
     </row>
-    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" s="113" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="33"/>
       <c r="C208" s="76">
@@ -16209,7 +16231,7 @@
       <c r="AC208" s="130"/>
       <c r="AD208" s="130"/>
     </row>
-    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="33"/>
       <c r="C209" s="76">
@@ -16269,7 +16291,7 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
     </row>
-    <row r="210" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="33"/>
       <c r="C210" s="76">
@@ -16339,7 +16361,7 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
     </row>
-    <row r="211" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="33"/>
       <c r="C211" s="76">
@@ -16409,7 +16431,7 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
     </row>
-    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="33"/>
       <c r="C212" s="76">
@@ -16444,7 +16466,7 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
     </row>
-    <row r="213" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="33"/>
       <c r="C213" s="76">
@@ -16495,7 +16517,7 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
     </row>
-    <row r="214" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="33"/>
       <c r="C214" s="76">
@@ -16558,7 +16580,7 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
     </row>
-    <row r="215" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="33"/>
       <c r="C215" s="76">
@@ -16621,7 +16643,7 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
     </row>
-    <row r="216" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="33"/>
       <c r="C216" s="76">
@@ -16678,7 +16700,7 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
     </row>
-    <row r="217" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="33"/>
       <c r="C217" s="76">
@@ -16737,7 +16759,7 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
     </row>
-    <row r="218" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="33"/>
       <c r="C218" s="76">
@@ -16796,7 +16818,7 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
     </row>
-    <row r="219" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="33"/>
       <c r="C219" s="76">
@@ -16857,7 +16879,7 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
     </row>
-    <row r="220" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="33"/>
       <c r="C220" s="76">
@@ -16918,7 +16940,7 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
     </row>
-    <row r="221" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="33"/>
       <c r="C221" s="76">
@@ -16975,7 +16997,7 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
     </row>
-    <row r="222" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="33"/>
       <c r="C222" s="76">
@@ -17032,7 +17054,7 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
     </row>
-    <row r="223" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="33"/>
       <c r="C223" s="76">
@@ -17089,7 +17111,7 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
     </row>
-    <row r="224" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="33"/>
       <c r="C224" s="76">
@@ -17148,7 +17170,7 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
     </row>
-    <row r="225" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="33"/>
       <c r="C225" s="76">
@@ -17207,7 +17229,7 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
     </row>
-    <row r="226" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="33"/>
       <c r="C226" s="76">
@@ -17264,7 +17286,7 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
     </row>
-    <row r="227" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="33"/>
       <c r="C227" s="76">
@@ -17321,7 +17343,7 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
     </row>
-    <row r="228" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="33"/>
       <c r="C228" s="76">
@@ -17378,7 +17400,7 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
     </row>
-    <row r="229" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="33"/>
       <c r="C229" s="76">
@@ -17437,7 +17459,7 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
     </row>
-    <row r="230" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="33"/>
       <c r="C230" s="76">
@@ -17496,7 +17518,7 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
     </row>
-    <row r="231" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="33"/>
       <c r="C231" s="76">
@@ -17553,7 +17575,7 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
     </row>
-    <row r="232" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="33"/>
       <c r="C232" s="76">
@@ -17610,7 +17632,7 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
     </row>
-    <row r="233" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="33"/>
       <c r="C233" s="76">
@@ -17667,7 +17689,7 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
     </row>
-    <row r="234" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="33"/>
       <c r="C234" s="76">
@@ -17737,7 +17759,7 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
     </row>
-    <row r="235" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="33"/>
       <c r="C235" s="76">
@@ -17804,7 +17826,7 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
     </row>
-    <row r="236" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="33"/>
       <c r="C236" s="76">
@@ -17867,7 +17889,7 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
     </row>
-    <row r="237" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="33"/>
       <c r="C237" s="76">
@@ -17930,7 +17952,7 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
     </row>
-    <row r="238" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="33"/>
       <c r="C238" s="76">
@@ -17997,7 +18019,7 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
     </row>
-    <row r="239" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="33"/>
       <c r="C239" s="76">
@@ -18066,7 +18088,7 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
     </row>
-    <row r="240" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="33"/>
       <c r="C240" s="76">
@@ -18133,7 +18155,7 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
     </row>
-    <row r="241" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="33"/>
       <c r="C241" s="76">
@@ -18200,7 +18222,7 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
     </row>
-    <row r="242" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="33"/>
       <c r="C242" s="76">
@@ -18267,7 +18289,7 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
     </row>
-    <row r="243" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="33"/>
       <c r="C243" s="76">
@@ -18334,7 +18356,7 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
     </row>
-    <row r="244" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="33"/>
       <c r="C244" s="76">
@@ -18403,7 +18425,7 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
     </row>
-    <row r="245" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="33"/>
       <c r="C245" s="76">
@@ -18470,7 +18492,7 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
     </row>
-    <row r="246" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="33"/>
       <c r="C246" s="76">
@@ -18537,7 +18559,7 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
     </row>
-    <row r="247" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="33"/>
       <c r="C247" s="76">
@@ -18604,7 +18626,7 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
     </row>
-    <row r="248" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="33"/>
       <c r="C248" s="76">
@@ -18671,7 +18693,7 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
     </row>
-    <row r="249" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="33"/>
       <c r="C249" s="76">
@@ -18740,7 +18762,7 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
     </row>
-    <row r="250" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="33"/>
       <c r="C250" s="76">
@@ -18807,7 +18829,7 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
     </row>
-    <row r="251" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="33"/>
       <c r="C251" s="76">
@@ -18874,7 +18896,7 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
     </row>
-    <row r="252" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="33"/>
       <c r="C252" s="76">
@@ -18941,7 +18963,7 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
     </row>
-    <row r="253" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="33"/>
       <c r="C253" s="76">
@@ -19008,7 +19030,7 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
     </row>
-    <row r="254" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="33"/>
       <c r="C254" s="76">
@@ -19069,7 +19091,7 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
     </row>
-    <row r="255" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="33"/>
       <c r="C255" s="76">
@@ -19126,7 +19148,7 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
     </row>
-    <row r="256" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="33"/>
       <c r="C256" s="76">
@@ -19183,7 +19205,7 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
     </row>
-    <row r="257" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="33"/>
       <c r="C257" s="76">
@@ -19240,7 +19262,7 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
     </row>
-    <row r="258" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="33"/>
       <c r="C258" s="76">
@@ -19297,7 +19319,7 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
     </row>
-    <row r="259" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="33"/>
       <c r="C259" s="76">
@@ -19366,7 +19388,7 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
     </row>
-    <row r="260" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="33"/>
       <c r="C260" s="76">
@@ -19433,7 +19455,7 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
     </row>
-    <row r="261" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="33"/>
       <c r="C261" s="76">
@@ -19500,7 +19522,7 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
     </row>
-    <row r="262" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="33"/>
       <c r="C262" s="76">
@@ -19567,7 +19589,7 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
     </row>
-    <row r="263" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="33"/>
       <c r="C263" s="76">
@@ -19634,7 +19656,7 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
     </row>
-    <row r="264" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="33"/>
       <c r="C264" s="76">
@@ -19693,7 +19715,7 @@
       <c r="AA264" s="1"/>
       <c r="AB264" s="1"/>
     </row>
-    <row r="265" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="33"/>
       <c r="C265" s="76">
@@ -19755,7 +19777,7 @@
       <c r="AA265" s="1"/>
       <c r="AB265" s="1"/>
     </row>
-    <row r="266" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="33"/>
       <c r="C266" s="76">
@@ -19816,7 +19838,7 @@
       <c r="AA266" s="1"/>
       <c r="AB266" s="1"/>
     </row>
-    <row r="267" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="33"/>
       <c r="C267" s="76">
@@ -19876,7 +19898,7 @@
       <c r="AA267" s="1"/>
       <c r="AB267" s="1"/>
     </row>
-    <row r="268" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="33"/>
       <c r="C268" s="76">
@@ -19943,7 +19965,7 @@
       <c r="AA268" s="1"/>
       <c r="AB268" s="1"/>
     </row>
-    <row r="269" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="33"/>
       <c r="C269" s="76">
@@ -20008,7 +20030,7 @@
       <c r="AA269" s="1"/>
       <c r="AB269" s="1"/>
     </row>
-    <row r="270" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="33"/>
       <c r="C270" s="76">
@@ -20070,7 +20092,7 @@
       <c r="AA270" s="1"/>
       <c r="AB270" s="1"/>
     </row>
-    <row r="271" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="33"/>
       <c r="C271" s="76">
@@ -20130,7 +20152,7 @@
       <c r="AA271" s="1"/>
       <c r="AB271" s="1"/>
     </row>
-    <row r="272" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="33"/>
       <c r="C272" s="76">
@@ -20187,7 +20209,7 @@
       <c r="AA272" s="1"/>
       <c r="AB272" s="1"/>
     </row>
-    <row r="273" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="33"/>
       <c r="C273" s="76">
@@ -20254,7 +20276,7 @@
       <c r="AA273" s="1"/>
       <c r="AB273" s="1"/>
     </row>
-    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="33"/>
       <c r="C274" s="76">
@@ -20287,7 +20309,7 @@
       <c r="AA274" s="1"/>
       <c r="AB274" s="1"/>
     </row>
-    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" s="133" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="33"/>
       <c r="C275" s="76">
@@ -20343,7 +20365,7 @@
       <c r="AA275" s="1"/>
       <c r="AB275" s="1"/>
     </row>
-    <row r="276" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="33"/>
       <c r="C276" s="76">
@@ -20396,7 +20418,7 @@
       <c r="AA276" s="1"/>
       <c r="AB276" s="1"/>
     </row>
-    <row r="277" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="33"/>
       <c r="C277" s="76">
@@ -20449,7 +20471,7 @@
       <c r="AA277" s="1"/>
       <c r="AB277" s="1"/>
     </row>
-    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="33"/>
       <c r="C278" s="76">
@@ -20484,7 +20506,7 @@
       <c r="AA278" s="1"/>
       <c r="AB278" s="1"/>
     </row>
-    <row r="279" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" s="133" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="33"/>
       <c r="C279" s="76">
@@ -20534,7 +20556,7 @@
       <c r="AA279" s="1"/>
       <c r="AB279" s="1"/>
     </row>
-    <row r="280" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="33"/>
       <c r="C280" s="76">
@@ -20592,7 +20614,7 @@
       <c r="AA280" s="1"/>
       <c r="AB280" s="1"/>
     </row>
-    <row r="281" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="33"/>
       <c r="C281" s="76">
@@ -20650,7 +20672,7 @@
       <c r="AA281" s="1"/>
       <c r="AB281" s="1"/>
     </row>
-    <row r="282" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="33"/>
       <c r="C282" s="76">
@@ -20703,7 +20725,7 @@
       <c r="AA282" s="1"/>
       <c r="AB282" s="1"/>
     </row>
-    <row r="283" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="33"/>
       <c r="C283" s="76">
@@ -20755,7 +20777,7 @@
       <c r="AA283" s="1"/>
       <c r="AB283" s="1"/>
     </row>
-    <row r="284" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="33"/>
       <c r="C284" s="76">
@@ -20810,7 +20832,7 @@
       <c r="AA284" s="1"/>
       <c r="AB284" s="1"/>
     </row>
-    <row r="285" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="33"/>
       <c r="C285" s="76">
@@ -20864,7 +20886,7 @@
       <c r="AA285" s="1"/>
       <c r="AB285" s="1"/>
     </row>
-    <row r="286" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="33"/>
       <c r="C286" s="76">
@@ -20918,7 +20940,7 @@
       <c r="AA286" s="1"/>
       <c r="AB286" s="1"/>
     </row>
-    <row r="287" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="33"/>
       <c r="C287" s="76">
@@ -20968,7 +20990,7 @@
       <c r="AA287" s="1"/>
       <c r="AB287" s="1"/>
     </row>
-    <row r="288" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="33"/>
       <c r="C288" s="76">
@@ -21018,7 +21040,7 @@
       <c r="AA288" s="1"/>
       <c r="AB288" s="1"/>
     </row>
-    <row r="289" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="33"/>
       <c r="C289" s="76">
@@ -21071,7 +21093,7 @@
       <c r="AA289" s="1"/>
       <c r="AB289" s="1"/>
     </row>
-    <row r="290" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="33"/>
       <c r="C290" s="76">
@@ -21125,7 +21147,7 @@
       <c r="AA290" s="1"/>
       <c r="AB290" s="1"/>
     </row>
-    <row r="291" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="33"/>
       <c r="C291" s="76">
@@ -21179,7 +21201,7 @@
       <c r="AA291" s="1"/>
       <c r="AB291" s="1"/>
     </row>
-    <row r="292" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="33"/>
       <c r="C292" s="76">
@@ -21229,7 +21251,7 @@
       <c r="AA292" s="1"/>
       <c r="AB292" s="1"/>
     </row>
-    <row r="293" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="33"/>
       <c r="C293" s="76">
@@ -21279,7 +21301,7 @@
       <c r="AA293" s="1"/>
       <c r="AB293" s="1"/>
     </row>
-    <row r="294" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="33"/>
       <c r="C294" s="76">
@@ -21332,7 +21354,7 @@
       <c r="AA294" s="1"/>
       <c r="AB294" s="1"/>
     </row>
-    <row r="295" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="33"/>
       <c r="C295" s="76">
@@ -21384,7 +21406,7 @@
       <c r="AA295" s="1"/>
       <c r="AB295" s="1"/>
     </row>
-    <row r="296" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="33"/>
       <c r="C296" s="76">
@@ -21436,7 +21458,7 @@
       <c r="AA296" s="1"/>
       <c r="AB296" s="1"/>
     </row>
-    <row r="297" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="33"/>
       <c r="C297" s="76">
@@ -21485,7 +21507,7 @@
       <c r="AA297" s="1"/>
       <c r="AB297" s="1"/>
     </row>
-    <row r="298" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="33"/>
       <c r="C298" s="76">
@@ -21532,7 +21554,7 @@
       <c r="AA298" s="1"/>
       <c r="AB298" s="1"/>
     </row>
-    <row r="299" spans="1:28" s="133" customFormat="1" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" s="133" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="33"/>
       <c r="C299" s="76">
@@ -21585,7 +21607,7 @@
       <c r="AA299" s="1"/>
       <c r="AB299" s="1"/>
     </row>
-    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" s="133" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="33"/>
       <c r="C300" s="76">
@@ -21618,7 +21640,7 @@
       <c r="AA300" s="1"/>
       <c r="AB300" s="1"/>
     </row>
-    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="33"/>
       <c r="C301" s="76">
@@ -21686,7 +21708,7 @@
       <c r="AA302" s="1"/>
       <c r="AB302" s="1"/>
     </row>
-    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" s="99" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="19"/>
       <c r="C303" s="80">
@@ -21719,7 +21741,7 @@
       <c r="AA303" s="1"/>
       <c r="AB303" s="1"/>
     </row>
-    <row r="304" spans="1:28" s="99" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" s="99" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="76">
@@ -21752,7 +21774,7 @@
       <c r="AA304" s="1"/>
       <c r="AB304" s="1"/>
     </row>
-    <row r="305" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" s="101" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="76">
@@ -21818,7 +21840,7 @@
       <c r="AA306" s="1"/>
       <c r="AB306" s="1"/>
     </row>
-    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" s="101" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="34" t="s">
         <v>21</v>
@@ -21853,7 +21875,7 @@
       <c r="AA307" s="1"/>
       <c r="AB307" s="1"/>
     </row>
-    <row r="308" spans="1:28" s="101" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" s="101" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="33"/>
       <c r="C308" s="76">
@@ -22314,7 +22336,7 @@
       <c r="K320" s="2"/>
       <c r="L320" s="132">
         <f>i_w_start_len1*i_n1_len^L323</f>
-        <v>729</v>
+        <v>24</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" s="127" t="s">
@@ -22399,7 +22421,7 @@
       </c>
       <c r="K322" s="126"/>
       <c r="L322" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M322" s="126"/>
       <c r="N322" s="2"/>
@@ -22438,7 +22460,7 @@
       <c r="K323" s="2"/>
       <c r="L323" s="132">
         <f>COUNTIF(J341:O341,TRUE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -22663,7 +22685,7 @@
         <v>1</v>
       </c>
       <c r="L328" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M328" s="31">
         <v>1</v>
@@ -22671,7 +22693,7 @@
       <c r="N328" s="2"/>
       <c r="O328" s="54"/>
       <c r="P328" s="149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q328" s="149">
         <v>1</v>
@@ -22708,7 +22730,7 @@
       <c r="J329" s="54"/>
       <c r="K329" s="54"/>
       <c r="L329" s="31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M329" s="31">
         <v>0.5</v>
@@ -22753,7 +22775,7 @@
       <c r="J330" s="54"/>
       <c r="K330" s="54"/>
       <c r="L330" s="31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M330" s="31">
         <v>1.5</v>
@@ -23222,10 +23244,10 @@
         <v>1</v>
       </c>
       <c r="N341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O341" s="31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P341" s="2"/>
       <c r="Q341" s="31">
@@ -23274,11 +23296,11 @@
       </c>
       <c r="N342" s="132">
         <f>COUNTIF($J$341:N341,TRUE)-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O342" s="132">
         <f>COUNTIF($J$341:O341,TRUE)-1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -24215,34 +24237,34 @@
       </c>
       <c r="I365" s="149"/>
       <c r="J365" s="149"/>
-      <c r="K365" s="2"/>
-      <c r="L365" s="107"/>
-      <c r="M365" s="2"/>
+      <c r="K365" s="149"/>
+      <c r="L365" s="149"/>
+      <c r="M365" s="149"/>
       <c r="N365" s="2"/>
       <c r="O365" s="32">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="P365" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="Q365" s="32">
         <v>0.1</v>
       </c>
-      <c r="Q365" s="32">
-        <v>0.05</v>
-      </c>
       <c r="R365" s="32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S365" s="2"/>
       <c r="T365" s="32">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="U365" s="32">
+        <v>0.3</v>
+      </c>
+      <c r="V365" s="32">
         <v>0.1</v>
       </c>
-      <c r="V365" s="32">
-        <v>0.05</v>
-      </c>
       <c r="W365" s="32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="X365" s="4"/>
       <c r="Y365" s="16"/>
@@ -24268,34 +24290,34 @@
       </c>
       <c r="I366" s="149"/>
       <c r="J366" s="149"/>
-      <c r="K366" s="2"/>
-      <c r="L366" s="107"/>
-      <c r="M366" s="2"/>
+      <c r="K366" s="149"/>
+      <c r="L366" s="149"/>
+      <c r="M366" s="149"/>
       <c r="N366" s="2"/>
       <c r="O366" s="32">
-        <v>-0.15</v>
+        <v>-0.4</v>
       </c>
       <c r="P366" s="32">
+        <v>-0.3</v>
+      </c>
+      <c r="Q366" s="32">
         <v>-0.1</v>
       </c>
-      <c r="Q366" s="32">
-        <v>-0.05</v>
-      </c>
       <c r="R366" s="32">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="S366" s="2"/>
       <c r="T366" s="32">
-        <v>-0.15</v>
+        <v>-0.4</v>
       </c>
       <c r="U366" s="32">
+        <v>-0.3</v>
+      </c>
+      <c r="V366" s="32">
         <v>-0.1</v>
       </c>
-      <c r="V366" s="32">
-        <v>-0.05</v>
-      </c>
       <c r="W366" s="32">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="X366" s="4"/>
       <c r="Y366" s="16"/>
@@ -24436,7 +24458,7 @@
       <c r="AA370" s="1"/>
       <c r="AB370" s="1"/>
     </row>
-    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" s="142" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="19"/>
       <c r="C371" s="80">
@@ -24469,7 +24491,7 @@
       <c r="AA371" s="1"/>
       <c r="AB371" s="1"/>
     </row>
-    <row r="372" spans="1:28" s="142" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" s="142" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="76">
@@ -24695,109 +24717,119 @@
     <mergeCell ref="Q358:W358"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="I364:J366 I362:I363">
-    <cfRule type="expression" dxfId="20" priority="75">
+  <conditionalFormatting sqref="I364:J366 I362:I363 J365:M366">
+    <cfRule type="expression" dxfId="22" priority="77">
       <formula>($E362&gt;=I$320)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O364:O366">
-    <cfRule type="expression" dxfId="19" priority="76">
+  <conditionalFormatting sqref="O364">
+    <cfRule type="expression" dxfId="21" priority="78">
       <formula>($E364&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T364:T366">
-    <cfRule type="expression" dxfId="18" priority="83">
+    <cfRule type="expression" dxfId="20" priority="85">
       <formula>($E364&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P366">
-    <cfRule type="expression" dxfId="17" priority="149">
+    <cfRule type="expression" dxfId="19" priority="151">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q366 U366">
-    <cfRule type="expression" dxfId="16" priority="150">
+    <cfRule type="expression" dxfId="18" priority="152">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R366">
-    <cfRule type="expression" dxfId="15" priority="152">
+    <cfRule type="expression" dxfId="17" priority="154">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W366">
-    <cfRule type="expression" dxfId="14" priority="153">
+    <cfRule type="expression" dxfId="16" priority="155">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V366">
-    <cfRule type="expression" dxfId="13" priority="154">
+    <cfRule type="expression" dxfId="15" priority="156">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P365">
-    <cfRule type="expression" dxfId="12" priority="155">
+    <cfRule type="expression" dxfId="14" priority="157">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q365 U365">
-    <cfRule type="expression" dxfId="11" priority="156">
+    <cfRule type="expression" dxfId="13" priority="158">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R365">
-    <cfRule type="expression" dxfId="10" priority="158">
+    <cfRule type="expression" dxfId="12" priority="160">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W365">
-    <cfRule type="expression" dxfId="9" priority="159">
+    <cfRule type="expression" dxfId="11" priority="161">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V365">
-    <cfRule type="expression" dxfId="8" priority="160">
+    <cfRule type="expression" dxfId="10" priority="162">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K364">
-    <cfRule type="expression" dxfId="7" priority="161">
+    <cfRule type="expression" dxfId="9" priority="163">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M364">
-    <cfRule type="expression" dxfId="6" priority="162">
+    <cfRule type="expression" dxfId="8" priority="164">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L364">
-    <cfRule type="expression" dxfId="5" priority="163">
+    <cfRule type="expression" dxfId="7" priority="165">
       <formula>(#REF!&gt;=J$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P364">
-    <cfRule type="expression" dxfId="4" priority="164">
+    <cfRule type="expression" dxfId="6" priority="166">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q364 U364">
-    <cfRule type="expression" dxfId="3" priority="165">
+    <cfRule type="expression" dxfId="5" priority="167">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R364">
-    <cfRule type="expression" dxfId="2" priority="167">
+    <cfRule type="expression" dxfId="4" priority="169">
       <formula>(#REF!&gt;=L$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W364">
-    <cfRule type="expression" dxfId="1" priority="168">
+    <cfRule type="expression" dxfId="3" priority="170">
       <formula>(#REF!&gt;=P$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V364">
-    <cfRule type="expression" dxfId="0" priority="169">
+    <cfRule type="expression" dxfId="2" priority="171">
       <formula>(#REF!&gt;=P$320)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O366">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>(#REF!&gt;=K$320)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O365">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>(#REF!&gt;=K$320)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F9AA18-5F35-4369-8658-30224DABEB8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C28B145-09C2-457C-8B3F-FFAC4BE3576D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -7000,7 +7000,7 @@
   <dimension ref="A1:AE362"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B317" workbookViewId="0">
-      <selection activeCell="P322" sqref="P322"/>
+      <selection activeCell="P323" sqref="P323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="P320" s="125">
         <f>i_w_start_len3*i_n3_len^P323</f>
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
@@ -22091,7 +22091,7 @@
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
       <c r="P322" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q322" s="119"/>
       <c r="R322" s="119"/>

--- a/Structural.xlsx
+++ b/Structural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21512438\Dropbox\Michael\Work-Uni-Coding\AFO\AFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\AFO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C28B145-09C2-457C-8B3F-FFAC4BE3576D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F05337F-C246-4A1A-930A-D14752A65EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="678" activeTab="1" xr2:uid="{0842FB8C-088A-42F9-B075-24D0619777A0}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="24" r:id="rId1"/>
@@ -142,14 +142,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2001,7 +1993,8 @@
     <t xml:space="preserve">         Therefore think about the final sale date relative to 1 Jan, rather than the age of the animal</t>
   </si>
   <si>
-    <t>22Mar21: Alter the initial weight &amp; wool spread for the weaners
+    <t>29Mar21: Changed to FVP3, 1N for dams, 3N for Offs
+22Mar21: Alter the initial weight &amp; wool spread for the weaners
 1: 1Apr19-Blank worksheet</t>
   </si>
 </sst>
@@ -3975,25 +3968,25 @@
       <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="147" customWidth="1"/>
-    <col min="2" max="2" width="2.7265625" style="147" customWidth="1"/>
-    <col min="3" max="3" width="4.7265625" style="147" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="1.7265625" style="147" customWidth="1"/>
-    <col min="5" max="6" width="9.7265625" style="147" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="1.7265625" style="147" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="37.26953125" style="147" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7265625" style="147" customWidth="1"/>
-    <col min="10" max="23" width="10.81640625" style="147" customWidth="1"/>
-    <col min="24" max="24" width="1.7265625" style="147" customWidth="1"/>
-    <col min="25" max="26" width="4.7265625" style="147" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="147"/>
-    <col min="28" max="28" width="46.1796875" style="147" customWidth="1"/>
-    <col min="29" max="16384" width="8.7265625" style="147"/>
+    <col min="1" max="1" width="4.7109375" style="147" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="147" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="147" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="1.7109375" style="147" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" style="147" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="1.7109375" style="147" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="37.28515625" style="147" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="147" customWidth="1"/>
+    <col min="10" max="23" width="10.85546875" style="147" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" style="147" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" style="147" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="147"/>
+    <col min="28" max="28" width="46.140625" style="147" customWidth="1"/>
+    <col min="29" max="16384" width="8.7109375" style="147"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="66"/>
@@ -4023,7 +4016,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="67">
@@ -4056,7 +4049,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="20"/>
       <c r="C3" s="68">
@@ -4089,7 +4082,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="34" t="s">
         <v>21</v>
@@ -4124,7 +4117,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="33"/>
       <c r="C5" s="67">
@@ -4195,7 +4188,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33"/>
       <c r="C6" s="67">
@@ -4233,7 +4226,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33"/>
       <c r="C7" s="67">
@@ -4272,7 +4265,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="67">
@@ -4305,7 +4298,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="67">
@@ -4338,7 +4331,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
       <c r="C10" s="67">
@@ -4371,7 +4364,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="33"/>
       <c r="C11" s="67">
@@ -4404,7 +4397,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
       <c r="C12" s="67">
@@ -4441,7 +4434,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="11.5" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="11.45" hidden="1" customHeight="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="33" t="s">
         <v>20</v>
@@ -4476,7 +4469,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
       <c r="C14" s="67">
@@ -4509,7 +4502,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
       <c r="C15" s="67">
@@ -4542,7 +4535,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>19</v>
@@ -4579,7 +4572,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
       <c r="C17" s="67">
@@ -4614,7 +4607,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" ht="45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
       <c r="C18" s="67">
@@ -4653,7 +4646,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
       <c r="C19" s="67">
@@ -4686,7 +4679,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="33"/>
       <c r="C20" s="67">
@@ -4719,7 +4712,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="33"/>
       <c r="C21" s="67">
@@ -4758,7 +4751,7 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="33"/>
       <c r="C22" s="67">
@@ -4791,7 +4784,7 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="33"/>
       <c r="C23" s="67">
@@ -4824,7 +4817,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="33"/>
       <c r="C24" s="67">
@@ -4859,7 +4852,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="33"/>
       <c r="C25" s="67">
@@ -4894,7 +4887,7 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="33"/>
       <c r="C26" s="67">
@@ -4941,7 +4934,7 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="33"/>
       <c r="C27" s="67">
@@ -4978,7 +4971,7 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="33"/>
       <c r="C28" s="67">
@@ -5015,7 +5008,7 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="33"/>
       <c r="C29" s="67">
@@ -5052,7 +5045,7 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="33"/>
       <c r="C30" s="67">
@@ -5089,7 +5082,7 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:28" ht="5.15" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:28" ht="5.0999999999999996" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="33"/>
       <c r="C31" s="67">
@@ -5124,7 +5117,7 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="33"/>
       <c r="C32" s="67">
@@ -5157,7 +5150,7 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="35"/>
       <c r="C33" s="70">
@@ -5192,7 +5185,7 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:28" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
       <c r="C34" s="71">
@@ -5225,7 +5218,7 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="67">
@@ -5258,7 +5251,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="73">
@@ -5291,7 +5284,7 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
     </row>
-    <row r="37" spans="1:28" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
       <c r="C37" s="74">
@@ -5324,7 +5317,7 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
     </row>
-    <row r="38" spans="1:28" ht="5.15" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="34" t="s">
         <v>21</v>
@@ -5359,7 +5352,7 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
     </row>
-    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="33"/>
       <c r="C39" s="73">
@@ -5392,7 +5385,7 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
     </row>
-    <row r="40" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="33"/>
       <c r="C40" s="73">
@@ -5429,7 +5422,7 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
     </row>
-    <row r="41" spans="1:28" ht="20.149999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="33"/>
       <c r="C41" s="73">
@@ -5468,7 +5461,7 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
     </row>
-    <row r="42" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="33"/>
       <c r="C42" s="73">
@@ -5501,7 +5494,7 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
     </row>
-    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="33"/>
       <c r="C43" s="73">
@@ -5534,7 +5527,7 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
     </row>
-    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="33"/>
       <c r="C44" s="73">
@@ -5567,7 +5560,7 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
     </row>
-    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="33"/>
       <c r="C45" s="73">
@@ -5600,7 +5593,7 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
     </row>
-    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="33"/>
       <c r="C46" s="73">
@@ -5633,7 +5626,7 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
     </row>
-    <row r="47" spans="1:28" ht="11.5" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="11.45" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="33" t="s">
         <v>20</v>
@@ -5668,7 +5661,7 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
     </row>
-    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="33"/>
       <c r="C48" s="73">
@@ -5701,7 +5694,7 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
     </row>
-    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="33" t="s">
         <v>19</v>
@@ -5738,7 +5731,7 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="5.15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="5.0999999999999996" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="33"/>
       <c r="C50" s="73">
@@ -5773,7 +5766,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="33"/>
       <c r="C51" s="73">
@@ -5814,7 +5807,7 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="33"/>
       <c r="C52" s="73">
@@ -5847,7 +5840,7 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
-    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="33"/>
       <c r="C53" s="73">
@@ -5886,7 +5879,7 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
     </row>
-    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="33"/>
       <c r="C54" s="73">
@@ -5919,7 +5912,7 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
     </row>
-    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="33"/>
       <c r="C55" s="73">
@@ -5960,7 +5953,7 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
     </row>
-    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s=